--- a/public/expense-analysis.xlsx
+++ b/public/expense-analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kotzbauer/expense_management_analytics-Midlothian/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A3B29CF-1AD7-AE47-8B50-27CFFBE678AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7EA9D059-6D31-9042-BA11-5544D450B97E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3960" yWindow="760" windowWidth="23700" windowHeight="16580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3940" yWindow="760" windowWidth="23740" windowHeight="14600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="116">
   <si>
     <t>Category</t>
   </si>
@@ -100,12 +100,21 @@
     <t>Elasticity Classification</t>
   </si>
   <si>
-    <t>Performance Diagnostic Assignment</t>
+    <t>Margin Risk Assessment</t>
   </si>
   <si>
     <t>Marketing Spend Efficiency</t>
   </si>
   <si>
+    <t>Expense Trend Slope</t>
+  </si>
+  <si>
+    <t>Gross Profit Trend Slope</t>
+  </si>
+  <si>
+    <t>Trend Diagnostic</t>
+  </si>
+  <si>
     <t>Ranking Priority</t>
   </si>
   <si>
@@ -121,6 +130,57 @@
     <t>Professional Liability</t>
   </si>
   <si>
+    <t>Total Payroll Expense</t>
+  </si>
+  <si>
+    <t>Midlevel</t>
+  </si>
+  <si>
+    <t>Clinical</t>
+  </si>
+  <si>
+    <t>Total Insurance</t>
+  </si>
+  <si>
+    <t>Center Admin</t>
+  </si>
+  <si>
+    <t>Reception</t>
+  </si>
+  <si>
+    <t>Sales/Mkt.</t>
+  </si>
+  <si>
+    <t>Taxes</t>
+  </si>
+  <si>
+    <t>Medical Direction and Oversight</t>
+  </si>
+  <si>
+    <t>Royalties</t>
+  </si>
+  <si>
+    <t>Processing</t>
+  </si>
+  <si>
+    <t>Chart Billing</t>
+  </si>
+  <si>
+    <t>Cleaning Service</t>
+  </si>
+  <si>
+    <t>Advertising &amp; Marketing Fund</t>
+  </si>
+  <si>
+    <t>Telephone</t>
+  </si>
+  <si>
+    <t>Lab Fees</t>
+  </si>
+  <si>
+    <t>Medical Billing</t>
+  </si>
+  <si>
     <t>Utilities - Gas, Electric &amp; Water</t>
   </si>
   <si>
@@ -184,57 +244,6 @@
     <t>Total Supplies - Medical</t>
   </si>
   <si>
-    <t>Total Payroll Expense</t>
-  </si>
-  <si>
-    <t>Total Insurance</t>
-  </si>
-  <si>
-    <t>Center Admin</t>
-  </si>
-  <si>
-    <t>Reception</t>
-  </si>
-  <si>
-    <t>Sales/Mkt.</t>
-  </si>
-  <si>
-    <t>Taxes</t>
-  </si>
-  <si>
-    <t>Medical Direction and Oversight</t>
-  </si>
-  <si>
-    <t>Chart Billing</t>
-  </si>
-  <si>
-    <t>Cleaning Service</t>
-  </si>
-  <si>
-    <t>Telephone</t>
-  </si>
-  <si>
-    <t>Lab Fees</t>
-  </si>
-  <si>
-    <t>Medical Billing</t>
-  </si>
-  <si>
-    <t>Midlevel</t>
-  </si>
-  <si>
-    <t>Clinical</t>
-  </si>
-  <si>
-    <t>Royalties</t>
-  </si>
-  <si>
-    <t>Processing</t>
-  </si>
-  <si>
-    <t>Advertising &amp; Marketing Fund</t>
-  </si>
-  <si>
     <t>Auto</t>
   </si>
   <si>
@@ -310,37 +319,55 @@
     <t>One-time</t>
   </si>
   <si>
+    <t>Costs Flat Despite Profit Decline</t>
+  </si>
+  <si>
+    <t>Expenses Grew Even Though Profit Declined</t>
+  </si>
+  <si>
     <t>Costs Declined Along With Profit</t>
   </si>
   <si>
-    <t>Expenses Grew Even Though Profit Declined</t>
+    <t>Investigate - Potential Risk</t>
+  </si>
+  <si>
+    <t>Stable - No Action</t>
   </si>
   <si>
     <t>Below Threshold</t>
   </si>
   <si>
-    <t>Fixed or unresponsive</t>
-  </si>
-  <si>
-    <t>Moderately responsive</t>
-  </si>
-  <si>
-    <t>Highly responsive</t>
-  </si>
-  <si>
-    <t>Minimally responsive</t>
-  </si>
-  <si>
-    <t>Neutral – Keep Watching</t>
-  </si>
-  <si>
-    <t>Margin Risk – Growth with Flat or Declining Profit</t>
-  </si>
-  <si>
-    <t>Margin Risk – Continual Growth</t>
+    <t>Fixed or Consistent</t>
+  </si>
+  <si>
+    <t>Semi-variable</t>
+  </si>
+  <si>
+    <t>Over-scaled</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Neutral</t>
+  </si>
+  <si>
+    <t>Margin Risk</t>
+  </si>
+  <si>
+    <t>Margin Improvement</t>
   </si>
   <si>
     <t>Under-Leveraged</t>
+  </si>
+  <si>
+    <t>Expenses trending flat</t>
+  </si>
+  <si>
+    <t>Expenses trending up</t>
+  </si>
+  <si>
+    <t>Expenses trending down</t>
   </si>
 </sst>
 </file>
@@ -708,10 +735,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC64"/>
+  <dimension ref="A1:AF64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -736,14 +763,17 @@
     <col min="22" max="22" width="24.83203125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="34.33203125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="29" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="21" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="38.83203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="19.5" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -831,10 +861,19 @@
       <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B2">
         <v>11186</v>
@@ -873,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="O2">
         <v>11186</v>
@@ -900,24 +939,33 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="Y2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="Z2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="AA2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>-5487.726999999999</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B3">
         <v>825</v>
@@ -956,7 +1004,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="O3">
         <v>825</v>
@@ -983,24 +1031,33 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="Y3" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="Z3" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="AA3" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>-5487.726999999999</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B4">
         <v>500</v>
@@ -1039,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="O4">
         <v>500</v>
@@ -1066,24 +1123,33 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="Y4" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="Z4" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="AA4" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>-5487.726999999999</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B5">
         <v>2437.86</v>
@@ -1122,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="N5" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="O5">
         <v>2437.86</v>
@@ -1149,39 +1215,48 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="Y5" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="Z5" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="AA5" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>-5487.726999999999</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B6">
-        <v>638.24</v>
+        <v>71432.56</v>
       </c>
       <c r="C6">
-        <v>1112.06</v>
+        <v>64705.41</v>
       </c>
       <c r="D6">
-        <v>216.58</v>
+        <v>69880.05</v>
       </c>
       <c r="E6">
-        <v>497.76</v>
+        <v>64794.82</v>
       </c>
       <c r="F6">
-        <v>549.22</v>
+        <v>90094.59</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -1193,78 +1268,87 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>602.77199999999993</v>
+        <v>72181.486000000004</v>
       </c>
       <c r="K6">
-        <v>1.11E-2</v>
+        <v>0.85299999999999998</v>
       </c>
       <c r="L6">
-        <v>-0.84730000000000005</v>
+        <v>2.6200000000000001E-2</v>
       </c>
       <c r="M6">
-        <v>-113.55557485905049</v>
+        <v>1007.99223220539</v>
       </c>
       <c r="N6" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="O6">
-        <v>602.77199999999993</v>
+        <v>72181.486000000004</v>
       </c>
       <c r="P6">
-        <v>335.54411900098557</v>
+        <v>40181.151626240069</v>
       </c>
       <c r="Q6">
-        <v>602.77199999999993</v>
+        <v>72181.486000000004</v>
       </c>
       <c r="R6">
-        <v>616.16</v>
+        <v>67703.210000000006</v>
       </c>
       <c r="S6">
-        <v>602.77199999999993</v>
+        <v>72181.486000000004</v>
       </c>
       <c r="T6">
-        <v>-66.939999999999941</v>
+        <v>22391.37999999999</v>
       </c>
       <c r="U6">
-        <v>-0.1086406128278368</v>
+        <v>0.33072848392269721</v>
       </c>
       <c r="V6">
-        <v>2.204273589225586E-2</v>
+        <v>-6.7103456372313977E-2</v>
       </c>
       <c r="W6" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="Y6" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="Z6" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="AA6" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="AC6">
+        <v>3741.3469999999988</v>
+      </c>
+      <c r="AD6">
+        <v>-5487.726999999999</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B7">
-        <v>4318.71</v>
+        <v>23912.63</v>
       </c>
       <c r="C7">
-        <v>4292.4799999999996</v>
+        <v>19891.330000000002</v>
       </c>
       <c r="D7">
-        <v>12640.74</v>
+        <v>26360.27</v>
       </c>
       <c r="E7">
-        <v>4646.13</v>
+        <v>28888.76</v>
       </c>
       <c r="F7">
-        <v>6361.45</v>
+        <v>36142.76</v>
       </c>
       <c r="G7">
         <v>5</v>
@@ -1276,78 +1360,87 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6451.902</v>
+        <v>27039.15</v>
       </c>
       <c r="K7">
-        <v>1.9800000000000002E-2</v>
+        <v>0.51090000000000002</v>
       </c>
       <c r="L7">
-        <v>0.42320000000000002</v>
+        <v>0.21920000000000001</v>
       </c>
       <c r="M7">
-        <v>788.36322164836474</v>
+        <v>1500.8267588361271</v>
       </c>
       <c r="N7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="O7">
-        <v>6451.902</v>
+        <v>27039.15</v>
       </c>
       <c r="P7">
-        <v>3591.5699011744032</v>
+        <v>15051.84010751246</v>
       </c>
       <c r="Q7">
-        <v>6451.902</v>
+        <v>27039.15</v>
       </c>
       <c r="R7">
-        <v>6474.5150000000003</v>
+        <v>24763.247500000001</v>
       </c>
       <c r="S7">
-        <v>6451.902</v>
+        <v>27039.15</v>
       </c>
       <c r="T7">
-        <v>-113.0650000000005</v>
+        <v>11379.512500000001</v>
       </c>
       <c r="U7">
-        <v>-1.746308410745832E-2</v>
+        <v>0.45953231699517599</v>
       </c>
       <c r="V7">
-        <v>3.5431883236424762E-3</v>
+        <v>-9.3237227164146091E-2</v>
       </c>
       <c r="W7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="Y7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="Z7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="AA7" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="AC7">
+        <v>3345.7689999999998</v>
+      </c>
+      <c r="AD7">
+        <v>-5487.726999999999</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B8">
-        <v>3561.99</v>
+        <v>9191.1</v>
       </c>
       <c r="C8">
-        <v>2790.94</v>
+        <v>9208.43</v>
       </c>
       <c r="D8">
-        <v>1261.69</v>
+        <v>10819.75</v>
       </c>
       <c r="E8">
-        <v>2141.1999999999998</v>
+        <v>9856.0400000000009</v>
       </c>
       <c r="F8">
-        <v>2097.2199999999998</v>
+        <v>14459.29</v>
       </c>
       <c r="G8">
         <v>5</v>
@@ -1359,78 +1452,87 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>2370.6080000000002</v>
+        <v>10706.922</v>
       </c>
       <c r="K8">
-        <v>1E-3</v>
+        <v>0.77839999999999998</v>
       </c>
       <c r="L8">
-        <v>-0.38419999999999999</v>
+        <v>8.14E-2</v>
       </c>
       <c r="M8">
-        <v>-225.6910534893195</v>
+        <v>353.89576261010552</v>
       </c>
       <c r="N8" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="O8">
-        <v>2370.6080000000002</v>
+        <v>10706.922</v>
       </c>
       <c r="P8">
-        <v>1319.6425395617059</v>
+        <v>5960.2050355727724</v>
       </c>
       <c r="Q8">
-        <v>2370.6080000000002</v>
+        <v>10706.922</v>
       </c>
       <c r="R8">
-        <v>2438.9549999999999</v>
+        <v>9768.83</v>
       </c>
       <c r="S8">
-        <v>2370.6080000000002</v>
+        <v>10706.922</v>
       </c>
       <c r="T8">
-        <v>-341.73500000000013</v>
+        <v>4690.4600000000009</v>
       </c>
       <c r="U8">
-        <v>-0.14011533628131731</v>
+        <v>0.4801455240801612</v>
       </c>
       <c r="V8">
-        <v>2.8428828517362E-2</v>
+        <v>-9.7419562552724479E-2</v>
       </c>
       <c r="W8" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="Y8" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="Z8" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="AA8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="AC8">
+        <v>1118.3989999999999</v>
+      </c>
+      <c r="AD8">
+        <v>-5487.726999999999</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B9">
-        <v>807.87</v>
+        <v>6161.05</v>
       </c>
       <c r="C9">
-        <v>2280.08</v>
+        <v>5378.6</v>
       </c>
       <c r="D9">
-        <v>1005.26</v>
+        <v>3872.66</v>
       </c>
       <c r="E9">
-        <v>1442.2</v>
+        <v>4746.3</v>
       </c>
       <c r="F9">
-        <v>906.83</v>
+        <v>8651.17</v>
       </c>
       <c r="G9">
         <v>5</v>
@@ -1442,78 +1544,87 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>1288.4480000000001</v>
+        <v>5761.9560000000001</v>
       </c>
       <c r="K9">
-        <v>0.05</v>
+        <v>0.87360000000000004</v>
       </c>
       <c r="L9">
-        <v>-0.42230000000000001</v>
+        <v>-0.1648</v>
       </c>
       <c r="M9">
-        <v>-144.86566968965289</v>
+        <v>-89.676071400925139</v>
       </c>
       <c r="N9" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="O9">
-        <v>1288.4480000000001</v>
+        <v>5761.9560000000001</v>
       </c>
       <c r="P9">
-        <v>717.23827423732666</v>
+        <v>3207.498771911175</v>
       </c>
       <c r="Q9">
-        <v>1288.4480000000001</v>
+        <v>5761.9560000000001</v>
       </c>
       <c r="R9">
-        <v>1383.8525</v>
+        <v>5039.6525000000001</v>
       </c>
       <c r="S9">
-        <v>1288.4480000000001</v>
+        <v>5761.9560000000001</v>
       </c>
       <c r="T9">
-        <v>-477.02249999999992</v>
+        <v>3611.5174999999999</v>
       </c>
       <c r="U9">
-        <v>-0.34470617352644162</v>
+        <v>0.71662034237479666</v>
       </c>
       <c r="V9">
-        <v>6.9939472409958445E-2</v>
+        <v>-0.1453993357623822</v>
       </c>
       <c r="W9" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="Y9" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="Z9" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="AA9" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="AC9">
+        <v>434.79399999999993</v>
+      </c>
+      <c r="AD9">
+        <v>-5487.726999999999</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B10">
-        <v>2601.5</v>
+        <v>7200.23</v>
       </c>
       <c r="C10">
-        <v>200</v>
+        <v>6442.7</v>
       </c>
       <c r="D10">
-        <v>200</v>
+        <v>7085.15</v>
       </c>
       <c r="E10">
-        <v>200</v>
+        <v>6263.31</v>
       </c>
       <c r="F10">
-        <v>200</v>
+        <v>10273.120000000001</v>
       </c>
       <c r="G10">
         <v>5</v>
@@ -1525,78 +1636,87 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>680.3</v>
+        <v>7452.902</v>
       </c>
       <c r="K10">
-        <v>4.0599999999999997E-2</v>
+        <v>0.88600000000000001</v>
       </c>
       <c r="L10">
-        <v>-6.6799999999999998E-2</v>
+        <v>2.3E-2</v>
       </c>
       <c r="M10">
-        <v>-101.32724414110029</v>
+        <v>138.87856490379821</v>
       </c>
       <c r="N10" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="O10">
-        <v>680.3</v>
+        <v>7452.902</v>
       </c>
       <c r="P10">
-        <v>378.7015059697041</v>
+        <v>4148.7949599362337</v>
       </c>
       <c r="Q10">
-        <v>680.3</v>
+        <v>7452.902</v>
       </c>
       <c r="R10">
-        <v>800.375</v>
+        <v>6747.8475000000008</v>
       </c>
       <c r="S10">
-        <v>680.3</v>
+        <v>7452.902</v>
       </c>
       <c r="T10">
-        <v>-600.375</v>
+        <v>3525.2725</v>
       </c>
       <c r="U10">
-        <v>-0.75011713259409651</v>
+        <v>0.52242918945634143</v>
       </c>
       <c r="V10">
-        <v>0.1521956974619651</v>
+        <v>-0.10599874527438941</v>
       </c>
       <c r="W10" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="Y10" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="Z10" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="AA10" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="AC10">
+        <v>596.63900000000035</v>
+      </c>
+      <c r="AD10">
+        <v>-5487.726999999999</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B11">
-        <v>2601.5</v>
+        <v>11938.49</v>
       </c>
       <c r="C11">
-        <v>200</v>
+        <v>13090.79</v>
       </c>
       <c r="D11">
-        <v>200</v>
+        <v>12847.84</v>
       </c>
       <c r="E11">
-        <v>200</v>
+        <v>9592.75</v>
       </c>
       <c r="F11">
-        <v>200</v>
+        <v>14629</v>
       </c>
       <c r="G11">
         <v>5</v>
@@ -1608,78 +1728,87 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>680.3</v>
+        <v>12419.773999999999</v>
       </c>
       <c r="K11">
-        <v>4.0599999999999997E-2</v>
+        <v>0.52729999999999999</v>
       </c>
       <c r="L11">
-        <v>-6.6799999999999998E-2</v>
+        <v>-0.1048</v>
       </c>
       <c r="M11">
-        <v>-101.32724414110029</v>
+        <v>-146.8884214609279</v>
       </c>
       <c r="N11" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="O11">
-        <v>680.3</v>
+        <v>12419.773999999999</v>
       </c>
       <c r="P11">
-        <v>378.7015059697041</v>
+        <v>6913.6956013573072</v>
       </c>
       <c r="Q11">
-        <v>680.3</v>
+        <v>12419.773999999999</v>
       </c>
       <c r="R11">
-        <v>800.375</v>
+        <v>11867.467500000001</v>
       </c>
       <c r="S11">
-        <v>680.3</v>
+        <v>12419.773999999999</v>
       </c>
       <c r="T11">
-        <v>-600.375</v>
+        <v>2761.5325000000012</v>
       </c>
       <c r="U11">
-        <v>-0.75011713259409651</v>
+        <v>0.23269770909421081</v>
       </c>
       <c r="V11">
-        <v>0.1521956974619651</v>
+        <v>-4.7213413205106691E-2</v>
       </c>
       <c r="W11" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="Y11" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="Z11" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="AA11" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="AC11">
+        <v>188.298</v>
+      </c>
+      <c r="AD11">
+        <v>-5487.726999999999</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B12">
-        <v>759.78</v>
+        <v>4293.5600000000004</v>
       </c>
       <c r="C12">
-        <v>948.57</v>
+        <v>4293.5600000000004</v>
       </c>
       <c r="D12">
-        <v>515.36</v>
+        <v>4293.5600000000004</v>
       </c>
       <c r="E12">
-        <v>624.64</v>
+        <v>4293.5600000000004</v>
       </c>
       <c r="F12">
-        <v>99</v>
+        <v>6408.93</v>
       </c>
       <c r="G12">
         <v>5</v>
@@ -1688,81 +1817,90 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.61E-2</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>587.97616484237358</v>
+        <v>4716.634</v>
       </c>
       <c r="K12">
-        <v>0.5484</v>
+        <v>0.95799999999999996</v>
       </c>
       <c r="L12">
-        <v>-0.35360000000000003</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>-77.795384600777879</v>
+        <v>71.157018050702391</v>
       </c>
       <c r="N12" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O12">
-        <v>177.51680784237359</v>
+        <v>4716.634</v>
       </c>
       <c r="P12">
-        <v>98.817995685493869</v>
+        <v>2625.6010567512999</v>
       </c>
       <c r="Q12">
-        <v>177.51680784237359</v>
+        <v>4716.634</v>
       </c>
       <c r="R12">
-        <v>712.08749999999998</v>
+        <v>4293.5600000000004</v>
       </c>
       <c r="S12">
-        <v>589.47</v>
+        <v>4716.634</v>
       </c>
       <c r="T12">
-        <v>-613.08749999999998</v>
+        <v>2115.37</v>
       </c>
       <c r="U12">
-        <v>-0.86097214176628578</v>
+        <v>0.49268439243890838</v>
       </c>
       <c r="V12">
-        <v>0.17468772531335869</v>
+        <v>-9.9963647646000103E-2</v>
       </c>
       <c r="W12" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="Y12" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="Z12" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="AA12" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="AC12">
+        <v>423.07400000000001</v>
+      </c>
+      <c r="AD12">
+        <v>-5487.726999999999</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B13">
-        <v>4032.6</v>
+        <v>5021.47</v>
       </c>
       <c r="C13">
-        <v>4120.17</v>
+        <v>4523.8599999999997</v>
       </c>
       <c r="D13">
-        <v>3791.98</v>
+        <v>4944.72</v>
       </c>
       <c r="E13">
-        <v>4178.96</v>
+        <v>4655.13</v>
       </c>
       <c r="F13">
-        <v>3401.01</v>
+        <v>6382.2999999999993</v>
       </c>
       <c r="G13">
         <v>5</v>
@@ -1771,81 +1909,90 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.7999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>3903.279379477638</v>
+        <v>5105.4960000000001</v>
       </c>
       <c r="K13">
-        <v>0.68230000000000002</v>
+        <v>0.84060000000000001</v>
       </c>
       <c r="L13">
-        <v>-2.5399999999999999E-2</v>
+        <v>3.9300000000000002E-2</v>
       </c>
       <c r="M13">
-        <v>-44.079624271468219</v>
+        <v>85.170076266082106</v>
       </c>
       <c r="N13" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O13">
-        <v>3444.3807194776382</v>
+        <v>5105.4960000000001</v>
       </c>
       <c r="P13">
-        <v>1917.377870938107</v>
+        <v>2842.068240367927</v>
       </c>
       <c r="Q13">
-        <v>3444.3807194776382</v>
+        <v>5105.4960000000001</v>
       </c>
       <c r="R13">
-        <v>4030.9274999999998</v>
+        <v>4786.2950000000001</v>
       </c>
       <c r="S13">
-        <v>3904.944</v>
+        <v>5105.4960000000001</v>
       </c>
       <c r="T13">
-        <v>-629.91749999999956</v>
+        <v>1596.004999999999</v>
       </c>
       <c r="U13">
-        <v>-0.1562711063396699</v>
+        <v>0.33345311979307568</v>
       </c>
       <c r="V13">
-        <v>3.1706768168683952E-2</v>
+        <v>-6.765627384388416E-2</v>
       </c>
       <c r="W13" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="Y13" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="Z13" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="AA13" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="AC13">
+        <v>285.29299999999978</v>
+      </c>
+      <c r="AD13">
+        <v>-5487.726999999999</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B14">
-        <v>4032.6</v>
+        <v>2001.82</v>
       </c>
       <c r="C14">
-        <v>4120.17</v>
+        <v>2000</v>
       </c>
       <c r="D14">
-        <v>3791.98</v>
+        <v>2000</v>
       </c>
       <c r="E14">
-        <v>4178.96</v>
+        <v>2000</v>
       </c>
       <c r="F14">
-        <v>3401.01</v>
+        <v>2998.95</v>
       </c>
       <c r="G14">
         <v>5</v>
@@ -1854,84 +2001,93 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.7999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>3903.2793794776371</v>
+        <v>2200.154</v>
       </c>
       <c r="K14">
-        <v>0.68230000000000002</v>
+        <v>0.95809999999999995</v>
       </c>
       <c r="L14">
-        <v>-2.5399999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>-44.07962427146731</v>
+        <v>33.525983654999443</v>
       </c>
       <c r="N14" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O14">
-        <v>3444.3807194776368</v>
+        <v>2200.154</v>
       </c>
       <c r="P14">
-        <v>1917.377870938107</v>
+        <v>1224.756185749329</v>
       </c>
       <c r="Q14">
-        <v>3444.3807194776368</v>
+        <v>2200.154</v>
       </c>
       <c r="R14">
-        <v>4030.9274999999998</v>
+        <v>2000.4549999999999</v>
       </c>
       <c r="S14">
-        <v>3904.944</v>
+        <v>2200.154</v>
       </c>
       <c r="T14">
-        <v>-629.91750000000002</v>
+        <v>998.49499999999989</v>
       </c>
       <c r="U14">
-        <v>-0.15627110633967001</v>
+        <v>0.49913394702705127</v>
       </c>
       <c r="V14">
-        <v>3.1706768168683973E-2</v>
+        <v>-0.1012722358867017</v>
       </c>
       <c r="W14" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="Y14" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="Z14" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="AA14" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="AC14">
+        <v>199.42599999999999</v>
+      </c>
+      <c r="AD14">
+        <v>-5487.726999999999</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>8229.82</v>
       </c>
       <c r="C15">
-        <v>2928.34</v>
+        <v>7708.22</v>
       </c>
       <c r="D15">
-        <v>806.12</v>
+        <v>7975.12</v>
       </c>
       <c r="E15">
-        <v>403.06</v>
+        <v>8931.98</v>
       </c>
       <c r="F15">
-        <v>403.06</v>
+        <v>9099.19</v>
       </c>
       <c r="G15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -1940,81 +2096,90 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>908.11600000000021</v>
+        <v>8388.866</v>
       </c>
       <c r="K15">
-        <v>9.9000000000000008E-3</v>
+        <v>0.30480000000000002</v>
       </c>
       <c r="L15">
-        <v>-1.0875999999999999</v>
+        <v>5.8299999999999998E-2</v>
       </c>
       <c r="M15">
-        <v>-302.40724165212049</v>
+        <v>126.4658016505491</v>
       </c>
       <c r="N15" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="O15">
-        <v>908.11600000000021</v>
+        <v>8388.866</v>
       </c>
       <c r="P15">
-        <v>505.51947199056877</v>
+        <v>4669.8165332618673</v>
       </c>
       <c r="Q15">
-        <v>908.11600000000021</v>
+        <v>8388.866</v>
       </c>
       <c r="R15">
-        <v>1034.3800000000001</v>
+        <v>8211.2849999999999</v>
       </c>
       <c r="S15">
-        <v>908.11600000000021</v>
+        <v>8388.866</v>
       </c>
       <c r="T15">
-        <v>-631.32000000000016</v>
+        <v>887.90500000000065</v>
       </c>
       <c r="U15">
-        <v>-0.61033662677159273</v>
+        <v>0.108132283802109</v>
       </c>
       <c r="V15">
-        <v>0.1238348046748995</v>
+        <v>-2.1939598012517991E-2</v>
       </c>
       <c r="W15" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="Y15" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="Z15" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="AA15" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="AC15">
+        <v>296.25000000000011</v>
+      </c>
+      <c r="AD15">
+        <v>-5487.726999999999</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>1045.1500000000001</v>
       </c>
       <c r="C16">
-        <v>2521.66</v>
+        <v>1221.7</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>1436.26</v>
       </c>
       <c r="E16">
-        <v>50</v>
+        <v>1245.27</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>1799.19</v>
       </c>
       <c r="G16">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -2023,78 +2188,87 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>514.33199999999999</v>
+        <v>1349.5139999999999</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.64419999999999999</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>6.9800000000000001E-2</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>46.316063955199752</v>
       </c>
       <c r="N16" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O16">
-        <v>514.33199999999999</v>
+        <v>1349.5139999999999</v>
       </c>
       <c r="P16">
-        <v>286.31236655653368</v>
+        <v>751.23178616375026</v>
       </c>
       <c r="Q16">
-        <v>514.33199999999999</v>
+        <v>1349.5139999999999</v>
       </c>
       <c r="R16">
-        <v>642.91499999999996</v>
+        <v>1237.095</v>
       </c>
       <c r="S16">
-        <v>514.33199999999999</v>
+        <v>1349.5139999999999</v>
       </c>
       <c r="T16">
-        <v>-642.91499999999996</v>
+        <v>562.09500000000025</v>
       </c>
       <c r="U16">
-        <v>-1</v>
+        <v>0.45436688370739542</v>
       </c>
       <c r="V16">
-        <v>0.2028959089837524</v>
+        <v>-9.2189181881926902E-2</v>
       </c>
       <c r="W16" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="Y16" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="Z16" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="AA16" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="AC16">
+        <v>153.16499999999999</v>
+      </c>
+      <c r="AD16">
+        <v>-5487.726999999999</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B17">
-        <v>937.5</v>
+        <v>3166.52</v>
       </c>
       <c r="C17">
-        <v>937.5</v>
+        <v>3166.52</v>
       </c>
       <c r="D17">
-        <v>8493.74</v>
+        <v>3166.52</v>
       </c>
       <c r="E17">
-        <v>937.5</v>
+        <v>3465.52</v>
       </c>
       <c r="F17">
-        <v>2037.5</v>
+        <v>3715.52</v>
       </c>
       <c r="G17">
         <v>5</v>
@@ -2106,327 +2280,366 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>2668.748</v>
+        <v>3336.12</v>
       </c>
       <c r="K17">
-        <v>5.0799999999999998E-2</v>
+        <v>0.61629999999999996</v>
       </c>
       <c r="L17">
-        <v>0.81169999999999998</v>
+        <v>2.9100000000000001E-2</v>
       </c>
       <c r="M17">
-        <v>667.81005088377333</v>
+        <v>37.867759796270548</v>
       </c>
       <c r="N17" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="O17">
-        <v>2668.748</v>
+        <v>3336.12</v>
       </c>
       <c r="P17">
-        <v>1485.6076534670531</v>
+        <v>1857.1125504860349</v>
       </c>
       <c r="Q17">
-        <v>2668.748</v>
+        <v>3336.12</v>
       </c>
       <c r="R17">
-        <v>2826.56</v>
+        <v>3241.27</v>
       </c>
       <c r="S17">
-        <v>2668.748</v>
+        <v>3336.12</v>
       </c>
       <c r="T17">
-        <v>-789.06</v>
+        <v>474.25</v>
       </c>
       <c r="U17">
-        <v>-0.27915911921204573</v>
+        <v>0.1463161044899067</v>
       </c>
       <c r="V17">
-        <v>5.6640243243631712E-2</v>
+        <v>-2.9686939019441319E-2</v>
       </c>
       <c r="W17" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="Y17" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="Z17" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="AA17" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="AC17">
+        <v>139.69999999999999</v>
+      </c>
+      <c r="AD17">
+        <v>-5487.726999999999</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B18">
-        <v>330.47</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>3224.86</v>
+        <v>1500</v>
       </c>
       <c r="D18">
-        <v>298.76</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>316.82</v>
+        <v>750</v>
       </c>
       <c r="F18">
-        <v>230.05</v>
+        <v>750</v>
       </c>
       <c r="G18">
+        <v>3</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>600</v>
+      </c>
+      <c r="K18">
+        <v>6.7699999999999996E-2</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>-135.824551210359</v>
+      </c>
+      <c r="N18" t="s">
+        <v>95</v>
+      </c>
+      <c r="O18">
+        <v>600</v>
+      </c>
+      <c r="P18">
+        <v>334.00103422287589</v>
+      </c>
+      <c r="Q18">
+        <v>600</v>
+      </c>
+      <c r="R18">
+        <v>562.5</v>
+      </c>
+      <c r="S18">
+        <v>600</v>
+      </c>
+      <c r="T18">
+        <v>187.5</v>
+      </c>
+      <c r="U18">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="V18">
+        <v>-6.763196966125079E-2</v>
+      </c>
+      <c r="W18" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC18">
+        <v>75.000000000000028</v>
+      </c>
+      <c r="AD18">
+        <v>-5487.726999999999</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19">
+        <v>1371.64</v>
+      </c>
+      <c r="C19">
+        <v>1284.71</v>
+      </c>
+      <c r="D19">
+        <v>1329.19</v>
+      </c>
+      <c r="E19">
+        <v>1488.66</v>
+      </c>
+      <c r="F19">
+        <v>1516.54</v>
+      </c>
+      <c r="G19">
         <v>5</v>
       </c>
-      <c r="H18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>880.19200000000001</v>
-      </c>
-      <c r="K18">
-        <v>1.0800000000000001E-2</v>
-      </c>
-      <c r="L18">
-        <v>-1.5650999999999999</v>
-      </c>
-      <c r="M18">
-        <v>-411.57827505930709</v>
-      </c>
-      <c r="N18" t="s">
-        <v>92</v>
-      </c>
-      <c r="O18">
-        <v>880.19200000000001</v>
-      </c>
-      <c r="P18">
-        <v>489.97506385783601</v>
-      </c>
-      <c r="Q18">
-        <v>880.19200000000001</v>
-      </c>
-      <c r="R18">
-        <v>1042.7275</v>
-      </c>
-      <c r="S18">
-        <v>880.19200000000001</v>
-      </c>
-      <c r="T18">
-        <v>-812.67750000000001</v>
-      </c>
-      <c r="U18">
-        <v>-0.7793766827862505</v>
-      </c>
-      <c r="V18">
-        <v>0.15813234049465791</v>
-      </c>
-      <c r="W18" t="s">
-        <v>96</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>99</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>103</v>
-      </c>
-      <c r="AC18">
-        <v>17</v>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>1398.1479999999999</v>
+      </c>
+      <c r="K19">
+        <v>0.3049</v>
+      </c>
+      <c r="L19">
+        <v>5.8299999999999998E-2</v>
+      </c>
+      <c r="M19">
+        <v>21.07690319946801</v>
+      </c>
+      <c r="N19" t="s">
+        <v>95</v>
+      </c>
+      <c r="O19">
+        <v>1398.1479999999999</v>
+      </c>
+      <c r="P19">
+        <v>778.30479666107601</v>
+      </c>
+      <c r="Q19">
+        <v>1398.1479999999999</v>
+      </c>
+      <c r="R19">
+        <v>1368.55</v>
+      </c>
+      <c r="S19">
+        <v>1398.1479999999999</v>
+      </c>
+      <c r="T19">
+        <v>147.98999999999981</v>
+      </c>
+      <c r="U19">
+        <v>0.1081363486902194</v>
+      </c>
+      <c r="V19">
+        <v>-2.1940422761686069E-2</v>
+      </c>
+      <c r="W19" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC19">
+        <v>49.374999999999979</v>
+      </c>
+      <c r="AD19">
+        <v>-5487.726999999999</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF19">
+        <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19">
-        <v>3019.33</v>
-      </c>
-      <c r="C19">
-        <v>1068.8900000000001</v>
-      </c>
-      <c r="D19">
-        <v>710.62</v>
-      </c>
-      <c r="E19">
-        <v>748.96</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>4</v>
-      </c>
-      <c r="H19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>1109.56</v>
-      </c>
-      <c r="K19">
-        <v>0.22339999999999999</v>
-      </c>
-      <c r="L19">
-        <v>-0.29210000000000003</v>
-      </c>
-      <c r="M19">
-        <v>-168.91843517164691</v>
-      </c>
-      <c r="N19" t="s">
-        <v>92</v>
-      </c>
-      <c r="O19">
-        <v>1109.56</v>
-      </c>
-      <c r="P19">
-        <v>617.65697922055699</v>
-      </c>
-      <c r="Q19">
-        <v>1109.56</v>
-      </c>
-      <c r="R19">
-        <v>1386.95</v>
-      </c>
-      <c r="S19">
-        <v>1109.56</v>
-      </c>
-      <c r="T19">
-        <v>-1386.95</v>
-      </c>
-      <c r="U19">
-        <v>-1</v>
-      </c>
-      <c r="V19">
-        <v>0.2028959089837524</v>
-      </c>
-      <c r="W19" t="s">
-        <v>96</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>99</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>103</v>
-      </c>
-      <c r="AC19">
-        <v>18</v>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20">
+        <v>487</v>
+      </c>
+      <c r="C20">
+        <v>487</v>
+      </c>
+      <c r="D20">
+        <v>654.33000000000004</v>
+      </c>
+      <c r="E20">
+        <v>487.05</v>
+      </c>
+      <c r="F20">
+        <v>624.25</v>
+      </c>
+      <c r="G20">
+        <v>5</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>547.92600000000004</v>
+      </c>
+      <c r="K20">
+        <v>0.15379999999999999</v>
+      </c>
+      <c r="L20">
+        <v>0.10879999999999999</v>
+      </c>
+      <c r="M20">
+        <v>18.589074214807511</v>
+      </c>
+      <c r="N20" t="s">
+        <v>95</v>
+      </c>
+      <c r="O20">
+        <v>547.92600000000004</v>
+      </c>
+      <c r="P20">
+        <v>305.01308446267262</v>
+      </c>
+      <c r="Q20">
+        <v>547.92600000000004</v>
+      </c>
+      <c r="R20">
+        <v>528.84500000000003</v>
+      </c>
+      <c r="S20">
+        <v>547.92600000000004</v>
+      </c>
+      <c r="T20">
+        <v>95.404999999999973</v>
+      </c>
+      <c r="U20">
+        <v>0.18040257542380089</v>
+      </c>
+      <c r="V20">
+        <v>-3.6602944523622033E-2</v>
+      </c>
+      <c r="W20" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC20">
+        <v>27.454999999999998</v>
+      </c>
+      <c r="AD20">
+        <v>-5487.726999999999</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF20">
+        <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20">
-        <v>2886.33</v>
-      </c>
-      <c r="C20">
-        <v>566.36</v>
-      </c>
-      <c r="D20">
-        <v>112.11</v>
-      </c>
-      <c r="E20">
-        <v>2864.74</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>4</v>
-      </c>
-      <c r="H20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>1285.9079999999999</v>
-      </c>
-      <c r="K20">
-        <v>0.24859999999999999</v>
-      </c>
-      <c r="L20">
-        <v>-0.1162</v>
-      </c>
-      <c r="M20">
-        <v>-5.7309979612332427</v>
-      </c>
-      <c r="N20" t="s">
-        <v>92</v>
-      </c>
-      <c r="O20">
-        <v>1285.9079999999999</v>
-      </c>
-      <c r="P20">
-        <v>715.82433652578322</v>
-      </c>
-      <c r="Q20">
-        <v>1285.9079999999999</v>
-      </c>
-      <c r="R20">
-        <v>1607.385</v>
-      </c>
-      <c r="S20">
-        <v>1285.9079999999999</v>
-      </c>
-      <c r="T20">
-        <v>-1607.385</v>
-      </c>
-      <c r="U20">
-        <v>-1</v>
-      </c>
-      <c r="V20">
-        <v>0.2028959089837524</v>
-      </c>
-      <c r="W20" t="s">
-        <v>96</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z20" t="s">
-        <v>99</v>
-      </c>
-      <c r="AA20" t="s">
-        <v>103</v>
-      </c>
-      <c r="AC20">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B21">
-        <v>25918.06</v>
+        <v>976.03</v>
       </c>
       <c r="C21">
-        <v>27531.52</v>
+        <v>700</v>
       </c>
       <c r="D21">
-        <v>23613.57</v>
+        <v>1057.8699999999999</v>
       </c>
       <c r="E21">
-        <v>27999.03</v>
+        <v>268.3</v>
       </c>
       <c r="F21">
-        <v>23720.11</v>
+        <v>800.9</v>
       </c>
       <c r="G21">
         <v>5</v>
@@ -2438,78 +2651,87 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>25756.457999999999</v>
+        <v>760.62</v>
       </c>
       <c r="K21">
-        <v>0.2172</v>
+        <v>7.4000000000000003E-3</v>
       </c>
       <c r="L21">
-        <v>-4.9500000000000002E-2</v>
+        <v>-0.1658</v>
       </c>
       <c r="M21">
-        <v>-356.87455376537042</v>
+        <v>-6.3875320710280903</v>
       </c>
       <c r="N21" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="O21">
-        <v>25756.457999999999</v>
+        <v>760.62</v>
       </c>
       <c r="P21">
-        <v>14337.80601653011</v>
+        <v>423.41311108433979</v>
       </c>
       <c r="Q21">
-        <v>25756.457999999999</v>
+        <v>760.62</v>
       </c>
       <c r="R21">
-        <v>26265.544999999998</v>
+        <v>750.55</v>
       </c>
       <c r="S21">
-        <v>25756.457999999999</v>
+        <v>760.62</v>
       </c>
       <c r="T21">
-        <v>-2545.4349999999981</v>
+        <v>50.350000000000023</v>
       </c>
       <c r="U21">
-        <v>-9.6911562276739277E-2</v>
+        <v>6.7084138298581078E-2</v>
       </c>
       <c r="V21">
-        <v>1.9662959519174541E-2</v>
+        <v>-1.361109721848236E-2</v>
       </c>
       <c r="W21" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="Y21" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="Z21" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="AA21" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="AC21">
+        <v>-78.196000000000012</v>
+      </c>
+      <c r="AD21">
+        <v>-5487.726999999999</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>115</v>
+      </c>
+      <c r="AF21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B22">
-        <v>4807.12</v>
+        <v>5265.62</v>
       </c>
       <c r="C22">
-        <v>4556.99</v>
+        <v>5151.38</v>
       </c>
       <c r="D22">
-        <v>3774.44</v>
+        <v>4631.12</v>
       </c>
       <c r="E22">
-        <v>2609.46</v>
+        <v>5227.6499999999996</v>
       </c>
       <c r="F22">
-        <v>200</v>
+        <v>5106.58</v>
       </c>
       <c r="G22">
         <v>5</v>
@@ -2518,81 +2740,90 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.1032</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>3180.0426250155469</v>
+        <v>5076.4699999999993</v>
       </c>
       <c r="K22">
-        <v>0.64529999999999998</v>
+        <v>2.7799999999999998E-2</v>
       </c>
       <c r="L22">
-        <v>-0.25059999999999999</v>
+        <v>-3.5000000000000003E-2</v>
       </c>
       <c r="M22">
-        <v>-348.80768275141872</v>
+        <v>-44.810630967816913</v>
       </c>
       <c r="N22" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O22">
-        <v>549.02364101554758</v>
+        <v>5076.4699999999993</v>
       </c>
       <c r="P22">
-        <v>305.62410652000312</v>
+        <v>2825.9103836690051</v>
       </c>
       <c r="Q22">
-        <v>549.02364101554758</v>
+        <v>5076.4699999999993</v>
       </c>
       <c r="R22">
-        <v>3937.002500000001</v>
+        <v>5068.9424999999992</v>
       </c>
       <c r="S22">
-        <v>3189.6019999999999</v>
+        <v>5076.4699999999993</v>
       </c>
       <c r="T22">
-        <v>-3737.002500000001</v>
+        <v>37.637500000000728</v>
       </c>
       <c r="U22">
-        <v>-0.94919993065790531</v>
+        <v>7.425118750114197E-3</v>
       </c>
       <c r="V22">
-        <v>0.19258878273815039</v>
+        <v>-1.506526218116723E-3</v>
       </c>
       <c r="W22" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="Y22" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="Z22" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="AA22" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="AC22">
+        <v>-24.181000000000029</v>
+      </c>
+      <c r="AD22">
+        <v>-5487.726999999999</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>115</v>
+      </c>
+      <c r="AF22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B23">
-        <v>4807.12</v>
+        <v>638.24</v>
       </c>
       <c r="C23">
-        <v>4556.99</v>
+        <v>1112.06</v>
       </c>
       <c r="D23">
-        <v>4684.9799999999996</v>
+        <v>216.58</v>
       </c>
       <c r="E23">
-        <v>2609.46</v>
+        <v>497.76</v>
       </c>
       <c r="F23">
-        <v>200</v>
+        <v>549.22</v>
       </c>
       <c r="G23">
         <v>5</v>
@@ -2601,167 +2832,182 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.1133</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>3361.216254647979</v>
+        <v>602.77199999999993</v>
       </c>
       <c r="K23">
-        <v>0.69269999999999998</v>
+        <v>1.11E-2</v>
       </c>
       <c r="L23">
-        <v>-0.17100000000000001</v>
+        <v>-0.84730000000000005</v>
       </c>
       <c r="M23">
-        <v>-272.79420923544558</v>
+        <v>-113.55557485905049</v>
       </c>
       <c r="N23" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O23">
-        <v>472.70413364797918</v>
+        <v>602.77199999999993</v>
       </c>
       <c r="P23">
-        <v>263.13944919975597</v>
+        <v>335.54411900098557</v>
       </c>
       <c r="Q23">
-        <v>472.70413364797918</v>
+        <v>602.77199999999993</v>
       </c>
       <c r="R23">
-        <v>4164.6374999999998</v>
+        <v>616.16</v>
       </c>
       <c r="S23">
-        <v>3371.71</v>
+        <v>602.77199999999993</v>
       </c>
       <c r="T23">
-        <v>-3964.6374999999998</v>
+        <v>-66.939999999999941</v>
       </c>
       <c r="U23">
-        <v>-0.95197661261034128</v>
+        <v>-0.1086406128278368</v>
       </c>
       <c r="V23">
-        <v>0.19315216014684869</v>
+        <v>2.204273589225586E-2</v>
       </c>
       <c r="W23" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="Y23" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="Z23" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="AA23" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC23">
+        <v>-79.23399999999998</v>
+      </c>
+      <c r="AD23">
+        <v>-5487.726999999999</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>115</v>
+      </c>
+      <c r="AF23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24">
+        <v>4318.71</v>
+      </c>
+      <c r="C24">
+        <v>4292.4799999999996</v>
+      </c>
+      <c r="D24">
+        <v>12640.74</v>
+      </c>
+      <c r="E24">
+        <v>4646.13</v>
+      </c>
+      <c r="F24">
+        <v>6361.45</v>
+      </c>
+      <c r="G24">
+        <v>5</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>6451.902</v>
+      </c>
+      <c r="K24">
+        <v>1.9800000000000002E-2</v>
+      </c>
+      <c r="L24">
+        <v>0.42320000000000002</v>
+      </c>
+      <c r="M24">
+        <v>788.36322164836474</v>
+      </c>
+      <c r="N24" t="s">
+        <v>95</v>
+      </c>
+      <c r="O24">
+        <v>6451.902</v>
+      </c>
+      <c r="P24">
+        <v>3591.5699011744032</v>
+      </c>
+      <c r="Q24">
+        <v>6451.902</v>
+      </c>
+      <c r="R24">
+        <v>6474.5150000000003</v>
+      </c>
+      <c r="S24">
+        <v>6451.902</v>
+      </c>
+      <c r="T24">
+        <v>-113.0650000000005</v>
+      </c>
+      <c r="U24">
+        <v>-1.746308410745832E-2</v>
+      </c>
+      <c r="V24">
+        <v>3.5431883236424762E-3</v>
+      </c>
+      <c r="W24" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y24" t="s">
         <v>103</v>
       </c>
-      <c r="AB23" t="s">
+      <c r="Z24" t="s">
         <v>106</v>
       </c>
-      <c r="AC23">
-        <v>22</v>
+      <c r="AA24" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC24">
+        <v>443.91300000000018</v>
+      </c>
+      <c r="AD24">
+        <v>-5487.726999999999</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF24">
+        <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>51</v>
-      </c>
-      <c r="B24">
-        <v>8829.93</v>
-      </c>
-      <c r="C24">
-        <v>6033.04</v>
-      </c>
-      <c r="D24">
-        <v>2092.5</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>3</v>
-      </c>
-      <c r="H24" t="b">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>3391.0940000000001</v>
-      </c>
-      <c r="K24">
-        <v>0.1176</v>
-      </c>
-      <c r="L24">
-        <v>-0.59340000000000004</v>
-      </c>
-      <c r="M24">
-        <v>-1041.363590955702</v>
-      </c>
-      <c r="N24" t="s">
-        <v>92</v>
-      </c>
-      <c r="O24">
-        <v>3391.0940000000001</v>
-      </c>
-      <c r="P24">
-        <v>1887.714838578315</v>
-      </c>
-      <c r="Q24">
-        <v>3391.0940000000001</v>
-      </c>
-      <c r="R24">
-        <v>4238.8675000000003</v>
-      </c>
-      <c r="S24">
-        <v>3391.0940000000001</v>
-      </c>
-      <c r="T24">
-        <v>-4238.8675000000003</v>
-      </c>
-      <c r="U24">
-        <v>-1</v>
-      </c>
-      <c r="V24">
-        <v>0.2028959089837524</v>
-      </c>
-      <c r="W24" t="s">
-        <v>96</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z24" t="s">
-        <v>99</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>103</v>
-      </c>
-      <c r="AC24">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B25">
-        <v>17817.14</v>
+        <v>3561.99</v>
       </c>
       <c r="C25">
-        <v>9045.7099999999991</v>
+        <v>2790.94</v>
       </c>
       <c r="D25">
-        <v>6864.81</v>
+        <v>1261.69</v>
       </c>
       <c r="E25">
-        <v>11828.67</v>
+        <v>2141.1999999999998</v>
       </c>
       <c r="F25">
-        <v>6209.43</v>
+        <v>2097.2199999999998</v>
       </c>
       <c r="G25">
         <v>5</v>
@@ -2773,78 +3019,87 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10353.152</v>
+        <v>2370.6080000000002</v>
       </c>
       <c r="K25">
-        <v>0.1983</v>
+        <v>1E-3</v>
       </c>
       <c r="L25">
-        <v>-3.2800000000000003E-2</v>
+        <v>-0.38419999999999999</v>
       </c>
       <c r="M25">
-        <v>-466.99732963645602</v>
+        <v>-225.6910534893195</v>
       </c>
       <c r="N25" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="O25">
-        <v>10353.152</v>
+        <v>2370.6080000000002</v>
       </c>
       <c r="P25">
-        <v>5763.27245911106</v>
+        <v>1319.6425395617059</v>
       </c>
       <c r="Q25">
-        <v>10353.152</v>
+        <v>2370.6080000000002</v>
       </c>
       <c r="R25">
-        <v>11389.0825</v>
+        <v>2438.9549999999999</v>
       </c>
       <c r="S25">
-        <v>10353.152</v>
+        <v>2370.6080000000002</v>
       </c>
       <c r="T25">
-        <v>-5179.6524999999983</v>
+        <v>-341.73500000000013</v>
       </c>
       <c r="U25">
-        <v>-0.45479102465014182</v>
+        <v>-0.14011533628131731</v>
       </c>
       <c r="V25">
-        <v>9.2275238344042665E-2</v>
+        <v>2.8428828517362E-2</v>
       </c>
       <c r="W25" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="Y25" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="Z25" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="AA25" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="AC25">
+        <v>-357.92799999999988</v>
+      </c>
+      <c r="AD25">
+        <v>-5487.726999999999</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>115</v>
+      </c>
+      <c r="AF25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B26">
-        <v>18793.169999999998</v>
+        <v>807.87</v>
       </c>
       <c r="C26">
-        <v>12674.05</v>
+        <v>2280.08</v>
       </c>
       <c r="D26">
-        <v>8728.7999999999993</v>
+        <v>1005.26</v>
       </c>
       <c r="E26">
-        <v>12500.03</v>
+        <v>1442.2</v>
       </c>
       <c r="F26">
-        <v>7413.39</v>
+        <v>906.83</v>
       </c>
       <c r="G26">
         <v>5</v>
@@ -2856,78 +3111,87 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>12021.888000000001</v>
+        <v>1288.4480000000001</v>
       </c>
       <c r="K26">
-        <v>0.24390000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="L26">
-        <v>-0.15210000000000001</v>
+        <v>-0.42230000000000001</v>
       </c>
       <c r="M26">
-        <v>-775.79210335960488</v>
+        <v>-144.86566968965289</v>
       </c>
       <c r="N26" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="O26">
-        <v>12021.888000000001</v>
+        <v>1288.4480000000001</v>
       </c>
       <c r="P26">
-        <v>6692.2050421859694</v>
+        <v>717.23827423732666</v>
       </c>
       <c r="Q26">
-        <v>12021.888000000001</v>
+        <v>1288.4480000000001</v>
       </c>
       <c r="R26">
-        <v>13174.012500000001</v>
+        <v>1383.8525</v>
       </c>
       <c r="S26">
-        <v>12021.888000000001</v>
+        <v>1288.4480000000001</v>
       </c>
       <c r="T26">
-        <v>-5760.6224999999986</v>
+        <v>-477.02249999999992</v>
       </c>
       <c r="U26">
-        <v>-0.43727167406285661</v>
+        <v>-0.34470617352644162</v>
       </c>
       <c r="V26">
-        <v>8.8720633781830399E-2</v>
+        <v>6.9939472409958445E-2</v>
       </c>
       <c r="W26" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="Y26" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="Z26" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="AA26" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="AC26">
+        <v>-63.995999999999952</v>
+      </c>
+      <c r="AD26">
+        <v>-5487.726999999999</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>115</v>
+      </c>
+      <c r="AF26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B27">
-        <v>71432.56</v>
+        <v>2601.5</v>
       </c>
       <c r="C27">
-        <v>64705.41</v>
+        <v>200</v>
       </c>
       <c r="D27">
-        <v>69880.05</v>
+        <v>200</v>
       </c>
       <c r="E27">
-        <v>64794.82</v>
+        <v>200</v>
       </c>
       <c r="F27">
-        <v>90094.59</v>
+        <v>200</v>
       </c>
       <c r="G27">
         <v>5</v>
@@ -2939,78 +3203,87 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>72181.486000000004</v>
+        <v>680.3</v>
       </c>
       <c r="K27">
-        <v>0.85299999999999998</v>
+        <v>4.0599999999999997E-2</v>
       </c>
       <c r="L27">
-        <v>2.6200000000000001E-2</v>
+        <v>-6.6799999999999998E-2</v>
       </c>
       <c r="M27">
-        <v>1007.99223220539</v>
+        <v>-101.32724414110029</v>
       </c>
       <c r="N27" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="O27">
-        <v>72181.486000000004</v>
+        <v>680.3</v>
       </c>
       <c r="P27">
-        <v>40181.151626240069</v>
+        <v>378.7015059697041</v>
       </c>
       <c r="Q27">
-        <v>72181.486000000004</v>
+        <v>680.3</v>
       </c>
       <c r="R27">
-        <v>67703.210000000006</v>
+        <v>800.375</v>
       </c>
       <c r="S27">
-        <v>72181.486000000004</v>
+        <v>680.3</v>
       </c>
       <c r="T27">
-        <v>22391.37999999999</v>
+        <v>-600.375</v>
       </c>
       <c r="U27">
-        <v>0.33072848392269721</v>
+        <v>-0.75011713259409651</v>
       </c>
       <c r="V27">
-        <v>-6.7103456372313977E-2</v>
+        <v>0.1521956974619651</v>
       </c>
       <c r="W27" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="Y27" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="Z27" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="AA27" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AC27">
+        <v>-480.3</v>
+      </c>
+      <c r="AD27">
+        <v>-5487.726999999999</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>115</v>
+      </c>
+      <c r="AF27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B28">
-        <v>6161.05</v>
+        <v>2601.5</v>
       </c>
       <c r="C28">
-        <v>5378.6</v>
+        <v>200</v>
       </c>
       <c r="D28">
-        <v>3872.66</v>
+        <v>200</v>
       </c>
       <c r="E28">
-        <v>4746.3</v>
+        <v>200</v>
       </c>
       <c r="F28">
-        <v>8651.17</v>
+        <v>200</v>
       </c>
       <c r="G28">
         <v>5</v>
@@ -3022,78 +3295,87 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>5761.9560000000001</v>
+        <v>680.3</v>
       </c>
       <c r="K28">
-        <v>0.87360000000000004</v>
+        <v>4.0599999999999997E-2</v>
       </c>
       <c r="L28">
-        <v>-0.1648</v>
+        <v>-6.6799999999999998E-2</v>
       </c>
       <c r="M28">
-        <v>-89.676071400925139</v>
+        <v>-101.32724414110029</v>
       </c>
       <c r="N28" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="O28">
-        <v>5761.9560000000001</v>
+        <v>680.3</v>
       </c>
       <c r="P28">
-        <v>3207.498771911175</v>
+        <v>378.7015059697041</v>
       </c>
       <c r="Q28">
-        <v>5761.9560000000001</v>
+        <v>680.3</v>
       </c>
       <c r="R28">
-        <v>5039.6525000000001</v>
+        <v>800.375</v>
       </c>
       <c r="S28">
-        <v>5761.9560000000001</v>
+        <v>680.3</v>
       </c>
       <c r="T28">
-        <v>3611.5174999999999</v>
+        <v>-600.375</v>
       </c>
       <c r="U28">
-        <v>0.71662034237479666</v>
+        <v>-0.75011713259409651</v>
       </c>
       <c r="V28">
-        <v>-0.1453993357623822</v>
+        <v>0.1521956974619651</v>
       </c>
       <c r="W28" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="Y28" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="Z28" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC28">
+        <v>-480.3</v>
+      </c>
+      <c r="AD28">
+        <v>-5487.726999999999</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>115</v>
+      </c>
+      <c r="AF28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29">
+        <v>759.78</v>
+      </c>
+      <c r="C29">
+        <v>948.57</v>
+      </c>
+      <c r="D29">
+        <v>515.36</v>
+      </c>
+      <c r="E29">
+        <v>624.64</v>
+      </c>
+      <c r="F29">
         <v>99</v>
-      </c>
-      <c r="AA28" t="s">
-        <v>104</v>
-      </c>
-      <c r="AC28">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29">
-        <v>7200.23</v>
-      </c>
-      <c r="C29">
-        <v>6442.7</v>
-      </c>
-      <c r="D29">
-        <v>7085.15</v>
-      </c>
-      <c r="E29">
-        <v>6263.31</v>
-      </c>
-      <c r="F29">
-        <v>10273.120000000001</v>
       </c>
       <c r="G29">
         <v>5</v>
@@ -3102,81 +3384,90 @@
         <v>0</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>1.61E-2</v>
       </c>
       <c r="J29">
-        <v>7452.902</v>
+        <v>587.97616484237358</v>
       </c>
       <c r="K29">
-        <v>0.88600000000000001</v>
+        <v>0.5484</v>
       </c>
       <c r="L29">
-        <v>2.3E-2</v>
+        <v>-0.35360000000000003</v>
       </c>
       <c r="M29">
-        <v>138.87856490379821</v>
+        <v>-77.795384600777879</v>
       </c>
       <c r="N29" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="O29">
-        <v>7452.902</v>
+        <v>177.51680784237359</v>
       </c>
       <c r="P29">
-        <v>4148.7949599362337</v>
+        <v>98.817995685493869</v>
       </c>
       <c r="Q29">
-        <v>7452.902</v>
+        <v>177.51680784237359</v>
       </c>
       <c r="R29">
-        <v>6747.8475000000008</v>
+        <v>712.08749999999998</v>
       </c>
       <c r="S29">
-        <v>7452.902</v>
+        <v>589.47</v>
       </c>
       <c r="T29">
-        <v>3525.2725</v>
+        <v>-613.08749999999998</v>
       </c>
       <c r="U29">
-        <v>0.52242918945634143</v>
+        <v>-0.86097214176628578</v>
       </c>
       <c r="V29">
-        <v>-0.10599874527438941</v>
+        <v>0.17468772531335869</v>
       </c>
       <c r="W29" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="Y29" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="Z29" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="AA29" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AC29">
+        <v>-164.54900000000001</v>
+      </c>
+      <c r="AD29">
+        <v>-5487.726999999999</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>115</v>
+      </c>
+      <c r="AF29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B30">
-        <v>11938.49</v>
+        <v>4032.6</v>
       </c>
       <c r="C30">
-        <v>13090.79</v>
+        <v>4120.17</v>
       </c>
       <c r="D30">
-        <v>12847.84</v>
+        <v>3791.98</v>
       </c>
       <c r="E30">
-        <v>9592.75</v>
+        <v>4178.96</v>
       </c>
       <c r="F30">
-        <v>14629</v>
+        <v>3401.01</v>
       </c>
       <c r="G30">
         <v>5</v>
@@ -3185,81 +3476,90 @@
         <v>0</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="J30">
-        <v>12419.773999999999</v>
+        <v>3903.279379477638</v>
       </c>
       <c r="K30">
-        <v>0.52729999999999999</v>
+        <v>0.68230000000000002</v>
       </c>
       <c r="L30">
-        <v>-0.1048</v>
+        <v>-2.5399999999999999E-2</v>
       </c>
       <c r="M30">
-        <v>-146.8884214609279</v>
+        <v>-44.079624271468219</v>
       </c>
       <c r="N30" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="O30">
-        <v>12419.773999999999</v>
+        <v>3444.3807194776382</v>
       </c>
       <c r="P30">
-        <v>6913.6956013573072</v>
+        <v>1917.377870938107</v>
       </c>
       <c r="Q30">
-        <v>12419.773999999999</v>
+        <v>3444.3807194776382</v>
       </c>
       <c r="R30">
-        <v>11867.467500000001</v>
+        <v>4030.9274999999998</v>
       </c>
       <c r="S30">
-        <v>12419.773999999999</v>
+        <v>3904.944</v>
       </c>
       <c r="T30">
-        <v>2761.5325000000012</v>
+        <v>-629.91749999999956</v>
       </c>
       <c r="U30">
-        <v>0.23269770909421081</v>
+        <v>-0.1562711063396699</v>
       </c>
       <c r="V30">
-        <v>-4.7213413205106691E-2</v>
+        <v>3.1706768168683952E-2</v>
       </c>
       <c r="W30" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="Y30" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="Z30" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="AA30" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AC30">
+        <v>-120.43899999999989</v>
+      </c>
+      <c r="AD30">
+        <v>-5487.726999999999</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>115</v>
+      </c>
+      <c r="AF30">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B31">
-        <v>4293.5600000000004</v>
+        <v>4032.6</v>
       </c>
       <c r="C31">
-        <v>4293.5600000000004</v>
+        <v>4120.17</v>
       </c>
       <c r="D31">
-        <v>4293.5600000000004</v>
+        <v>3791.98</v>
       </c>
       <c r="E31">
-        <v>4293.5600000000004</v>
+        <v>4178.96</v>
       </c>
       <c r="F31">
-        <v>6408.93</v>
+        <v>3401.01</v>
       </c>
       <c r="G31">
         <v>5</v>
@@ -3268,247 +3568,274 @@
         <v>0</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="J31">
-        <v>4716.634</v>
+        <v>3903.2793794776371</v>
       </c>
       <c r="K31">
-        <v>0.95799999999999996</v>
+        <v>0.68230000000000002</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>-2.5399999999999999E-2</v>
       </c>
       <c r="M31">
-        <v>71.157018050702391</v>
+        <v>-44.07962427146731</v>
       </c>
       <c r="N31" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="O31">
-        <v>4716.634</v>
+        <v>3444.3807194776368</v>
       </c>
       <c r="P31">
-        <v>2625.6010567512999</v>
+        <v>1917.377870938107</v>
       </c>
       <c r="Q31">
-        <v>4716.634</v>
+        <v>3444.3807194776368</v>
       </c>
       <c r="R31">
-        <v>4293.5600000000004</v>
+        <v>4030.9274999999998</v>
       </c>
       <c r="S31">
-        <v>4716.634</v>
+        <v>3904.944</v>
       </c>
       <c r="T31">
-        <v>2115.37</v>
+        <v>-629.91750000000002</v>
       </c>
       <c r="U31">
-        <v>0.49268439243890838</v>
+        <v>-0.15627110633967001</v>
       </c>
       <c r="V31">
-        <v>-9.9963647646000103E-2</v>
+        <v>3.1706768168683973E-2</v>
       </c>
       <c r="W31" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC31">
+        <v>-120.43899999999999</v>
+      </c>
+      <c r="AD31">
+        <v>-5487.726999999999</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>115</v>
+      </c>
+      <c r="AF31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>2928.34</v>
+      </c>
+      <c r="D32">
+        <v>806.12</v>
+      </c>
+      <c r="E32">
+        <v>403.06</v>
+      </c>
+      <c r="F32">
+        <v>403.06</v>
+      </c>
+      <c r="G32">
+        <v>4</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>908.11600000000021</v>
+      </c>
+      <c r="K32">
+        <v>9.9000000000000008E-3</v>
+      </c>
+      <c r="L32">
+        <v>-1.0875999999999999</v>
+      </c>
+      <c r="M32">
+        <v>-302.40724165212049</v>
+      </c>
+      <c r="N32" t="s">
+        <v>95</v>
+      </c>
+      <c r="O32">
+        <v>908.11600000000021</v>
+      </c>
+      <c r="P32">
+        <v>505.51947199056877</v>
+      </c>
+      <c r="Q32">
+        <v>908.11600000000021</v>
+      </c>
+      <c r="R32">
+        <v>1034.3800000000001</v>
+      </c>
+      <c r="S32">
+        <v>908.11600000000021</v>
+      </c>
+      <c r="T32">
+        <v>-631.32000000000016</v>
+      </c>
+      <c r="U32">
+        <v>-0.61033662677159273</v>
+      </c>
+      <c r="V32">
+        <v>0.1238348046748995</v>
+      </c>
+      <c r="W32" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC32">
+        <v>-171.916</v>
+      </c>
+      <c r="AD32">
+        <v>-5487.726999999999</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>115</v>
+      </c>
+      <c r="AF32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>2521.66</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>50</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>2</v>
+      </c>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>514.33199999999999</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33" t="s">
         <v>97</v>
       </c>
-      <c r="Y31" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z31" t="s">
-        <v>99</v>
-      </c>
-      <c r="AA31" t="s">
-        <v>104</v>
-      </c>
-      <c r="AC31">
-        <v>30</v>
+      <c r="O33">
+        <v>514.33199999999999</v>
+      </c>
+      <c r="P33">
+        <v>286.31236655653368</v>
+      </c>
+      <c r="Q33">
+        <v>514.33199999999999</v>
+      </c>
+      <c r="R33">
+        <v>642.91499999999996</v>
+      </c>
+      <c r="S33">
+        <v>514.33199999999999</v>
+      </c>
+      <c r="T33">
+        <v>-642.91499999999996</v>
+      </c>
+      <c r="U33">
+        <v>-1</v>
+      </c>
+      <c r="V33">
+        <v>0.2028959089837524</v>
+      </c>
+      <c r="W33" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC33">
+        <v>-247.166</v>
+      </c>
+      <c r="AD33">
+        <v>-5487.726999999999</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>115</v>
+      </c>
+      <c r="AF33">
+        <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>59</v>
-      </c>
-      <c r="B32">
-        <v>5021.47</v>
-      </c>
-      <c r="C32">
-        <v>4523.8599999999997</v>
-      </c>
-      <c r="D32">
-        <v>4944.72</v>
-      </c>
-      <c r="E32">
-        <v>4655.13</v>
-      </c>
-      <c r="F32">
-        <v>6382.2999999999993</v>
-      </c>
-      <c r="G32">
-        <v>5</v>
-      </c>
-      <c r="H32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>5105.4960000000001</v>
-      </c>
-      <c r="K32">
-        <v>0.84060000000000001</v>
-      </c>
-      <c r="L32">
-        <v>3.9300000000000002E-2</v>
-      </c>
-      <c r="M32">
-        <v>85.170076266082106</v>
-      </c>
-      <c r="N32" t="s">
-        <v>92</v>
-      </c>
-      <c r="O32">
-        <v>5105.4960000000001</v>
-      </c>
-      <c r="P32">
-        <v>2842.068240367927</v>
-      </c>
-      <c r="Q32">
-        <v>5105.4960000000001</v>
-      </c>
-      <c r="R32">
-        <v>4786.2950000000001</v>
-      </c>
-      <c r="S32">
-        <v>5105.4960000000001</v>
-      </c>
-      <c r="T32">
-        <v>1596.004999999999</v>
-      </c>
-      <c r="U32">
-        <v>0.33345311979307568</v>
-      </c>
-      <c r="V32">
-        <v>-6.765627384388416E-2</v>
-      </c>
-      <c r="W32" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z32" t="s">
-        <v>99</v>
-      </c>
-      <c r="AA32" t="s">
-        <v>104</v>
-      </c>
-      <c r="AC32">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>60</v>
-      </c>
-      <c r="B33">
-        <v>2001.82</v>
-      </c>
-      <c r="C33">
-        <v>2000</v>
-      </c>
-      <c r="D33">
-        <v>2000</v>
-      </c>
-      <c r="E33">
-        <v>2000</v>
-      </c>
-      <c r="F33">
-        <v>2998.95</v>
-      </c>
-      <c r="G33">
-        <v>5</v>
-      </c>
-      <c r="H33" t="b">
-        <v>0</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <v>2200.154</v>
-      </c>
-      <c r="K33">
-        <v>0.95809999999999995</v>
-      </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
-      <c r="M33">
-        <v>33.525983654999443</v>
-      </c>
-      <c r="N33" t="s">
-        <v>92</v>
-      </c>
-      <c r="O33">
-        <v>2200.154</v>
-      </c>
-      <c r="P33">
-        <v>1224.756185749329</v>
-      </c>
-      <c r="Q33">
-        <v>2200.154</v>
-      </c>
-      <c r="R33">
-        <v>2000.4549999999999</v>
-      </c>
-      <c r="S33">
-        <v>2200.154</v>
-      </c>
-      <c r="T33">
-        <v>998.49499999999989</v>
-      </c>
-      <c r="U33">
-        <v>0.49913394702705127</v>
-      </c>
-      <c r="V33">
-        <v>-0.1012722358867017</v>
-      </c>
-      <c r="W33" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z33" t="s">
-        <v>99</v>
-      </c>
-      <c r="AA33" t="s">
-        <v>104</v>
-      </c>
-      <c r="AC33">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B34">
-        <v>3166.52</v>
+        <v>937.5</v>
       </c>
       <c r="C34">
-        <v>3166.52</v>
+        <v>937.5</v>
       </c>
       <c r="D34">
-        <v>3166.52</v>
+        <v>8493.74</v>
       </c>
       <c r="E34">
-        <v>3465.52</v>
+        <v>937.5</v>
       </c>
       <c r="F34">
-        <v>3715.52</v>
+        <v>2037.5</v>
       </c>
       <c r="G34">
         <v>5</v>
@@ -3520,81 +3847,90 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>3336.12</v>
+        <v>2668.748</v>
       </c>
       <c r="K34">
-        <v>0.61629999999999996</v>
+        <v>5.0799999999999998E-2</v>
       </c>
       <c r="L34">
-        <v>2.9100000000000001E-2</v>
+        <v>0.81169999999999998</v>
       </c>
       <c r="M34">
-        <v>37.867759796270548</v>
+        <v>667.81005088377333</v>
       </c>
       <c r="N34" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="O34">
-        <v>3336.12</v>
+        <v>2668.748</v>
       </c>
       <c r="P34">
-        <v>1857.1125504860349</v>
+        <v>1485.6076534670531</v>
       </c>
       <c r="Q34">
-        <v>3336.12</v>
+        <v>2668.748</v>
       </c>
       <c r="R34">
-        <v>3241.27</v>
+        <v>2826.56</v>
       </c>
       <c r="S34">
-        <v>3336.12</v>
+        <v>2668.748</v>
       </c>
       <c r="T34">
-        <v>474.25</v>
+        <v>-789.06</v>
       </c>
       <c r="U34">
-        <v>0.1463161044899067</v>
+        <v>-0.27915911921204573</v>
       </c>
       <c r="V34">
-        <v>-2.9686939019441319E-2</v>
+        <v>5.6640243243631712E-2</v>
       </c>
       <c r="W34" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="Y34" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="Z34" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="AA34" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AC34">
+        <v>220.00000000000011</v>
+      </c>
+      <c r="AD34">
+        <v>-5487.726999999999</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF34">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>330.47</v>
       </c>
       <c r="C35">
-        <v>1500</v>
+        <v>3224.86</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>298.76</v>
       </c>
       <c r="E35">
-        <v>750</v>
+        <v>316.82</v>
       </c>
       <c r="F35">
-        <v>750</v>
+        <v>230.05</v>
       </c>
       <c r="G35">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -3603,81 +3939,90 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <v>600</v>
+        <v>880.19200000000001</v>
       </c>
       <c r="K35">
-        <v>6.7699999999999996E-2</v>
+        <v>1.0800000000000001E-2</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>-1.5650999999999999</v>
       </c>
       <c r="M35">
-        <v>-135.824551210359</v>
+        <v>-411.57827505930709</v>
       </c>
       <c r="N35" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="O35">
-        <v>600</v>
+        <v>880.19200000000001</v>
       </c>
       <c r="P35">
-        <v>334.00103422287589</v>
+        <v>489.97506385783601</v>
       </c>
       <c r="Q35">
-        <v>600</v>
+        <v>880.19200000000001</v>
       </c>
       <c r="R35">
-        <v>562.5</v>
+        <v>1042.7275</v>
       </c>
       <c r="S35">
-        <v>600</v>
+        <v>880.19200000000001</v>
       </c>
       <c r="T35">
-        <v>187.5</v>
+        <v>-812.67750000000001</v>
       </c>
       <c r="U35">
-        <v>0.33333333333333331</v>
+        <v>-0.7793766827862505</v>
       </c>
       <c r="V35">
-        <v>-6.763196966125079E-2</v>
+        <v>0.15813234049465791</v>
       </c>
       <c r="W35" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="Y35" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="Z35" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="AA35" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AC35">
+        <v>-310.88799999999998</v>
+      </c>
+      <c r="AD35">
+        <v>-5487.726999999999</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>115</v>
+      </c>
+      <c r="AF35">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B36">
-        <v>487</v>
+        <v>3019.33</v>
       </c>
       <c r="C36">
-        <v>487</v>
+        <v>1068.8900000000001</v>
       </c>
       <c r="D36">
-        <v>654.33000000000004</v>
+        <v>710.62</v>
       </c>
       <c r="E36">
-        <v>487.05</v>
+        <v>748.96</v>
       </c>
       <c r="F36">
-        <v>624.25</v>
+        <v>0</v>
       </c>
       <c r="G36">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -3686,81 +4031,90 @@
         <v>0</v>
       </c>
       <c r="J36">
-        <v>547.92600000000004</v>
+        <v>1109.56</v>
       </c>
       <c r="K36">
-        <v>0.15379999999999999</v>
+        <v>0.22339999999999999</v>
       </c>
       <c r="L36">
-        <v>0.10879999999999999</v>
+        <v>-0.29210000000000003</v>
       </c>
       <c r="M36">
-        <v>18.589074214807511</v>
+        <v>-168.91843517164691</v>
       </c>
       <c r="N36" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="O36">
-        <v>547.92600000000004</v>
+        <v>1109.56</v>
       </c>
       <c r="P36">
-        <v>305.01308446267262</v>
+        <v>617.65697922055699</v>
       </c>
       <c r="Q36">
-        <v>547.92600000000004</v>
+        <v>1109.56</v>
       </c>
       <c r="R36">
-        <v>528.84500000000003</v>
+        <v>1386.95</v>
       </c>
       <c r="S36">
-        <v>547.92600000000004</v>
+        <v>1109.56</v>
       </c>
       <c r="T36">
-        <v>95.404999999999973</v>
+        <v>-1386.95</v>
       </c>
       <c r="U36">
-        <v>0.18040257542380089</v>
+        <v>-1</v>
       </c>
       <c r="V36">
-        <v>-3.6602944523622033E-2</v>
+        <v>0.2028959089837524</v>
       </c>
       <c r="W36" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="Y36" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="Z36" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="AA36" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AC36">
+        <v>-635.85900000000004</v>
+      </c>
+      <c r="AD36">
+        <v>-5487.726999999999</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>115</v>
+      </c>
+      <c r="AF36">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B37">
-        <v>976.03</v>
+        <v>2886.33</v>
       </c>
       <c r="C37">
-        <v>700</v>
+        <v>566.36</v>
       </c>
       <c r="D37">
-        <v>1057.8699999999999</v>
+        <v>112.11</v>
       </c>
       <c r="E37">
-        <v>268.3</v>
+        <v>2864.74</v>
       </c>
       <c r="F37">
-        <v>800.9</v>
+        <v>0</v>
       </c>
       <c r="G37">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -3769,78 +4123,87 @@
         <v>0</v>
       </c>
       <c r="J37">
-        <v>760.62</v>
+        <v>1285.9079999999999</v>
       </c>
       <c r="K37">
-        <v>7.4000000000000003E-3</v>
+        <v>0.24859999999999999</v>
       </c>
       <c r="L37">
-        <v>-0.1658</v>
+        <v>-0.1162</v>
       </c>
       <c r="M37">
-        <v>-6.3875320710280903</v>
+        <v>-5.7309979612332427</v>
       </c>
       <c r="N37" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="O37">
-        <v>760.62</v>
+        <v>1285.9079999999999</v>
       </c>
       <c r="P37">
-        <v>423.41311108433979</v>
+        <v>715.82433652578322</v>
       </c>
       <c r="Q37">
-        <v>760.62</v>
+        <v>1285.9079999999999</v>
       </c>
       <c r="R37">
-        <v>750.55</v>
+        <v>1607.385</v>
       </c>
       <c r="S37">
-        <v>760.62</v>
+        <v>1285.9079999999999</v>
       </c>
       <c r="T37">
-        <v>50.350000000000023</v>
+        <v>-1607.385</v>
       </c>
       <c r="U37">
-        <v>6.7084138298581078E-2</v>
+        <v>-1</v>
       </c>
       <c r="V37">
-        <v>-1.361109721848236E-2</v>
+        <v>0.2028959089837524</v>
       </c>
       <c r="W37" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="Y37" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="Z37" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="AA37" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AC37">
+        <v>-347.42800000000011</v>
+      </c>
+      <c r="AD37">
+        <v>-5487.726999999999</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>115</v>
+      </c>
+      <c r="AF37">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B38">
-        <v>5265.62</v>
+        <v>25918.06</v>
       </c>
       <c r="C38">
-        <v>5151.38</v>
+        <v>27531.52</v>
       </c>
       <c r="D38">
-        <v>4631.12</v>
+        <v>23613.57</v>
       </c>
       <c r="E38">
-        <v>5227.6499999999996</v>
+        <v>27999.03</v>
       </c>
       <c r="F38">
-        <v>5106.58</v>
+        <v>23720.11</v>
       </c>
       <c r="G38">
         <v>5</v>
@@ -3852,78 +4215,87 @@
         <v>0</v>
       </c>
       <c r="J38">
-        <v>5076.4699999999993</v>
+        <v>25756.457999999999</v>
       </c>
       <c r="K38">
-        <v>2.7799999999999998E-2</v>
+        <v>0.2172</v>
       </c>
       <c r="L38">
-        <v>-3.5000000000000003E-2</v>
+        <v>-4.9500000000000002E-2</v>
       </c>
       <c r="M38">
-        <v>-44.810630967816913</v>
+        <v>-356.87455376537042</v>
       </c>
       <c r="N38" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="O38">
-        <v>5076.4699999999993</v>
+        <v>25756.457999999999</v>
       </c>
       <c r="P38">
-        <v>2825.9103836690051</v>
+        <v>14337.80601653011</v>
       </c>
       <c r="Q38">
-        <v>5076.4699999999993</v>
+        <v>25756.457999999999</v>
       </c>
       <c r="R38">
-        <v>5068.9424999999992</v>
+        <v>26265.544999999998</v>
       </c>
       <c r="S38">
-        <v>5076.4699999999993</v>
+        <v>25756.457999999999</v>
       </c>
       <c r="T38">
-        <v>37.637500000000728</v>
+        <v>-2545.4349999999981</v>
       </c>
       <c r="U38">
-        <v>7.425118750114197E-3</v>
+        <v>-9.6911562276739277E-2</v>
       </c>
       <c r="V38">
-        <v>-1.506526218116723E-3</v>
+        <v>1.9662959519174541E-2</v>
       </c>
       <c r="W38" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="Y38" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="Z38" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="AA38" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AC38">
+        <v>-392.83900000000028</v>
+      </c>
+      <c r="AD38">
+        <v>-5487.726999999999</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>115</v>
+      </c>
+      <c r="AF38">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B39">
-        <v>23912.63</v>
+        <v>4807.12</v>
       </c>
       <c r="C39">
-        <v>19891.330000000002</v>
+        <v>4556.99</v>
       </c>
       <c r="D39">
-        <v>26360.27</v>
+        <v>3774.44</v>
       </c>
       <c r="E39">
-        <v>28888.76</v>
+        <v>2609.46</v>
       </c>
       <c r="F39">
-        <v>36142.76</v>
+        <v>200</v>
       </c>
       <c r="G39">
         <v>5</v>
@@ -3932,81 +4304,90 @@
         <v>0</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>0.1032</v>
       </c>
       <c r="J39">
-        <v>27039.15</v>
+        <v>3180.0426250155469</v>
       </c>
       <c r="K39">
-        <v>0.51090000000000002</v>
+        <v>0.64529999999999998</v>
       </c>
       <c r="L39">
-        <v>0.21920000000000001</v>
+        <v>-0.25059999999999999</v>
       </c>
       <c r="M39">
-        <v>1500.8267588361271</v>
+        <v>-348.80768275141872</v>
       </c>
       <c r="N39" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="O39">
-        <v>27039.15</v>
+        <v>549.02364101554758</v>
       </c>
       <c r="P39">
-        <v>15051.84010751246</v>
+        <v>305.62410652000312</v>
       </c>
       <c r="Q39">
-        <v>27039.15</v>
+        <v>549.02364101554758</v>
       </c>
       <c r="R39">
-        <v>24763.247500000001</v>
+        <v>3937.002500000001</v>
       </c>
       <c r="S39">
-        <v>27039.15</v>
+        <v>3189.6019999999999</v>
       </c>
       <c r="T39">
-        <v>11379.512500000001</v>
+        <v>-3737.002500000001</v>
       </c>
       <c r="U39">
-        <v>0.45953231699517599</v>
+        <v>-0.94919993065790531</v>
       </c>
       <c r="V39">
-        <v>-9.3237227164146091E-2</v>
+        <v>0.19258878273815039</v>
       </c>
       <c r="W39" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="Y39" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="Z39" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="AA39" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="AC39">
+        <v>-1116.1769999999999</v>
+      </c>
+      <c r="AD39">
+        <v>-5487.726999999999</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>115</v>
+      </c>
+      <c r="AF39">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B40">
-        <v>9191.1</v>
+        <v>4807.12</v>
       </c>
       <c r="C40">
-        <v>9208.43</v>
+        <v>4556.99</v>
       </c>
       <c r="D40">
-        <v>10819.75</v>
+        <v>4684.9799999999996</v>
       </c>
       <c r="E40">
-        <v>9856.0400000000009</v>
+        <v>2609.46</v>
       </c>
       <c r="F40">
-        <v>14459.29</v>
+        <v>200</v>
       </c>
       <c r="G40">
         <v>5</v>
@@ -4015,84 +4396,96 @@
         <v>0</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>0.1133</v>
       </c>
       <c r="J40">
-        <v>10706.922</v>
+        <v>3361.216254647979</v>
       </c>
       <c r="K40">
-        <v>0.77839999999999998</v>
+        <v>0.69269999999999998</v>
       </c>
       <c r="L40">
-        <v>8.14E-2</v>
+        <v>-0.17100000000000001</v>
       </c>
       <c r="M40">
-        <v>353.89576261010552</v>
+        <v>-272.79420923544558</v>
       </c>
       <c r="N40" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="O40">
-        <v>10706.922</v>
+        <v>472.70413364797918</v>
       </c>
       <c r="P40">
-        <v>5960.2050355727724</v>
+        <v>263.13944919975597</v>
       </c>
       <c r="Q40">
-        <v>10706.922</v>
+        <v>472.70413364797918</v>
       </c>
       <c r="R40">
-        <v>9768.83</v>
+        <v>4164.6374999999998</v>
       </c>
       <c r="S40">
-        <v>10706.922</v>
+        <v>3371.71</v>
       </c>
       <c r="T40">
-        <v>4690.4600000000009</v>
+        <v>-3964.6374999999998</v>
       </c>
       <c r="U40">
-        <v>0.4801455240801612</v>
+        <v>-0.95197661261034128</v>
       </c>
       <c r="V40">
-        <v>-9.7419562552724479E-2</v>
+        <v>0.19315216014684869</v>
       </c>
       <c r="W40" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="Y40" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="Z40" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="AA40" t="s">
-        <v>105</v>
+        <v>111</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>112</v>
       </c>
       <c r="AC40">
+        <v>-1116.1769999999999</v>
+      </c>
+      <c r="AD40">
+        <v>-5487.726999999999</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>115</v>
+      </c>
+      <c r="AF40">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B41">
-        <v>8229.82</v>
+        <v>8829.93</v>
       </c>
       <c r="C41">
-        <v>7708.22</v>
+        <v>6033.04</v>
       </c>
       <c r="D41">
-        <v>7975.12</v>
+        <v>2092.5</v>
       </c>
       <c r="E41">
-        <v>8931.98</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>9099.19</v>
+        <v>0</v>
       </c>
       <c r="G41">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -4101,78 +4494,87 @@
         <v>0</v>
       </c>
       <c r="J41">
-        <v>8388.866</v>
+        <v>3391.0940000000001</v>
       </c>
       <c r="K41">
-        <v>0.30480000000000002</v>
+        <v>0.1176</v>
       </c>
       <c r="L41">
-        <v>5.8299999999999998E-2</v>
+        <v>-0.59340000000000004</v>
       </c>
       <c r="M41">
-        <v>126.4658016505491</v>
+        <v>-1041.363590955702</v>
       </c>
       <c r="N41" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="O41">
-        <v>8388.866</v>
+        <v>3391.0940000000001</v>
       </c>
       <c r="P41">
-        <v>4669.8165332618673</v>
+        <v>1887.714838578315</v>
       </c>
       <c r="Q41">
-        <v>8388.866</v>
+        <v>3391.0940000000001</v>
       </c>
       <c r="R41">
-        <v>8211.2849999999999</v>
+        <v>4238.8675000000003</v>
       </c>
       <c r="S41">
-        <v>8388.866</v>
+        <v>3391.0940000000001</v>
       </c>
       <c r="T41">
-        <v>887.90500000000065</v>
+        <v>-4238.8675000000003</v>
       </c>
       <c r="U41">
-        <v>0.108132283802109</v>
+        <v>-1</v>
       </c>
       <c r="V41">
-        <v>-2.1939598012517991E-2</v>
+        <v>0.2028959089837524</v>
       </c>
       <c r="W41" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="Y41" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="Z41" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="AA41" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="AC41">
+        <v>-2369.29</v>
+      </c>
+      <c r="AD41">
+        <v>-5487.726999999999</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>115</v>
+      </c>
+      <c r="AF41">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B42">
-        <v>1045.1500000000001</v>
+        <v>17817.14</v>
       </c>
       <c r="C42">
-        <v>1221.7</v>
+        <v>9045.7099999999991</v>
       </c>
       <c r="D42">
-        <v>1436.26</v>
+        <v>6864.81</v>
       </c>
       <c r="E42">
-        <v>1245.27</v>
+        <v>11828.67</v>
       </c>
       <c r="F42">
-        <v>1799.19</v>
+        <v>6209.43</v>
       </c>
       <c r="G42">
         <v>5</v>
@@ -4184,78 +4586,87 @@
         <v>0</v>
       </c>
       <c r="J42">
-        <v>1349.5139999999999</v>
+        <v>10353.152</v>
       </c>
       <c r="K42">
-        <v>0.64419999999999999</v>
+        <v>0.1983</v>
       </c>
       <c r="L42">
-        <v>6.9800000000000001E-2</v>
+        <v>-3.2800000000000003E-2</v>
       </c>
       <c r="M42">
-        <v>46.316063955199752</v>
+        <v>-466.99732963645602</v>
       </c>
       <c r="N42" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="O42">
-        <v>1349.5139999999999</v>
+        <v>10353.152</v>
       </c>
       <c r="P42">
-        <v>751.23178616375026</v>
+        <v>5763.27245911106</v>
       </c>
       <c r="Q42">
-        <v>1349.5139999999999</v>
+        <v>10353.152</v>
       </c>
       <c r="R42">
-        <v>1237.095</v>
+        <v>11389.0825</v>
       </c>
       <c r="S42">
-        <v>1349.5139999999999</v>
+        <v>10353.152</v>
       </c>
       <c r="T42">
-        <v>562.09500000000025</v>
+        <v>-5179.6524999999983</v>
       </c>
       <c r="U42">
-        <v>0.45436688370739542</v>
+        <v>-0.45479102465014182</v>
       </c>
       <c r="V42">
-        <v>-9.2189181881926902E-2</v>
+        <v>9.2275238344042665E-2</v>
       </c>
       <c r="W42" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="Y42" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="Z42" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="AA42" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="AC42">
+        <v>-2043.246000000001</v>
+      </c>
+      <c r="AD42">
+        <v>-5487.726999999999</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>115</v>
+      </c>
+      <c r="AF42">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B43">
-        <v>1371.64</v>
+        <v>18793.169999999998</v>
       </c>
       <c r="C43">
-        <v>1284.71</v>
+        <v>12674.05</v>
       </c>
       <c r="D43">
-        <v>1329.19</v>
+        <v>8728.7999999999993</v>
       </c>
       <c r="E43">
-        <v>1488.66</v>
+        <v>12500.03</v>
       </c>
       <c r="F43">
-        <v>1516.54</v>
+        <v>7413.39</v>
       </c>
       <c r="G43">
         <v>5</v>
@@ -4267,66 +4678,72 @@
         <v>0</v>
       </c>
       <c r="J43">
-        <v>1398.1479999999999</v>
+        <v>12021.888000000001</v>
       </c>
       <c r="K43">
-        <v>0.3049</v>
+        <v>0.24390000000000001</v>
       </c>
       <c r="L43">
-        <v>5.8299999999999998E-2</v>
+        <v>-0.15210000000000001</v>
       </c>
       <c r="M43">
-        <v>21.07690319946801</v>
+        <v>-775.79210335960488</v>
       </c>
       <c r="N43" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="O43">
-        <v>1398.1479999999999</v>
+        <v>12021.888000000001</v>
       </c>
       <c r="P43">
-        <v>778.30479666107601</v>
+        <v>6692.2050421859694</v>
       </c>
       <c r="Q43">
-        <v>1398.1479999999999</v>
+        <v>12021.888000000001</v>
       </c>
       <c r="R43">
-        <v>1368.55</v>
+        <v>13174.012500000001</v>
       </c>
       <c r="S43">
-        <v>1398.1479999999999</v>
+        <v>12021.888000000001</v>
       </c>
       <c r="T43">
-        <v>147.98999999999981</v>
+        <v>-5760.6224999999986</v>
       </c>
       <c r="U43">
-        <v>0.1081363486902194</v>
+        <v>-0.43727167406285661</v>
       </c>
       <c r="V43">
-        <v>-2.1940422761686069E-2</v>
+        <v>8.8720633781830399E-2</v>
       </c>
       <c r="W43" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="Y43" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="Z43" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="AA43" t="s">
-        <v>105</v>
-      </c>
-      <c r="AB43" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="AC43">
+        <v>-2293.3579999999988</v>
+      </c>
+      <c r="AD43">
+        <v>-5487.726999999999</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>115</v>
+      </c>
+      <c r="AF43">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -4365,7 +4782,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O44">
         <v>3884</v>
@@ -4392,24 +4809,33 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Y44" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="Z44" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AA44" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AC44">
+        <v>0</v>
+      </c>
+      <c r="AD44">
+        <v>-5487.726999999999</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF44">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B45">
         <v>-4032.6</v>
@@ -4448,7 +4874,7 @@
         <v>44.079624271468219</v>
       </c>
       <c r="N45" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="O45">
         <v>-3904.944</v>
@@ -4475,24 +4901,33 @@
         <v>3.1706768168683952E-2</v>
       </c>
       <c r="W45" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Y45" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="Z45" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AA45" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AC45">
+        <v>120.43899999999989</v>
+      </c>
+      <c r="AD45">
+        <v>-5487.726999999999</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF45">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B46">
         <v>161.19999999999999</v>
@@ -4531,7 +4966,7 @@
         <v>5.3646192162148338</v>
       </c>
       <c r="N46" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="O46">
         <v>176.68799999999999</v>
@@ -4558,24 +4993,33 @@
         <v>-8.6288778302892832E-2</v>
       </c>
       <c r="W46" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Y46" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="Z46" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AA46" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AC46">
+        <v>15.922000000000001</v>
+      </c>
+      <c r="AD46">
+        <v>-5487.726999999999</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF46">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B47">
         <v>205.29</v>
@@ -4614,7 +5058,7 @@
         <v>36.902594245821888</v>
       </c>
       <c r="N47" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="O47">
         <v>324.69600000000003</v>
@@ -4641,24 +5085,33 @@
         <v>-2.2845717065972E-2</v>
       </c>
       <c r="W47" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Y47" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="Z47" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AA47" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AC47">
+        <v>59.505000000000003</v>
+      </c>
+      <c r="AD47">
+        <v>-5487.726999999999</v>
+      </c>
+      <c r="AE47" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF47">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B48">
         <v>42.75</v>
@@ -4697,7 +5150,7 @@
         <v>-0.1026614606063703</v>
       </c>
       <c r="N48" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="O48">
         <v>42.75</v>
@@ -4724,24 +5177,33 @@
         <v>-8.9776950877766548E-3</v>
       </c>
       <c r="W48" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Y48" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="Z48" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AA48" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AC48">
+        <v>0.45</v>
+      </c>
+      <c r="AD48">
+        <v>-5487.726999999999</v>
+      </c>
+      <c r="AE48" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF48">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B49">
         <v>78.77</v>
@@ -4780,7 +5242,7 @@
         <v>15.9644457672442</v>
       </c>
       <c r="N49" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="O49">
         <v>78.19</v>
@@ -4807,24 +5269,33 @@
         <v>1.1987271472549629E-3</v>
       </c>
       <c r="W49" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="Y49" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="Z49" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AA49" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AC49">
+        <v>15.374000000000001</v>
+      </c>
+      <c r="AD49">
+        <v>-5487.726999999999</v>
+      </c>
+      <c r="AE49" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF49">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -4863,7 +5334,7 @@
         <v>0</v>
       </c>
       <c r="N50" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O50">
         <v>0</v>
@@ -4890,24 +5361,33 @@
         <v>0.2028959089837524</v>
       </c>
       <c r="W50" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="Y50" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="Z50" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AA50" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AC50">
+        <v>0</v>
+      </c>
+      <c r="AD50">
+        <v>-5487.726999999999</v>
+      </c>
+      <c r="AE50" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF50">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B51">
         <v>67.150000000000006</v>
@@ -4946,7 +5426,7 @@
         <v>2.0912069161394129</v>
       </c>
       <c r="N51" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="O51">
         <v>101.514</v>
@@ -4973,24 +5453,33 @@
         <v>3.2909487274582462E-2</v>
       </c>
       <c r="W51" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="Y51" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="Z51" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AA51" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AC51">
+        <v>5.3570000000000002</v>
+      </c>
+      <c r="AD51">
+        <v>-5487.726999999999</v>
+      </c>
+      <c r="AE51" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF51">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B52">
         <v>54.39</v>
@@ -5029,7 +5518,7 @@
         <v>-4.30436361760502</v>
       </c>
       <c r="N52" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="O52">
         <v>23.6</v>
@@ -5056,24 +5545,33 @@
         <v>0.2028959089837524</v>
       </c>
       <c r="W52" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="Y52" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="Z52" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AA52" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AC52">
+        <v>-10.513</v>
+      </c>
+      <c r="AD52">
+        <v>-5487.726999999999</v>
+      </c>
+      <c r="AE52" t="s">
+        <v>115</v>
+      </c>
+      <c r="AF52">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B53">
         <v>233.53</v>
@@ -5112,7 +5610,7 @@
         <v>-3.0724096616586252</v>
       </c>
       <c r="N53" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="O53">
         <v>2.316080571878786</v>
@@ -5139,24 +5637,33 @@
         <v>0.2028959089837524</v>
       </c>
       <c r="W53" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="Y53" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="Z53" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AA53" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AC53">
+        <v>-47.733000000000018</v>
+      </c>
+      <c r="AD53">
+        <v>-5487.726999999999</v>
+      </c>
+      <c r="AE53" t="s">
+        <v>115</v>
+      </c>
+      <c r="AF53">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B54">
         <v>238.92</v>
@@ -5195,7 +5702,7 @@
         <v>-69.787335260328149</v>
       </c>
       <c r="N54" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="O54">
         <v>357.83</v>
@@ -5222,24 +5729,33 @@
         <v>7.7815396867748646E-2</v>
       </c>
       <c r="W54" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="Y54" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="Z54" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AA54" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AC54">
+        <v>-53.481999999999992</v>
+      </c>
+      <c r="AD54">
+        <v>-5487.726999999999</v>
+      </c>
+      <c r="AE54" t="s">
+        <v>115</v>
+      </c>
+      <c r="AF54">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B55">
         <v>220.57</v>
@@ -5278,7 +5794,7 @@
         <v>-64.255324412986539</v>
       </c>
       <c r="N55" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="O55">
         <v>221.596</v>
@@ -5305,24 +5821,33 @@
         <v>0.12423477525371381</v>
       </c>
       <c r="W55" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="Y55" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="Z55" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AA55" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AC55">
+        <v>-69.528999999999996</v>
+      </c>
+      <c r="AD55">
+        <v>-5487.726999999999</v>
+      </c>
+      <c r="AE55" t="s">
+        <v>115</v>
+      </c>
+      <c r="AF55">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -5361,7 +5886,7 @@
         <v>46.610744306456503</v>
       </c>
       <c r="N56" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="O56">
         <v>-45.821405298147774</v>
@@ -5388,24 +5913,33 @@
         <v>0.2028959089837524</v>
       </c>
       <c r="W56" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="Y56" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="Z56" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AA56" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AC56">
+        <v>40.003999999999998</v>
+      </c>
+      <c r="AD56">
+        <v>-5487.726999999999</v>
+      </c>
+      <c r="AE56" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF56">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -5444,7 +5978,7 @@
         <v>0</v>
       </c>
       <c r="N57" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O57">
         <v>0</v>
@@ -5471,24 +6005,33 @@
         <v>0.2028959089837524</v>
       </c>
       <c r="W57" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="Y57" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="Z57" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AA57" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AC57">
+        <v>0</v>
+      </c>
+      <c r="AD57">
+        <v>-5487.726999999999</v>
+      </c>
+      <c r="AE57" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF57">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B58">
         <v>112.64</v>
@@ -5527,7 +6070,7 @@
         <v>83.150779628563882</v>
       </c>
       <c r="N58" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="O58">
         <v>311.85199999999998</v>
@@ -5554,24 +6097,33 @@
         <v>0.13968440588971909</v>
       </c>
       <c r="W58" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="Y58" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="Z58" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AA58" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AC58">
+        <v>9.0000000000261763E-3</v>
+      </c>
+      <c r="AD58">
+        <v>-5487.726999999999</v>
+      </c>
+      <c r="AE58" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF58">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -5610,7 +6162,7 @@
         <v>0</v>
       </c>
       <c r="N59" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="O59">
         <v>234.4</v>
@@ -5637,24 +6189,33 @@
         <v>0.2028959089837524</v>
       </c>
       <c r="W59" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="Y59" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="Z59" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AA59" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AC59">
+        <v>35.000000000000007</v>
+      </c>
+      <c r="AD59">
+        <v>-5487.726999999999</v>
+      </c>
+      <c r="AE59" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF59">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -5693,7 +6254,7 @@
         <v>0</v>
       </c>
       <c r="N60" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O60">
         <v>0</v>
@@ -5720,24 +6281,33 @@
         <v>0.2028959089837524</v>
       </c>
       <c r="W60" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="Y60" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="Z60" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AA60" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AC60">
+        <v>0</v>
+      </c>
+      <c r="AD60">
+        <v>-5487.726999999999</v>
+      </c>
+      <c r="AE60" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF60">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -5776,7 +6346,7 @@
         <v>0</v>
       </c>
       <c r="N61" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O61">
         <v>0</v>
@@ -5803,24 +6373,33 @@
         <v>0.2028959089837524</v>
       </c>
       <c r="W61" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="Y61" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="Z61" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AA61" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AC61">
+        <v>0</v>
+      </c>
+      <c r="AD61">
+        <v>-5487.726999999999</v>
+      </c>
+      <c r="AE61" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF61">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B62">
         <v>504.22</v>
@@ -5859,7 +6438,7 @@
         <v>-56.444997346293349</v>
       </c>
       <c r="N62" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="O62">
         <v>56.494291313174131</v>
@@ -5886,24 +6465,33 @@
         <v>0.2028959089837524</v>
       </c>
       <c r="W62" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="Y62" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="Z62" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AA62" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AC62">
+        <v>-122.739</v>
+      </c>
+      <c r="AD62">
+        <v>-5487.726999999999</v>
+      </c>
+      <c r="AE62" t="s">
+        <v>115</v>
+      </c>
+      <c r="AF62">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B63">
         <v>1782.2</v>
@@ -5942,7 +6530,7 @@
         <v>0</v>
       </c>
       <c r="N63" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O63">
         <v>0</v>
@@ -5969,24 +6557,33 @@
         <v>0.2028959089837524</v>
       </c>
       <c r="W63" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="Y63" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="Z63" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AA63" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AC63">
+        <v>0</v>
+      </c>
+      <c r="AD63">
+        <v>-5487.726999999999</v>
+      </c>
+      <c r="AE63" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF63">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B64">
         <v>499.38</v>
@@ -6025,7 +6622,7 @@
         <v>-36.596392563031323</v>
       </c>
       <c r="N64" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="O64">
         <v>37.027035458250573</v>
@@ -6052,18 +6649,27 @@
         <v>0.2028959089837524</v>
       </c>
       <c r="W64" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="Y64" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="Z64" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AA64" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AC64">
+        <v>-112.634</v>
+      </c>
+      <c r="AD64">
+        <v>-5487.726999999999</v>
+      </c>
+      <c r="AE64" t="s">
+        <v>115</v>
+      </c>
+      <c r="AF64">
         <v>63</v>
       </c>
     </row>

--- a/public/expense-analysis.xlsx
+++ b/public/expense-analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kotzbauer/expense_management_analytics-Midlothian/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7EA9D059-6D31-9042-BA11-5544D450B97E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4010B267-6F94-AC41-A5A3-CEBFB3F99B1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3940" yWindow="760" windowWidth="23740" windowHeight="14600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1960" yWindow="8500" windowWidth="28140" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -737,8 +737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/public/expense-analysis.xlsx
+++ b/public/expense-analysis.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kotzbauer/-expense_management_analytics-RMT/public/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kotzbauer/expense_management_analytics-RMT-v2/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DF5AF3F-C764-344E-8114-2C418424A36C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E18090FE-56A9-2C45-8DAF-9E212E416351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="15380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4420" yWindow="760" windowWidth="25800" windowHeight="15380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -801,30 +801,30 @@
   <dimension ref="A1:AG79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="X3" sqref="X3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="37.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="31.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" customWidth="1"/>
+    <col min="4" max="5" width="10.1640625" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" customWidth="1"/>
+    <col min="8" max="8" width="18.5" customWidth="1"/>
+    <col min="9" max="9" width="15.1640625" customWidth="1"/>
+    <col min="10" max="10" width="19.6640625" customWidth="1"/>
+    <col min="11" max="11" width="16" customWidth="1"/>
+    <col min="12" max="12" width="8" customWidth="1"/>
+    <col min="13" max="13" width="15.1640625" customWidth="1"/>
+    <col min="14" max="14" width="31.1640625" customWidth="1"/>
+    <col min="15" max="15" width="13.5" customWidth="1"/>
+    <col min="16" max="16" width="27.6640625" customWidth="1"/>
+    <col min="17" max="17" width="28.6640625" customWidth="1"/>
+    <col min="18" max="18" width="21.1640625" customWidth="1"/>
+    <col min="19" max="19" width="23.1640625" customWidth="1"/>
+    <col min="20" max="20" width="21.5" customWidth="1"/>
     <col min="21" max="21" width="18.5" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="30.1640625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="24.83203125" bestFit="1" customWidth="1"/>

--- a/public/expense-analysis.xlsx
+++ b/public/expense-analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kotzbauer/expense_management_analytics-RMT-v2/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F60F450-BA6C-BE48-99CD-C8176ECBD7CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FDC564A4-B159-AF48-82FF-A6856B45FD6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="760" windowWidth="23620" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6360" yWindow="760" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="131">
   <si>
     <t>Category</t>
   </si>
@@ -52,7 +52,7 @@
     <t>One Time Expense</t>
   </si>
   <si>
-    <t>Marginal Cost per $1 GP</t>
+    <t>Marginal Cost per $1 Income</t>
   </si>
   <si>
     <t>Fixed Cost Estimate</t>
@@ -61,7 +61,7 @@
     <t>R² Linear</t>
   </si>
   <si>
-    <t>Elasticity (Log-Log)</t>
+    <t>Income Elasticity (Log-Log)</t>
   </si>
   <si>
     <t>Anchor Month Deviates from Trend ($)</t>
@@ -91,7 +91,7 @@
     <t>Ratio_Change_Anchor_vs_MeanPrior</t>
   </si>
   <si>
-    <t>Expense vs Profit Growth Ratio</t>
+    <t>Expense vs Income Growth Ratio</t>
   </si>
   <si>
     <t>Best Performing (Cost Decline Rank)</t>
@@ -100,7 +100,7 @@
     <t>Efficiency Alert</t>
   </si>
   <si>
-    <t>Elasticity Classification</t>
+    <t>Income Elasticity Classification</t>
   </si>
   <si>
     <t>Margin Risk</t>
@@ -256,15 +256,12 @@
     <t>Net Operating Income</t>
   </si>
   <si>
-    <t>Total Income</t>
-  </si>
-  <si>
-    <t>Gross Profit</t>
-  </si>
-  <si>
     <t xml:space="preserve">   400000 Management Fees</t>
   </si>
   <si>
+    <t xml:space="preserve">   610800 Repairs &amp; maintenance</t>
+  </si>
+  <si>
     <t xml:space="preserve">   Total 612000 Professional Fees</t>
   </si>
   <si>
@@ -277,9 +274,6 @@
     <t xml:space="preserve">      630000 Royalties</t>
   </si>
   <si>
-    <t xml:space="preserve">   610800 Repairs &amp; maintenance</t>
-  </si>
-  <si>
     <t xml:space="preserve">      600300 Salaries &amp; Wages - MA</t>
   </si>
   <si>
@@ -391,13 +385,25 @@
     <t>Below Threshold</t>
   </si>
   <si>
-    <t>Matched</t>
-  </si>
-  <si>
-    <t>Profit Outpaced Expense</t>
+    <t>Expense Outpaced Income</t>
+  </si>
+  <si>
+    <t>Expense Outpaced Income + Sensitive</t>
+  </si>
+  <si>
+    <t>Income Outpaced Expense</t>
   </si>
   <si>
     <t>Fixed or unresponsive</t>
+  </si>
+  <si>
+    <t>Highly responsive</t>
+  </si>
+  <si>
+    <t>Over-scaled</t>
+  </si>
+  <si>
+    <t>Margin Risk – Investigate</t>
   </si>
   <si>
     <t>Cost Spike – Monitor</t>
@@ -774,42 +780,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE88"/>
+  <dimension ref="A1:AE86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R58" workbookViewId="0">
-      <selection activeCell="X83" sqref="X83"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="37.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="31.1640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="30.1640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="24.83203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="29" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13.33203125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -953,13 +928,13 @@
         <v>0</v>
       </c>
       <c r="P2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="Q2">
         <v>468.76714285714291</v>
       </c>
       <c r="R2">
-        <v>66.636208064911386</v>
+        <v>115.76644256995191</v>
       </c>
       <c r="S2">
         <v>468.76714285714291</v>
@@ -977,19 +952,19 @@
         <v>11.122441089838</v>
       </c>
       <c r="X2">
-        <v>3.4820688417352819</v>
+        <v>37.727653610344987</v>
       </c>
       <c r="Z2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AA2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AB2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AC2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AE2">
         <v>1</v>
@@ -1042,13 +1017,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="Q3">
         <v>1000</v>
       </c>
       <c r="R3">
-        <v>142.1520451684448</v>
+        <v>246.95937915860239</v>
       </c>
       <c r="S3">
         <v>1000</v>
@@ -1069,16 +1044,16 @@
         <v>0</v>
       </c>
       <c r="Z3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AA3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AB3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AC3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AE3">
         <v>2</v>
@@ -1122,22 +1097,22 @@
         <v>186.9828571428572</v>
       </c>
       <c r="M4">
-        <v>6.8199999999999997E-2</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>23.579092804334721</v>
+        <v>23.14167177682646</v>
       </c>
       <c r="P4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Q4">
         <v>186.9828571428572</v>
       </c>
       <c r="R4">
-        <v>26.579995554296289</v>
+        <v>46.177170313301652</v>
       </c>
       <c r="S4">
         <v>186.9828571428572</v>
@@ -1155,19 +1130,19 @@
         <v>0.78415668860518584</v>
       </c>
       <c r="X4">
-        <v>0.245493552213564</v>
+        <v>2.659882995555837</v>
       </c>
       <c r="Z4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AA4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AB4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AC4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AE4">
         <v>3</v>
@@ -1220,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="P5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="Q5">
         <v>35.714285714285722</v>
       </c>
       <c r="R5">
-        <v>5.0768587560158851</v>
+        <v>8.8199778270929432</v>
       </c>
       <c r="S5">
         <v>35.714285714285722</v>
@@ -1244,19 +1219,19 @@
         <v>5.0000000000000009</v>
       </c>
       <c r="X5">
-        <v>1.56533480987221</v>
+        <v>16.96014989228166</v>
       </c>
       <c r="Z5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AA5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AB5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AC5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AE5">
         <v>4</v>
@@ -1309,13 +1284,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="Q6">
         <v>99</v>
       </c>
       <c r="R6">
-        <v>14.07305247167603</v>
+        <v>24.448978536701642</v>
       </c>
       <c r="S6">
         <v>99</v>
@@ -1336,16 +1311,16 @@
         <v>0</v>
       </c>
       <c r="Z6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AA6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AB6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AC6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AE6">
         <v>5</v>
@@ -1398,13 +1373,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="Q7">
         <v>99</v>
       </c>
       <c r="R7">
-        <v>14.07305247167603</v>
+        <v>24.448978536701642</v>
       </c>
       <c r="S7">
         <v>99</v>
@@ -1425,16 +1400,16 @@
         <v>0</v>
       </c>
       <c r="Z7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AA7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AB7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AC7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AE7">
         <v>6</v>
@@ -1487,13 +1462,13 @@
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="Q8">
         <v>99</v>
       </c>
       <c r="R8">
-        <v>14.07305247167603</v>
+        <v>24.448978536701642</v>
       </c>
       <c r="S8">
         <v>99</v>
@@ -1514,16 +1489,16 @@
         <v>0</v>
       </c>
       <c r="Z8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AA8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AB8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AC8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AE8">
         <v>7</v>
@@ -1567,22 +1542,22 @@
         <v>166.12</v>
       </c>
       <c r="M9">
-        <v>0.2298</v>
+        <v>0.27260000000000001</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>40.78756997561976</v>
+        <v>38.521147912609003</v>
       </c>
       <c r="P9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Q9">
         <v>166.12</v>
       </c>
       <c r="R9">
-        <v>23.61429774338205</v>
+        <v>41.024892065827032</v>
       </c>
       <c r="S9">
         <v>166.12</v>
@@ -1600,19 +1575,19 @@
         <v>0.39281173179621948</v>
       </c>
       <c r="X9">
-        <v>0.1229763755013617</v>
+        <v>1.3324291701421249</v>
       </c>
       <c r="Z9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AA9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AB9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AC9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AE9">
         <v>8</v>
@@ -1656,22 +1631,22 @@
         <v>179.91142857142859</v>
       </c>
       <c r="M10">
-        <v>8.8400000000000006E-2</v>
+        <v>0.14829999999999999</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>-11.41804563796441</v>
+        <v>-34.618151051206837</v>
       </c>
       <c r="P10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Q10">
         <v>179.91142857142859</v>
       </c>
       <c r="R10">
-        <v>25.574777520605149</v>
+        <v>44.430814703537251</v>
       </c>
       <c r="S10">
         <v>179.91142857142859</v>
@@ -1689,19 +1664,19 @@
         <v>0.30512964287785921</v>
       </c>
       <c r="X10">
-        <v>9.5526010304117781E-2</v>
+        <v>1.0350088959573731</v>
       </c>
       <c r="Z10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AA10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AB10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AC10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AE10">
         <v>9</v>
@@ -1745,22 +1720,22 @@
         <v>243.22285714285709</v>
       </c>
       <c r="M11">
-        <v>8.9999999999999998E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>40.287815663710028</v>
+        <v>39.263127394585979</v>
       </c>
       <c r="P11" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Q11">
         <v>243.22285714285709</v>
       </c>
       <c r="R11">
-        <v>34.574626574569621</v>
+        <v>60.066165797181441</v>
       </c>
       <c r="S11">
         <v>243.22285714285709</v>
@@ -1778,19 +1753,19 @@
         <v>0.19523292997309361</v>
       </c>
       <c r="X11">
-        <v>6.1120980264045388E-2</v>
+        <v>0.66223595125059942</v>
       </c>
       <c r="Z11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AA11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AB11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AC11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AE11">
         <v>10</v>
@@ -1843,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -1867,19 +1842,19 @@
         <v>-1</v>
       </c>
       <c r="X12">
-        <v>-0.31306696197444189</v>
+        <v>-3.3920299784563319</v>
       </c>
       <c r="Z12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AA12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AB12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AC12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AE12">
         <v>11</v>
@@ -1923,22 +1898,22 @@
         <v>184.88714285714289</v>
       </c>
       <c r="M13">
-        <v>2.0999999999999999E-3</v>
+        <v>3.9699999999999999E-2</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>22.193681476298138</v>
+        <v>1.853001711907041</v>
       </c>
       <c r="P13" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Q13">
         <v>184.88714285714289</v>
       </c>
       <c r="R13">
-        <v>26.282085482493279</v>
+        <v>45.659614014407843</v>
       </c>
       <c r="S13">
         <v>184.88714285714289</v>
@@ -1956,19 +1931,19 @@
         <v>0.17862293384609701</v>
       </c>
       <c r="X13">
-        <v>5.5920939238159321E-2</v>
+        <v>0.60589434644578333</v>
       </c>
       <c r="Z13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AA13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AB13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AC13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AE13">
         <v>12</v>
@@ -2012,22 +1987,22 @@
         <v>110.9057142857143</v>
       </c>
       <c r="M14">
-        <v>1.2E-2</v>
+        <v>3.6799999999999999E-2</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>27.29738187622597</v>
+        <v>32.611008990615353</v>
       </c>
       <c r="P14" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Q14">
         <v>110.9057142857143</v>
       </c>
       <c r="R14">
-        <v>15.76547410658149</v>
+        <v>27.38920634514135</v>
       </c>
       <c r="S14">
         <v>110.9057142857143</v>
@@ -2045,19 +2020,19 @@
         <v>0.2332060001863413</v>
       </c>
       <c r="X14">
-        <v>7.3009093992549012E-2</v>
+        <v>0.79104174378796277</v>
       </c>
       <c r="Z14" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AA14" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AB14" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AC14" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AE14">
         <v>13</v>
@@ -2110,13 +2085,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="Q15">
         <v>20</v>
       </c>
       <c r="R15">
-        <v>2.8430409033688959</v>
+        <v>4.939187583172048</v>
       </c>
       <c r="S15">
         <v>20</v>
@@ -2137,16 +2112,16 @@
         <v>0</v>
       </c>
       <c r="Z15" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AA15" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AB15" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AC15" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AE15">
         <v>14</v>
@@ -2190,22 +2165,22 @@
         <v>204.9914285714286</v>
       </c>
       <c r="M16">
-        <v>3.3799999999999997E-2</v>
+        <v>1.4800000000000001E-2</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>5.646854963771375E-3</v>
+        <v>6.4611216039907049E-3</v>
       </c>
       <c r="P16" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Q16">
         <v>204.9914285714286</v>
       </c>
       <c r="R16">
-        <v>29.139950813429738</v>
+        <v>50.624555932834987</v>
       </c>
       <c r="S16">
         <v>204.9914285714286</v>
@@ -2223,19 +2198,19 @@
         <v>4.878286745690475E-5</v>
       </c>
       <c r="X16">
-        <v>1.527230411113504E-5</v>
+        <v>1.6547294884888269E-4</v>
       </c>
       <c r="Z16" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AA16" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AB16" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AC16" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AE16">
         <v>15</v>
@@ -2288,7 +2263,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="Q17">
         <v>0</v>
@@ -2315,16 +2290,16 @@
         <v>0</v>
       </c>
       <c r="Z17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AA17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AB17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AC17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AE17">
         <v>16</v>
@@ -2377,7 +2352,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="Q18">
         <v>0</v>
@@ -2404,16 +2379,16 @@
         <v>0</v>
       </c>
       <c r="Z18" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AA18" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AB18" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AC18" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AE18">
         <v>17</v>
@@ -2466,7 +2441,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="Q19">
         <v>0</v>
@@ -2493,16 +2468,16 @@
         <v>0</v>
       </c>
       <c r="Z19" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AA19" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AB19" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AC19" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AE19">
         <v>18</v>
@@ -2555,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -2582,16 +2557,16 @@
         <v>0</v>
       </c>
       <c r="Z20" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AA20" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AB20" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AC20" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AE20">
         <v>19</v>
@@ -2644,7 +2619,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -2671,16 +2646,16 @@
         <v>0</v>
       </c>
       <c r="Z21" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AA21" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AB21" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AC21" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AE21">
         <v>20</v>
@@ -2733,7 +2708,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="Q22">
         <v>0</v>
@@ -2760,16 +2735,16 @@
         <v>0</v>
       </c>
       <c r="Z22" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AA22" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AB22" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AC22" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AE22">
         <v>21</v>
@@ -2822,7 +2797,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="Q23">
         <v>0</v>
@@ -2849,16 +2824,16 @@
         <v>0</v>
       </c>
       <c r="Z23" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AA23" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AB23" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AC23" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AE23">
         <v>22</v>
@@ -2911,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="Q24">
         <v>0</v>
@@ -2938,16 +2913,16 @@
         <v>0</v>
       </c>
       <c r="Z24" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AA24" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AB24" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AC24" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AE24">
         <v>23</v>
@@ -2991,22 +2966,22 @@
         <v>302.49000000000012</v>
       </c>
       <c r="M25">
-        <v>0.1062</v>
+        <v>3.2000000000000002E-3</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>61.891335356837942</v>
+        <v>11.62809345662447</v>
       </c>
       <c r="P25" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Q25">
         <v>302.49000000000012</v>
       </c>
       <c r="R25">
-        <v>42.999572143002872</v>
+        <v>74.702742601685657</v>
       </c>
       <c r="S25">
         <v>302.49000000000012</v>
@@ -3027,16 +3002,16 @@
         <v>0</v>
       </c>
       <c r="Z25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AA25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AB25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AC25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AE25">
         <v>24</v>
@@ -3080,22 +3055,22 @@
         <v>105.77</v>
       </c>
       <c r="M26">
-        <v>0.1062</v>
+        <v>3.2000000000000002E-3</v>
       </c>
       <c r="N26">
         <v>0</v>
       </c>
       <c r="O26">
-        <v>21.641199843607229</v>
+        <v>4.0659309230294269</v>
       </c>
       <c r="P26" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Q26">
         <v>105.77</v>
       </c>
       <c r="R26">
-        <v>15.03542181746641</v>
+        <v>26.120893533605379</v>
       </c>
       <c r="S26">
         <v>105.77</v>
@@ -3116,16 +3091,16 @@
         <v>0</v>
       </c>
       <c r="Z26" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AA26" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AB26" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AC26" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AE26">
         <v>25</v>
@@ -3178,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="Q27">
         <v>0</v>
@@ -3205,16 +3180,16 @@
         <v>0</v>
       </c>
       <c r="Z27" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AA27" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AB27" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AC27" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AE27">
         <v>26</v>
@@ -3267,7 +3242,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="Q28">
         <v>0</v>
@@ -3294,16 +3269,16 @@
         <v>0</v>
       </c>
       <c r="Z28" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AA28" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AB28" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AC28" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AE28">
         <v>27</v>
@@ -3356,13 +3331,13 @@
         <v>0</v>
       </c>
       <c r="P29" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="Q29">
         <v>0.73428571428571432</v>
       </c>
       <c r="R29">
-        <v>0.10438021602368661</v>
+        <v>0.1813387441250309</v>
       </c>
       <c r="S29">
         <v>0.73428571428571432</v>
@@ -3380,19 +3355,19 @@
         <v>-1</v>
       </c>
       <c r="X29">
-        <v>-0.31306696197444189</v>
+        <v>-3.3920299784563319</v>
       </c>
       <c r="Z29" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AA29" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AB29" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AC29" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AE29">
         <v>28</v>
@@ -3445,13 +3420,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="Q30">
         <v>2.9042857142857139</v>
       </c>
       <c r="R30">
-        <v>0.41285015403921183</v>
+        <v>0.71724059689919806</v>
       </c>
       <c r="S30">
         <v>2.9042857142857139</v>
@@ -3469,19 +3444,19 @@
         <v>-1</v>
       </c>
       <c r="X30">
-        <v>-0.31306696197444189</v>
+        <v>-3.3920299784563319</v>
       </c>
       <c r="Z30" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AA30" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AB30" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AC30" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AE30">
         <v>29</v>
@@ -3525,22 +3500,22 @@
         <v>77.102857142857147</v>
       </c>
       <c r="M31">
-        <v>0.83789999999999998</v>
+        <v>0.84930000000000005</v>
       </c>
       <c r="N31">
         <v>0</v>
       </c>
       <c r="O31">
-        <v>-0.49975431190973302</v>
+        <v>0.7419794819770047</v>
       </c>
       <c r="P31" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Q31">
         <v>77.102857142857147</v>
       </c>
       <c r="R31">
-        <v>10.960328831187571</v>
+        <v>19.041273731354419</v>
       </c>
       <c r="S31">
         <v>77.102857142857147</v>
@@ -3558,19 +3533,19 @@
         <v>-0.19652086222110171</v>
       </c>
       <c r="X31">
-        <v>-6.1524189300158183E-2</v>
+        <v>-0.66660465604606334</v>
       </c>
       <c r="Z31" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AA31" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AB31" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AC31" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AE31">
         <v>30</v>
@@ -3623,7 +3598,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="Q32">
         <v>0</v>
@@ -3647,19 +3622,19 @@
         <v>-1</v>
       </c>
       <c r="X32">
-        <v>-0.31306696197444189</v>
+        <v>-3.3920299784563319</v>
       </c>
       <c r="Z32" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AA32" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AB32" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AC32" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AE32">
         <v>31</v>
@@ -3712,7 +3687,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="Q33">
         <v>0</v>
@@ -3736,19 +3711,19 @@
         <v>-1</v>
       </c>
       <c r="X33">
-        <v>-0.31306696197444189</v>
+        <v>-3.3920299784563319</v>
       </c>
       <c r="Z33" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AA33" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AB33" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AC33" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AE33">
         <v>32</v>
@@ -3792,22 +3767,22 @@
         <v>14.30428571428571</v>
       </c>
       <c r="M34">
-        <v>0.15840000000000001</v>
+        <v>4.7E-2</v>
       </c>
       <c r="N34">
         <v>0</v>
       </c>
       <c r="O34">
-        <v>-29.70932843961609</v>
+        <v>-23.442910162398061</v>
       </c>
       <c r="P34" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Q34">
         <v>14.30428571428571</v>
       </c>
       <c r="R34">
-        <v>2.0333834689594821</v>
+        <v>3.532577519307265</v>
       </c>
       <c r="S34">
         <v>14.30428571428571</v>
@@ -3825,19 +3800,19 @@
         <v>-1</v>
       </c>
       <c r="X34">
-        <v>-0.31306696197444189</v>
+        <v>-3.3920299784563319</v>
       </c>
       <c r="Z34" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AA34" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AB34" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AC34" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AE34">
         <v>33</v>
@@ -3890,7 +3865,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="Q35">
         <v>0</v>
@@ -3914,19 +3889,19 @@
         <v>-1</v>
       </c>
       <c r="X35">
-        <v>-0.31306696197444189</v>
+        <v>-3.3920299784563319</v>
       </c>
       <c r="Z35" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AA35" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AB35" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AC35" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AE35">
         <v>34</v>
@@ -3970,22 +3945,22 @@
         <v>267.69571428571442</v>
       </c>
       <c r="M36">
-        <v>0.2752</v>
+        <v>0.107</v>
       </c>
       <c r="N36">
         <v>0</v>
       </c>
       <c r="O36">
-        <v>72.863815903540768</v>
+        <v>41.371880553146298</v>
       </c>
       <c r="P36" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Q36">
         <v>267.69571428571442</v>
       </c>
       <c r="R36">
-        <v>38.053493268541963</v>
+        <v>66.109967403418636</v>
       </c>
       <c r="S36">
         <v>267.69571428571442</v>
@@ -4003,19 +3978,19 @@
         <v>-0.1083650539710562</v>
       </c>
       <c r="X36">
-        <v>-3.392551823091499E-2</v>
+        <v>-0.36757751168686092</v>
       </c>
       <c r="Z36" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AA36" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AB36" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AC36" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AE36">
         <v>35</v>
@@ -4059,22 +4034,22 @@
         <v>307.10000000000002</v>
       </c>
       <c r="M37">
-        <v>0.2321</v>
+        <v>4.2700000000000002E-2</v>
       </c>
       <c r="N37">
         <v>0</v>
       </c>
       <c r="O37">
-        <v>-4.9741728193940276</v>
+        <v>-16.21869153602438</v>
       </c>
       <c r="P37" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Q37">
         <v>307.10000000000002</v>
       </c>
       <c r="R37">
-        <v>43.654893071229388</v>
+        <v>75.841225339606794</v>
       </c>
       <c r="S37">
         <v>307.10000000000002</v>
@@ -4092,19 +4067,19 @@
         <v>-9.7657692369439289E-2</v>
       </c>
       <c r="X37">
-        <v>-3.0573397063534999E-2</v>
+        <v>-0.33125782014400418</v>
       </c>
       <c r="Z37" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AA37" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AB37" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AC37" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AE37">
         <v>36</v>
@@ -4157,7 +4132,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="Q38">
         <v>0</v>
@@ -4181,19 +4156,19 @@
         <v>-1</v>
       </c>
       <c r="X38">
-        <v>-0.31306696197444189</v>
+        <v>-3.3920299784563319</v>
       </c>
       <c r="Z38" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AA38" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AB38" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AC38" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AE38">
         <v>37</v>
@@ -4237,22 +4212,22 @@
         <v>133.93571428571431</v>
       </c>
       <c r="M39">
-        <v>0.1842</v>
+        <v>7.0199999999999999E-2</v>
       </c>
       <c r="N39">
         <v>0</v>
       </c>
       <c r="O39">
-        <v>-115.7682099116212</v>
+        <v>-89.274696330587261</v>
       </c>
       <c r="P39" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Q39">
         <v>133.93571428571431</v>
       </c>
       <c r="R39">
-        <v>19.039235706810771</v>
+        <v>33.076680847163964</v>
       </c>
       <c r="S39">
         <v>133.93571428571431</v>
@@ -4270,19 +4245,19 @@
         <v>-0.29163436885099281</v>
       </c>
       <c r="X39">
-        <v>-9.1301085863514125E-2</v>
+        <v>-0.98923252189075894</v>
       </c>
       <c r="Z39" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AA39" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AB39" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AC39" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AE39">
         <v>38</v>
@@ -4335,7 +4310,7 @@
         <v>0</v>
       </c>
       <c r="P40" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="Q40">
         <v>0</v>
@@ -4359,19 +4334,19 @@
         <v>-1</v>
       </c>
       <c r="X40">
-        <v>-0.31306696197444189</v>
+        <v>-3.3920299784563319</v>
       </c>
       <c r="Z40" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AA40" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AB40" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AC40" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AE40">
         <v>39</v>
@@ -4424,7 +4399,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="Q41">
         <v>0</v>
@@ -4448,19 +4423,19 @@
         <v>-1</v>
       </c>
       <c r="X41">
-        <v>-0.31306696197444189</v>
+        <v>-3.3920299784563319</v>
       </c>
       <c r="Z41" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AA41" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AB41" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AC41" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AE41">
         <v>40</v>
@@ -4513,7 +4488,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="Q42">
         <v>0</v>
@@ -4537,19 +4512,19 @@
         <v>-1</v>
       </c>
       <c r="X42">
-        <v>-0.31306696197444189</v>
+        <v>-3.3920299784563319</v>
       </c>
       <c r="Z42" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AA42" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AB42" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AC42" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AE42">
         <v>41</v>
@@ -4593,22 +4568,22 @@
         <v>285.57142857142861</v>
       </c>
       <c r="M43">
-        <v>1.03E-2</v>
+        <v>1.8599999999999998E-2</v>
       </c>
       <c r="N43">
         <v>0</v>
       </c>
       <c r="O43">
-        <v>-60.575495616452883</v>
+        <v>-122.1261203342749</v>
       </c>
       <c r="P43" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Q43">
         <v>285.57142857142861</v>
       </c>
       <c r="R43">
-        <v>40.594562613103022</v>
+        <v>70.524542705435167</v>
       </c>
       <c r="S43">
         <v>285.57142857142861</v>
@@ -4626,19 +4601,19 @@
         <v>-0.33296275708727069</v>
       </c>
       <c r="X43">
-        <v>-0.10423963881194589</v>
+        <v>-1.129419653749496</v>
       </c>
       <c r="Z43" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AA43" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AB43" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AC43" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AE43">
         <v>42</v>
@@ -4682,22 +4657,22 @@
         <v>431.99571428571431</v>
       </c>
       <c r="M44">
-        <v>3.4500000000000003E-2</v>
+        <v>0.10009999999999999</v>
       </c>
       <c r="N44">
         <v>0</v>
       </c>
       <c r="O44">
-        <v>-124.9564931022886</v>
+        <v>-151.40510900150011</v>
       </c>
       <c r="P44" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Q44">
         <v>431.99571428571431</v>
       </c>
       <c r="R44">
-        <v>61.409074289717417</v>
+        <v>106.685393399177</v>
       </c>
       <c r="S44">
         <v>431.99571428571431</v>
@@ -4715,19 +4690,19 @@
         <v>-0.2451163985510213</v>
       </c>
       <c r="X44">
-        <v>-7.6737846224484749E-2</v>
+        <v>-0.83144217209631455</v>
       </c>
       <c r="Z44" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AA44" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AB44" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AC44" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AE44">
         <v>43</v>
@@ -4780,13 +4755,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="Q45">
         <v>115.4314285714286</v>
       </c>
       <c r="R45">
-        <v>16.40881364814382</v>
+        <v>28.506873935390558</v>
       </c>
       <c r="S45">
         <v>115.4314285714286</v>
@@ -4804,19 +4779,19 @@
         <v>-1</v>
       </c>
       <c r="X45">
-        <v>-0.31306696197444189</v>
+        <v>-3.3920299784563319</v>
       </c>
       <c r="Z45" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AA45" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AB45" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AC45" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AE45">
         <v>44</v>
@@ -4860,22 +4835,22 @@
         <v>218.54142857142861</v>
       </c>
       <c r="M46">
-        <v>8.0000000000000004E-4</v>
+        <v>2.3599999999999999E-2</v>
       </c>
       <c r="N46">
         <v>0</v>
       </c>
       <c r="O46">
-        <v>-225.9229584052255</v>
+        <v>-260.88820098819701</v>
       </c>
       <c r="P46" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Q46">
         <v>218.54142857142861</v>
       </c>
       <c r="R46">
-        <v>31.06611102546216</v>
+        <v>53.97085552043405</v>
       </c>
       <c r="S46">
         <v>218.54142857142861</v>
@@ -4893,19 +4868,19 @@
         <v>-1</v>
       </c>
       <c r="X46">
-        <v>-0.31306696197444189</v>
+        <v>-3.3920299784563319</v>
       </c>
       <c r="Z46" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AA46" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AB46" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AC46" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AE46">
         <v>45</v>
@@ -4958,7 +4933,7 @@
         <v>0</v>
       </c>
       <c r="P47" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="Q47">
         <v>0</v>
@@ -4982,19 +4957,19 @@
         <v>-1</v>
       </c>
       <c r="X47">
-        <v>-0.31306696197444189</v>
+        <v>-3.3920299784563319</v>
       </c>
       <c r="Z47" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AA47" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AB47" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AC47" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AE47">
         <v>46</v>
@@ -5032,31 +5007,31 @@
         <v>0</v>
       </c>
       <c r="K48">
-        <v>0.99950000000000006</v>
+        <v>1.2444999999999999</v>
       </c>
       <c r="L48">
-        <v>-3.7665470938045469</v>
+        <v>-145220.91729694919</v>
       </c>
       <c r="M48">
-        <v>1</v>
+        <v>0.90029999999999999</v>
       </c>
       <c r="N48">
         <v>0</v>
       </c>
       <c r="O48">
-        <v>-65.349553879517771</v>
+        <v>-1365.4952466825559</v>
       </c>
       <c r="P48" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="Q48">
-        <v>59639.536882906177</v>
+        <v>60932.548683050823</v>
       </c>
       <c r="R48">
-        <v>8477.8821408040076</v>
+        <v>15047.86439331755</v>
       </c>
       <c r="S48">
-        <v>59639.536882906177</v>
+        <v>60932.548683050823</v>
       </c>
       <c r="T48">
         <v>14227.52166666666</v>
@@ -5071,19 +5046,19 @@
         <v>3.1872464787437211</v>
       </c>
       <c r="X48">
-        <v>0.99782157216403444</v>
+        <v>10.811235604628081</v>
       </c>
       <c r="Z48" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AA48" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AB48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC48" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AE48">
         <v>47</v>
@@ -5094,10 +5069,10 @@
         <v>78</v>
       </c>
       <c r="B49">
-        <v>141764.07</v>
+        <v>141494.04999999999</v>
       </c>
       <c r="C49">
-        <v>115152.98</v>
+        <v>114685</v>
       </c>
       <c r="D49">
         <v>144090.18</v>
@@ -5109,10 +5084,10 @@
         <v>81394.06</v>
       </c>
       <c r="G49">
-        <v>138129</v>
+        <v>137270.12</v>
       </c>
       <c r="H49">
-        <v>165651.64000000001</v>
+        <v>165351.64000000001</v>
       </c>
       <c r="I49">
         <v>7</v>
@@ -5121,58 +5096,58 @@
         <v>0</v>
       </c>
       <c r="K49">
-        <v>0.72309999999999997</v>
+        <v>0.99829999999999997</v>
       </c>
       <c r="L49">
-        <v>118341.19077851099</v>
+        <v>-44.321730602125172</v>
       </c>
       <c r="M49">
-        <v>0.90039999999999998</v>
+        <v>0.99990000000000001</v>
       </c>
       <c r="N49">
-        <v>0</v>
+        <v>0.99870000000000003</v>
       </c>
       <c r="O49">
-        <v>4161.8460978014054</v>
+        <v>25.94386691172258</v>
       </c>
       <c r="P49" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="Q49">
-        <v>161490.83831251101</v>
+        <v>165325.71048139789</v>
       </c>
       <c r="R49">
-        <v>22956.252942090068</v>
+        <v>40828.73481944087</v>
       </c>
       <c r="S49">
-        <v>161490.83831251101</v>
+        <v>165325.71048139789</v>
       </c>
       <c r="T49">
-        <v>127935.22166666669</v>
+        <v>127669.075</v>
       </c>
       <c r="U49">
-        <v>133323.28142857141</v>
+        <v>133052.2985714286</v>
       </c>
       <c r="V49">
-        <v>37716.418333333328</v>
+        <v>37682.565000000002</v>
       </c>
       <c r="W49">
-        <v>0.29480871523873942</v>
+        <v>0.29515812658625429</v>
       </c>
       <c r="X49">
-        <v>9.2294868843380493E-2</v>
+        <v>1.0011852137655839</v>
       </c>
       <c r="Z49" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AA49" t="s">
         <v>125</v>
       </c>
       <c r="AB49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC49" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AE49">
         <v>48</v>
@@ -5183,25 +5158,25 @@
         <v>79</v>
       </c>
       <c r="B50">
-        <v>141764.07</v>
+        <v>2937.12</v>
       </c>
       <c r="C50">
-        <v>115152.98</v>
+        <v>414.99</v>
       </c>
       <c r="D50">
-        <v>144090.18</v>
+        <v>1567.98</v>
       </c>
       <c r="E50">
-        <v>147081.04</v>
+        <v>385.98</v>
       </c>
       <c r="F50">
-        <v>81394.06</v>
+        <v>210</v>
       </c>
       <c r="G50">
-        <v>138129</v>
+        <v>2185.8200000000002</v>
       </c>
       <c r="H50">
-        <v>165651.64000000001</v>
+        <v>2333.0700000000002</v>
       </c>
       <c r="I50">
         <v>7</v>
@@ -5210,58 +5185,58 @@
         <v>0</v>
       </c>
       <c r="K50">
-        <v>0.72309999999999997</v>
+        <v>2.5600000000000001E-2</v>
       </c>
       <c r="L50">
-        <v>118341.19077851099</v>
+        <v>-1979.4385544470319</v>
       </c>
       <c r="M50">
-        <v>0.90039999999999998</v>
+        <v>0.4022</v>
       </c>
       <c r="N50">
-        <v>0</v>
+        <v>3.3773</v>
       </c>
       <c r="O50">
-        <v>4161.8460978014054</v>
+        <v>71.915700861444293</v>
       </c>
       <c r="P50" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="Q50">
-        <v>161490.83831251101</v>
+        <v>2261.2434295529679</v>
       </c>
       <c r="R50">
-        <v>22956.252942090068</v>
+        <v>558.43527348886994</v>
       </c>
       <c r="S50">
-        <v>161490.83831251101</v>
+        <v>2261.2434295529679</v>
       </c>
       <c r="T50">
-        <v>127935.22166666669</v>
+        <v>1283.6483333333331</v>
       </c>
       <c r="U50">
-        <v>133323.28142857141</v>
+        <v>1433.565714285714</v>
       </c>
       <c r="V50">
-        <v>37716.418333333328</v>
+        <v>1049.4216666666671</v>
       </c>
       <c r="W50">
-        <v>0.29480871523873942</v>
+        <v>0.81753050225334312</v>
       </c>
       <c r="X50">
-        <v>9.2294868843380493E-2</v>
+        <v>2.7730879719458019</v>
       </c>
       <c r="Z50" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AA50" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AB50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC50" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AE50">
         <v>49</v>
@@ -5272,25 +5247,25 @@
         <v>80</v>
       </c>
       <c r="B51">
-        <v>141494.04999999999</v>
+        <v>5571.74</v>
       </c>
       <c r="C51">
-        <v>114685</v>
+        <v>5913.14</v>
       </c>
       <c r="D51">
-        <v>144090.18</v>
+        <v>7370.66</v>
       </c>
       <c r="E51">
-        <v>147081.04</v>
+        <v>8740.94</v>
       </c>
       <c r="F51">
-        <v>81394.06</v>
+        <v>11940.83</v>
       </c>
       <c r="G51">
-        <v>137270.12</v>
+        <v>11670.75</v>
       </c>
       <c r="H51">
-        <v>165351.64000000001</v>
+        <v>11994.75</v>
       </c>
       <c r="I51">
         <v>7</v>
@@ -5299,58 +5274,58 @@
         <v>0</v>
       </c>
       <c r="K51">
-        <v>0.72150000000000003</v>
+        <v>0</v>
       </c>
       <c r="L51">
-        <v>118101.98405520149</v>
+        <v>9028.9728571428586</v>
       </c>
       <c r="M51">
-        <v>0.89949999999999997</v>
+        <v>6.3E-3</v>
       </c>
       <c r="N51">
         <v>0</v>
       </c>
       <c r="O51">
-        <v>4192.5684726716718</v>
+        <v>3233.4275829727871</v>
       </c>
       <c r="P51" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q51">
+        <v>9028.9728571428586</v>
+      </c>
+      <c r="R51">
+        <v>2229.7895312398732</v>
+      </c>
+      <c r="S51">
+        <v>9028.9728571428586</v>
+      </c>
+      <c r="T51">
+        <v>8534.6766666666681</v>
+      </c>
+      <c r="U51">
+        <v>9028.9728571428586</v>
+      </c>
+      <c r="V51">
+        <v>3460.0733333333319</v>
+      </c>
+      <c r="W51">
+        <v>0.40541352279309129</v>
+      </c>
+      <c r="X51">
+        <v>1.375174822985755</v>
+      </c>
+      <c r="Z51" t="s">
         <v>121</v>
       </c>
-      <c r="Q51">
-        <v>161156.15456520149</v>
-      </c>
-      <c r="R51">
-        <v>22908.67696292539</v>
-      </c>
-      <c r="S51">
-        <v>161156.15456520149</v>
-      </c>
-      <c r="T51">
-        <v>127669.075</v>
-      </c>
-      <c r="U51">
-        <v>133052.2985714286</v>
-      </c>
-      <c r="V51">
-        <v>37682.565000000002</v>
-      </c>
-      <c r="W51">
-        <v>0.29515812658625429</v>
-      </c>
-      <c r="X51">
-        <v>9.2404257992426408E-2</v>
-      </c>
-      <c r="Z51" t="s">
+      <c r="AA51" t="s">
         <v>124</v>
       </c>
-      <c r="AA51" t="s">
-        <v>125</v>
-      </c>
       <c r="AB51" t="b">
         <v>0</v>
       </c>
       <c r="AC51" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AE51">
         <v>50</v>
@@ -5361,28 +5336,28 @@
         <v>81</v>
       </c>
       <c r="B52">
-        <v>5571.74</v>
+        <v>0</v>
       </c>
       <c r="C52">
-        <v>5913.14</v>
+        <v>0</v>
       </c>
       <c r="D52">
-        <v>7370.66</v>
+        <v>0</v>
       </c>
       <c r="E52">
-        <v>8740.94</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>11940.83</v>
+        <v>4164.45</v>
       </c>
       <c r="G52">
-        <v>11670.75</v>
+        <v>4000</v>
       </c>
       <c r="H52">
-        <v>11994.75</v>
+        <v>4000</v>
       </c>
       <c r="I52">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J52" t="b">
         <v>0</v>
@@ -5391,55 +5366,55 @@
         <v>0</v>
       </c>
       <c r="L52">
-        <v>9028.9728571428586</v>
+        <v>1737.778571428571</v>
       </c>
       <c r="M52">
-        <v>1.5E-3</v>
+        <v>3.6400000000000002E-2</v>
       </c>
       <c r="N52">
         <v>0</v>
       </c>
       <c r="O52">
-        <v>3087.4084551940209</v>
+        <v>2751.8338150890131</v>
       </c>
       <c r="P52" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Q52">
-        <v>9028.9728571428586</v>
+        <v>1737.778571428571</v>
       </c>
       <c r="R52">
-        <v>1283.486957413234</v>
+        <v>429.16071711512302</v>
       </c>
       <c r="S52">
-        <v>9028.9728571428586</v>
+        <v>1737.778571428571</v>
       </c>
       <c r="T52">
-        <v>8534.6766666666681</v>
+        <v>1360.741666666667</v>
       </c>
       <c r="U52">
-        <v>9028.9728571428586</v>
+        <v>1737.778571428571</v>
       </c>
       <c r="V52">
-        <v>3460.0733333333319</v>
+        <v>2639.2583333333332</v>
       </c>
       <c r="W52">
-        <v>0.40541352279309129</v>
+        <v>1.939573394411136</v>
       </c>
       <c r="X52">
-        <v>0.12692157992418929</v>
+        <v>6.5790910992588811</v>
       </c>
       <c r="Z52" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA52" t="s">
         <v>124</v>
       </c>
-      <c r="AA52" t="s">
-        <v>125</v>
-      </c>
       <c r="AB52" t="b">
         <v>0</v>
       </c>
       <c r="AC52" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AE52">
         <v>51</v>
@@ -5450,28 +5425,28 @@
         <v>82</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>14546.21</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>11668.14</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>12793</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>11204.77</v>
       </c>
       <c r="F53">
-        <v>4164.45</v>
+        <v>10828.08</v>
       </c>
       <c r="G53">
-        <v>4000</v>
+        <v>9949.43</v>
       </c>
       <c r="H53">
-        <v>4000</v>
+        <v>13989.99</v>
       </c>
       <c r="I53">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J53" t="b">
         <v>0</v>
@@ -5480,55 +5455,55 @@
         <v>0</v>
       </c>
       <c r="L53">
-        <v>1737.778571428571</v>
+        <v>12139.945714285721</v>
       </c>
       <c r="M53">
-        <v>4.41E-2</v>
+        <v>0.25569999999999998</v>
       </c>
       <c r="N53">
         <v>0</v>
       </c>
       <c r="O53">
-        <v>2757.3577871533821</v>
+        <v>834.56545335091687</v>
       </c>
       <c r="P53" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Q53">
-        <v>1737.778571428571</v>
+        <v>12139.945714285721</v>
       </c>
       <c r="R53">
-        <v>247.02877797846969</v>
+        <v>2998.0734566191359</v>
       </c>
       <c r="S53">
-        <v>1737.778571428571</v>
+        <v>12139.945714285721</v>
       </c>
       <c r="T53">
-        <v>1360.741666666667</v>
+        <v>11831.605</v>
       </c>
       <c r="U53">
-        <v>1737.778571428571</v>
+        <v>12139.945714285721</v>
       </c>
       <c r="V53">
-        <v>2639.2583333333332</v>
+        <v>2158.3849999999979</v>
       </c>
       <c r="W53">
-        <v>1.939573394411136</v>
+        <v>0.18242537677686149</v>
       </c>
       <c r="X53">
-        <v>0.60721635011475039</v>
+        <v>0.61879234685830564</v>
       </c>
       <c r="Z53" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA53" t="s">
         <v>124</v>
       </c>
-      <c r="AA53" t="s">
-        <v>125</v>
-      </c>
       <c r="AB53" t="b">
         <v>0</v>
       </c>
       <c r="AC53" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AE53">
         <v>52</v>
@@ -5539,7 +5514,7 @@
         <v>83</v>
       </c>
       <c r="B54">
-        <v>14546.21</v>
+        <v>14421.21</v>
       </c>
       <c r="C54">
         <v>11668.14</v>
@@ -5557,7 +5532,7 @@
         <v>9949.43</v>
       </c>
       <c r="H54">
-        <v>13989.99</v>
+        <v>13864.99</v>
       </c>
       <c r="I54">
         <v>7</v>
@@ -5569,55 +5544,55 @@
         <v>0</v>
       </c>
       <c r="L54">
-        <v>12139.945714285721</v>
+        <v>12104.231428571429</v>
       </c>
       <c r="M54">
-        <v>8.2600000000000007E-2</v>
+        <v>0.25269999999999998</v>
       </c>
       <c r="N54">
         <v>0</v>
       </c>
       <c r="O54">
-        <v>1320.0902792438051</v>
+        <v>782.12443028780945</v>
       </c>
       <c r="P54" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Q54">
-        <v>12139.945714285721</v>
+        <v>12104.231428571429</v>
       </c>
       <c r="R54">
-        <v>1725.7181115196111</v>
+        <v>2989.253478792044</v>
       </c>
       <c r="S54">
-        <v>12139.945714285721</v>
+        <v>12104.231428571429</v>
       </c>
       <c r="T54">
-        <v>11831.605</v>
+        <v>11810.771666666669</v>
       </c>
       <c r="U54">
-        <v>12139.945714285721</v>
+        <v>12104.231428571429</v>
       </c>
       <c r="V54">
-        <v>2158.3849999999979</v>
+        <v>2054.2183333333319</v>
       </c>
       <c r="W54">
-        <v>0.18242537677686149</v>
+        <v>0.1739275291495912</v>
       </c>
       <c r="X54">
-        <v>5.7111358494574931E-2</v>
+        <v>0.58996739295425082</v>
       </c>
       <c r="Z54" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA54" t="s">
         <v>124</v>
       </c>
-      <c r="AA54" t="s">
-        <v>125</v>
-      </c>
       <c r="AB54" t="b">
         <v>0</v>
       </c>
       <c r="AC54" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AE54">
         <v>53</v>
@@ -5628,25 +5603,25 @@
         <v>84</v>
       </c>
       <c r="B55">
-        <v>14421.21</v>
+        <v>6500.13</v>
       </c>
       <c r="C55">
-        <v>11668.14</v>
+        <v>7579.41</v>
       </c>
       <c r="D55">
-        <v>12793</v>
+        <v>6602.87</v>
       </c>
       <c r="E55">
-        <v>11204.77</v>
+        <v>6888.29</v>
       </c>
       <c r="F55">
-        <v>10828.08</v>
+        <v>11106.38</v>
       </c>
       <c r="G55">
-        <v>9949.43</v>
+        <v>7730.62</v>
       </c>
       <c r="H55">
-        <v>13864.99</v>
+        <v>8354.57</v>
       </c>
       <c r="I55">
         <v>7</v>
@@ -5658,55 +5633,55 @@
         <v>0</v>
       </c>
       <c r="L55">
-        <v>12104.231428571429</v>
+        <v>7823.181428571429</v>
       </c>
       <c r="M55">
-        <v>8.1600000000000006E-2</v>
+        <v>0.51029999999999998</v>
       </c>
       <c r="N55">
         <v>0</v>
       </c>
       <c r="O55">
-        <v>1250.2191794567011</v>
+        <v>1879.76096102775</v>
       </c>
       <c r="P55" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Q55">
-        <v>12104.231428571429</v>
+        <v>7823.181428571429</v>
       </c>
       <c r="R55">
-        <v>1720.641252763595</v>
+        <v>1932.008028645108</v>
       </c>
       <c r="S55">
-        <v>12104.231428571429</v>
+        <v>7823.181428571429</v>
       </c>
       <c r="T55">
-        <v>11810.771666666669</v>
+        <v>7734.6166666666677</v>
       </c>
       <c r="U55">
-        <v>12104.231428571429</v>
+        <v>7823.181428571429</v>
       </c>
       <c r="V55">
-        <v>2054.2183333333319</v>
+        <v>619.95333333333201</v>
       </c>
       <c r="W55">
-        <v>0.1739275291495912</v>
+        <v>8.0153078045237997E-2</v>
       </c>
       <c r="X55">
-        <v>5.4450963154583698E-2</v>
+        <v>0.27188164359499728</v>
       </c>
       <c r="Z55" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA55" t="s">
         <v>124</v>
       </c>
-      <c r="AA55" t="s">
-        <v>125</v>
-      </c>
       <c r="AB55" t="b">
         <v>0</v>
       </c>
       <c r="AC55" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AE55">
         <v>54</v>
@@ -5717,25 +5692,25 @@
         <v>85</v>
       </c>
       <c r="B56">
-        <v>2937.12</v>
+        <v>1488.66</v>
       </c>
       <c r="C56">
-        <v>414.99</v>
+        <v>952.71</v>
       </c>
       <c r="D56">
-        <v>1567.98</v>
+        <v>1296.8</v>
       </c>
       <c r="E56">
-        <v>385.98</v>
+        <v>1772.26</v>
       </c>
       <c r="F56">
-        <v>210</v>
+        <v>1791.52</v>
       </c>
       <c r="G56">
-        <v>2185.8200000000002</v>
+        <v>903.73</v>
       </c>
       <c r="H56">
-        <v>2333.0700000000002</v>
+        <v>1608.41</v>
       </c>
       <c r="I56">
         <v>7</v>
@@ -5747,55 +5722,55 @@
         <v>0</v>
       </c>
       <c r="L56">
-        <v>1433.565714285714</v>
+        <v>1402.012857142857</v>
       </c>
       <c r="M56">
-        <v>0.15310000000000001</v>
+        <v>2.7000000000000001E-3</v>
       </c>
       <c r="N56">
         <v>0</v>
       </c>
       <c r="O56">
-        <v>430.62250412847652</v>
+        <v>228.7566415068502</v>
       </c>
       <c r="P56" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Q56">
-        <v>1433.565714285714</v>
+        <v>1402.012857142857</v>
       </c>
       <c r="R56">
-        <v>203.78429816907669</v>
+        <v>346.24022477237838</v>
       </c>
       <c r="S56">
-        <v>1433.565714285714</v>
+        <v>1402.012857142857</v>
       </c>
       <c r="T56">
-        <v>1283.6483333333331</v>
+        <v>1367.613333333333</v>
       </c>
       <c r="U56">
-        <v>1433.565714285714</v>
+        <v>1402.012857142857</v>
       </c>
       <c r="V56">
-        <v>1049.4216666666671</v>
+        <v>240.7966666666666</v>
       </c>
       <c r="W56">
-        <v>0.81753050225334312</v>
+        <v>0.17607072174396271</v>
       </c>
       <c r="X56">
-        <v>0.25594179066189382</v>
+        <v>0.59723716648396452</v>
       </c>
       <c r="Z56" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA56" t="s">
         <v>124</v>
       </c>
-      <c r="AA56" t="s">
-        <v>125</v>
-      </c>
       <c r="AB56" t="b">
         <v>0</v>
       </c>
       <c r="AC56" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AE56">
         <v>55</v>
@@ -5806,28 +5781,28 @@
         <v>86</v>
       </c>
       <c r="B57">
-        <v>6500.13</v>
+        <v>700</v>
       </c>
       <c r="C57">
-        <v>7579.41</v>
+        <v>700</v>
       </c>
       <c r="D57">
-        <v>6602.87</v>
+        <v>700</v>
       </c>
       <c r="E57">
-        <v>6888.29</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>11106.38</v>
+        <v>1050</v>
       </c>
       <c r="G57">
-        <v>7730.62</v>
+        <v>900</v>
       </c>
       <c r="H57">
-        <v>8354.57</v>
+        <v>900</v>
       </c>
       <c r="I57">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J57" t="b">
         <v>0</v>
@@ -5836,55 +5811,55 @@
         <v>0</v>
       </c>
       <c r="L57">
-        <v>7823.181428571429</v>
+        <v>707.14285714285711</v>
       </c>
       <c r="M57">
-        <v>0.46970000000000001</v>
+        <v>0.13420000000000001</v>
       </c>
       <c r="N57">
         <v>0</v>
       </c>
       <c r="O57">
-        <v>1719.138653398513</v>
+        <v>340.19447671103808</v>
       </c>
       <c r="P57" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Q57">
-        <v>7823.181428571429</v>
+        <v>707.14285714285711</v>
       </c>
       <c r="R57">
-        <v>1112.0812397952241</v>
+        <v>174.6355609764403</v>
       </c>
       <c r="S57">
-        <v>7823.181428571429</v>
+        <v>707.14285714285711</v>
       </c>
       <c r="T57">
-        <v>7734.6166666666677</v>
+        <v>675</v>
       </c>
       <c r="U57">
-        <v>7823.181428571429</v>
+        <v>707.14285714285711</v>
       </c>
       <c r="V57">
-        <v>619.95333333333201</v>
+        <v>225</v>
       </c>
       <c r="W57">
-        <v>8.0153078045237997E-2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="X57">
-        <v>2.5093280636523E-2</v>
+        <v>1.130676659485444</v>
       </c>
       <c r="Z57" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA57" t="s">
         <v>124</v>
       </c>
-      <c r="AA57" t="s">
-        <v>125</v>
-      </c>
       <c r="AB57" t="b">
         <v>0</v>
       </c>
       <c r="AC57" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AE57">
         <v>56</v>
@@ -5895,25 +5870,25 @@
         <v>87</v>
       </c>
       <c r="B58">
-        <v>1488.66</v>
+        <v>16000</v>
       </c>
       <c r="C58">
-        <v>952.71</v>
+        <v>16000</v>
       </c>
       <c r="D58">
-        <v>1296.8</v>
+        <v>16000</v>
       </c>
       <c r="E58">
-        <v>1772.26</v>
+        <v>16000</v>
       </c>
       <c r="F58">
-        <v>1791.52</v>
+        <v>16720</v>
       </c>
       <c r="G58">
-        <v>903.73</v>
+        <v>16240</v>
       </c>
       <c r="H58">
-        <v>1608.41</v>
+        <v>16240</v>
       </c>
       <c r="I58">
         <v>7</v>
@@ -5925,55 +5900,55 @@
         <v>0</v>
       </c>
       <c r="L58">
-        <v>1402.012857142857</v>
+        <v>16171.428571428571</v>
       </c>
       <c r="M58">
-        <v>1.06E-2</v>
+        <v>0.42380000000000001</v>
       </c>
       <c r="N58">
         <v>0</v>
       </c>
       <c r="O58">
-        <v>247.22947471123391</v>
+        <v>274.45675527682403</v>
       </c>
       <c r="P58" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Q58">
-        <v>1402.012857142857</v>
+        <v>16171.428571428571</v>
       </c>
       <c r="R58">
-        <v>199.2989949953118</v>
+        <v>3993.685960107684</v>
       </c>
       <c r="S58">
-        <v>1402.012857142857</v>
+        <v>16171.428571428571</v>
       </c>
       <c r="T58">
-        <v>1367.613333333333</v>
+        <v>16160</v>
       </c>
       <c r="U58">
-        <v>1402.012857142857</v>
+        <v>16171.428571428571</v>
       </c>
       <c r="V58">
-        <v>240.7966666666666</v>
+        <v>80</v>
       </c>
       <c r="W58">
-        <v>0.17607072174396271</v>
+        <v>4.9504950495049514E-3</v>
       </c>
       <c r="X58">
-        <v>5.5121925949029711E-2</v>
+        <v>1.679222761612046E-2</v>
       </c>
       <c r="Z58" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA58" t="s">
         <v>124</v>
       </c>
-      <c r="AA58" t="s">
-        <v>125</v>
-      </c>
       <c r="AB58" t="b">
         <v>0</v>
       </c>
       <c r="AC58" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AE58">
         <v>57</v>
@@ -5984,28 +5959,28 @@
         <v>88</v>
       </c>
       <c r="B59">
-        <v>700</v>
+        <v>860.45</v>
       </c>
       <c r="C59">
-        <v>700</v>
+        <v>869.36</v>
       </c>
       <c r="D59">
-        <v>700</v>
+        <v>742</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>874.36</v>
       </c>
       <c r="F59">
-        <v>1050</v>
+        <v>874.36</v>
       </c>
       <c r="G59">
-        <v>900</v>
+        <v>893.45</v>
       </c>
       <c r="H59">
-        <v>900</v>
+        <v>902.36</v>
       </c>
       <c r="I59">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J59" t="b">
         <v>0</v>
@@ -6014,55 +5989,55 @@
         <v>0</v>
       </c>
       <c r="L59">
-        <v>707.14285714285711</v>
+        <v>859.47714285714278</v>
       </c>
       <c r="M59">
-        <v>0.26050000000000001</v>
+        <v>2.7000000000000001E-3</v>
       </c>
       <c r="N59">
         <v>0</v>
       </c>
       <c r="O59">
-        <v>381.34089968574091</v>
+        <v>46.170526829826372</v>
       </c>
       <c r="P59" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Q59">
-        <v>707.14285714285711</v>
+        <v>859.47714285714278</v>
       </c>
       <c r="R59">
-        <v>100.52180336911449</v>
+        <v>212.2559416010094</v>
       </c>
       <c r="S59">
-        <v>707.14285714285711</v>
+        <v>859.47714285714278</v>
       </c>
       <c r="T59">
-        <v>675</v>
+        <v>852.32999999999993</v>
       </c>
       <c r="U59">
-        <v>707.14285714285711</v>
+        <v>859.47714285714278</v>
       </c>
       <c r="V59">
-        <v>225</v>
+        <v>50.030000000000094</v>
       </c>
       <c r="W59">
-        <v>0.33333333333333331</v>
+        <v>5.8697922166297198E-2</v>
       </c>
       <c r="X59">
-        <v>0.1043556539914806</v>
+        <v>0.1991051116611765</v>
       </c>
       <c r="Z59" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA59" t="s">
         <v>124</v>
       </c>
-      <c r="AA59" t="s">
-        <v>125</v>
-      </c>
       <c r="AB59" t="b">
         <v>0</v>
       </c>
       <c r="AC59" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AE59">
         <v>58</v>
@@ -6073,25 +6048,25 @@
         <v>89</v>
       </c>
       <c r="B60">
-        <v>16000</v>
+        <v>737</v>
       </c>
       <c r="C60">
-        <v>16000</v>
+        <v>737</v>
       </c>
       <c r="D60">
-        <v>16000</v>
+        <v>742</v>
       </c>
       <c r="E60">
-        <v>16000</v>
+        <v>742</v>
       </c>
       <c r="F60">
-        <v>16720</v>
+        <v>742</v>
       </c>
       <c r="G60">
-        <v>16240</v>
+        <v>770</v>
       </c>
       <c r="H60">
-        <v>16240</v>
+        <v>770</v>
       </c>
       <c r="I60">
         <v>7</v>
@@ -6103,55 +6078,55 @@
         <v>0</v>
       </c>
       <c r="L60">
-        <v>16171.428571428571</v>
+        <v>748.57142857142856</v>
       </c>
       <c r="M60">
-        <v>0.44890000000000002</v>
+        <v>0.2014</v>
       </c>
       <c r="N60">
         <v>0</v>
       </c>
       <c r="O60">
-        <v>263.12813526201529</v>
+        <v>13.55951783921091</v>
       </c>
       <c r="P60" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Q60">
-        <v>16171.428571428571</v>
+        <v>748.57142857142856</v>
       </c>
       <c r="R60">
-        <v>2298.8016447239929</v>
+        <v>184.86673525586809</v>
       </c>
       <c r="S60">
-        <v>16171.428571428571</v>
+        <v>748.57142857142856</v>
       </c>
       <c r="T60">
-        <v>16160</v>
+        <v>745</v>
       </c>
       <c r="U60">
-        <v>16171.428571428571</v>
+        <v>748.57142857142856</v>
       </c>
       <c r="V60">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="W60">
-        <v>4.9504950495049514E-3</v>
+        <v>3.3557046979865772E-2</v>
       </c>
       <c r="X60">
-        <v>1.549836445418029E-3</v>
+        <v>0.1138265093441722</v>
       </c>
       <c r="Z60" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA60" t="s">
         <v>124</v>
       </c>
-      <c r="AA60" t="s">
-        <v>125</v>
-      </c>
       <c r="AB60" t="b">
         <v>0</v>
       </c>
       <c r="AC60" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AE60">
         <v>59</v>
@@ -6162,28 +6137,28 @@
         <v>90</v>
       </c>
       <c r="B61">
-        <v>860.45</v>
+        <v>1333.34</v>
       </c>
       <c r="C61">
-        <v>869.36</v>
+        <v>666.67</v>
       </c>
       <c r="D61">
-        <v>742</v>
+        <v>666.67</v>
       </c>
       <c r="E61">
-        <v>874.36</v>
+        <v>0</v>
       </c>
       <c r="F61">
-        <v>874.36</v>
+        <v>666.67</v>
       </c>
       <c r="G61">
-        <v>893.45</v>
+        <v>666.67</v>
       </c>
       <c r="H61">
-        <v>902.36</v>
+        <v>666.67</v>
       </c>
       <c r="I61">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J61" t="b">
         <v>0</v>
@@ -6192,55 +6167,55 @@
         <v>0</v>
       </c>
       <c r="L61">
-        <v>859.47714285714278</v>
+        <v>666.67</v>
       </c>
       <c r="M61">
-        <v>5.9999999999999995E-4</v>
+        <v>3.2000000000000002E-3</v>
       </c>
       <c r="N61">
         <v>0</v>
       </c>
       <c r="O61">
-        <v>41.482852054078883</v>
+        <v>25.627627573565629</v>
       </c>
       <c r="P61" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Q61">
-        <v>859.47714285714278</v>
+        <v>666.67</v>
       </c>
       <c r="R61">
-        <v>122.1764336326744</v>
+        <v>164.64040930366551</v>
       </c>
       <c r="S61">
-        <v>859.47714285714278</v>
+        <v>666.67</v>
       </c>
       <c r="T61">
-        <v>852.32999999999993</v>
+        <v>666.67</v>
       </c>
       <c r="U61">
-        <v>859.47714285714278</v>
+        <v>666.67</v>
       </c>
       <c r="V61">
-        <v>50.030000000000094</v>
+        <v>0</v>
       </c>
       <c r="W61">
-        <v>5.8697922166297198E-2</v>
+        <v>0</v>
       </c>
       <c r="X61">
-        <v>1.8376380166814921E-2</v>
+        <v>0</v>
       </c>
       <c r="Z61" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA61" t="s">
         <v>124</v>
       </c>
-      <c r="AA61" t="s">
-        <v>125</v>
-      </c>
       <c r="AB61" t="b">
         <v>0</v>
       </c>
       <c r="AC61" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AE61">
         <v>60</v>
@@ -6251,28 +6226,28 @@
         <v>91</v>
       </c>
       <c r="B62">
-        <v>737</v>
+        <v>3193.66</v>
       </c>
       <c r="C62">
-        <v>737</v>
+        <v>1596.83</v>
       </c>
       <c r="D62">
-        <v>742</v>
+        <v>1596.83</v>
       </c>
       <c r="E62">
-        <v>742</v>
+        <v>0</v>
       </c>
       <c r="F62">
-        <v>742</v>
+        <v>1596.83</v>
       </c>
       <c r="G62">
-        <v>770</v>
+        <v>1596.83</v>
       </c>
       <c r="H62">
-        <v>770</v>
+        <v>1596.83</v>
       </c>
       <c r="I62">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J62" t="b">
         <v>0</v>
@@ -6281,55 +6256,55 @@
         <v>0</v>
       </c>
       <c r="L62">
-        <v>748.57142857142856</v>
+        <v>1596.83</v>
       </c>
       <c r="M62">
-        <v>0.2024</v>
+        <v>3.2000000000000002E-3</v>
       </c>
       <c r="N62">
         <v>0</v>
       </c>
       <c r="O62">
-        <v>14.18547017785284</v>
+        <v>61.384139886745743</v>
       </c>
       <c r="P62" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Q62">
-        <v>748.57142857142856</v>
+        <v>1596.83</v>
       </c>
       <c r="R62">
-        <v>106.410959526093</v>
+        <v>394.3521454218311</v>
       </c>
       <c r="S62">
-        <v>748.57142857142856</v>
+        <v>1596.83</v>
       </c>
       <c r="T62">
-        <v>745</v>
+        <v>1596.83</v>
       </c>
       <c r="U62">
-        <v>748.57142857142856</v>
+        <v>1596.83</v>
       </c>
       <c r="V62">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="W62">
-        <v>3.3557046979865772E-2</v>
+        <v>0</v>
       </c>
       <c r="X62">
-        <v>1.05056027508202E-2</v>
+        <v>0</v>
       </c>
       <c r="Z62" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA62" t="s">
         <v>124</v>
       </c>
-      <c r="AA62" t="s">
-        <v>125</v>
-      </c>
       <c r="AB62" t="b">
         <v>0</v>
       </c>
       <c r="AC62" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AE62">
         <v>61</v>
@@ -6340,25 +6315,25 @@
         <v>92</v>
       </c>
       <c r="B63">
-        <v>1333.34</v>
+        <v>4010.18</v>
       </c>
       <c r="C63">
-        <v>666.67</v>
+        <v>2005.09</v>
       </c>
       <c r="D63">
-        <v>666.67</v>
+        <v>2005.09</v>
       </c>
       <c r="E63">
         <v>0</v>
       </c>
       <c r="F63">
-        <v>666.67</v>
+        <v>2005.09</v>
       </c>
       <c r="G63">
-        <v>666.67</v>
+        <v>2005.09</v>
       </c>
       <c r="H63">
-        <v>666.67</v>
+        <v>2005.09</v>
       </c>
       <c r="I63">
         <v>6</v>
@@ -6370,34 +6345,34 @@
         <v>0</v>
       </c>
       <c r="L63">
-        <v>666.67</v>
+        <v>2005.09</v>
       </c>
       <c r="M63">
-        <v>0.1062</v>
+        <v>3.2000000000000002E-3</v>
       </c>
       <c r="N63">
         <v>0</v>
       </c>
       <c r="O63">
-        <v>136.40482839876759</v>
+        <v>77.078164266399654</v>
       </c>
       <c r="P63" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Q63">
-        <v>666.67</v>
+        <v>2005.09</v>
       </c>
       <c r="R63">
-        <v>94.768503952447077</v>
+        <v>495.17578155712209</v>
       </c>
       <c r="S63">
-        <v>666.67</v>
+        <v>2005.09</v>
       </c>
       <c r="T63">
-        <v>666.67</v>
+        <v>2005.09</v>
       </c>
       <c r="U63">
-        <v>666.67</v>
+        <v>2005.09</v>
       </c>
       <c r="V63">
         <v>0</v>
@@ -6409,16 +6384,16 @@
         <v>0</v>
       </c>
       <c r="Z63" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA63" t="s">
         <v>124</v>
       </c>
-      <c r="AA63" t="s">
-        <v>125</v>
-      </c>
       <c r="AB63" t="b">
         <v>0</v>
       </c>
       <c r="AC63" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AE63">
         <v>62</v>
@@ -6429,28 +6404,28 @@
         <v>93</v>
       </c>
       <c r="B64">
-        <v>3193.66</v>
+        <v>2648.43</v>
       </c>
       <c r="C64">
-        <v>1596.83</v>
+        <v>634.14</v>
       </c>
       <c r="D64">
-        <v>1596.83</v>
+        <v>1657</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>377.72</v>
       </c>
       <c r="F64">
-        <v>1596.83</v>
+        <v>2703.03</v>
       </c>
       <c r="G64">
-        <v>1596.83</v>
+        <v>937.94</v>
       </c>
       <c r="H64">
-        <v>1596.83</v>
+        <v>1446.7</v>
       </c>
       <c r="I64">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J64" t="b">
         <v>0</v>
@@ -6459,55 +6434,55 @@
         <v>0</v>
       </c>
       <c r="L64">
-        <v>1596.83</v>
+        <v>1486.4228571428571</v>
       </c>
       <c r="M64">
-        <v>0.1062</v>
+        <v>0.1333</v>
       </c>
       <c r="N64">
         <v>0</v>
       </c>
       <c r="O64">
-        <v>326.72134959125788</v>
+        <v>359.51079800695169</v>
       </c>
       <c r="P64" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Q64">
-        <v>1596.83</v>
+        <v>1486.4228571428571</v>
       </c>
       <c r="R64">
-        <v>226.99265028632769</v>
+        <v>367.086065967156</v>
       </c>
       <c r="S64">
-        <v>1596.83</v>
+        <v>1486.4228571428571</v>
       </c>
       <c r="T64">
-        <v>1596.83</v>
+        <v>1493.0433333333331</v>
       </c>
       <c r="U64">
-        <v>1596.83</v>
+        <v>1486.4228571428571</v>
       </c>
       <c r="V64">
-        <v>0</v>
+        <v>-46.343333333333248</v>
       </c>
       <c r="W64">
-        <v>0</v>
+        <v>-3.1039509904825211E-2</v>
       </c>
       <c r="X64">
-        <v>0</v>
+        <v>-0.1052869481137594</v>
       </c>
       <c r="Z64" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA64" t="s">
         <v>124</v>
       </c>
-      <c r="AA64" t="s">
-        <v>125</v>
-      </c>
       <c r="AB64" t="b">
         <v>0</v>
       </c>
       <c r="AC64" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AE64">
         <v>63</v>
@@ -6518,28 +6493,28 @@
         <v>94</v>
       </c>
       <c r="B65">
-        <v>4010.18</v>
+        <v>4545.8599999999997</v>
       </c>
       <c r="C65">
-        <v>2005.09</v>
+        <v>4531.8</v>
       </c>
       <c r="D65">
-        <v>2005.09</v>
+        <v>4148.78</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>3631.68</v>
       </c>
       <c r="F65">
-        <v>2005.09</v>
+        <v>3738.19</v>
       </c>
       <c r="G65">
-        <v>2005.09</v>
+        <v>3918.33</v>
       </c>
       <c r="H65">
-        <v>2005.09</v>
+        <v>3920.43</v>
       </c>
       <c r="I65">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J65" t="b">
         <v>0</v>
@@ -6548,55 +6523,55 @@
         <v>0</v>
       </c>
       <c r="L65">
-        <v>2005.09</v>
+        <v>4062.1528571428571</v>
       </c>
       <c r="M65">
-        <v>0.1062</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="N65">
         <v>0</v>
       </c>
       <c r="O65">
-        <v>410.25388479170311</v>
+        <v>-156.97727978919971</v>
       </c>
       <c r="P65" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Q65">
-        <v>2005.09</v>
+        <v>4062.1528571428571</v>
       </c>
       <c r="R65">
-        <v>285.02764424679702</v>
+        <v>1003.1867476473431</v>
       </c>
       <c r="S65">
-        <v>2005.09</v>
+        <v>4062.1528571428571</v>
       </c>
       <c r="T65">
-        <v>2005.09</v>
+        <v>4085.7733333333331</v>
       </c>
       <c r="U65">
-        <v>2005.09</v>
+        <v>4062.1528571428571</v>
       </c>
       <c r="V65">
-        <v>0</v>
+        <v>-165.34333333333319</v>
       </c>
       <c r="W65">
-        <v>0</v>
+        <v>-4.0468063165520672E-2</v>
       </c>
       <c r="X65">
-        <v>0</v>
+        <v>-0.13726888342751051</v>
       </c>
       <c r="Z65" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA65" t="s">
         <v>124</v>
       </c>
-      <c r="AA65" t="s">
-        <v>125</v>
-      </c>
       <c r="AB65" t="b">
         <v>0</v>
       </c>
       <c r="AC65" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AE65">
         <v>64</v>
@@ -6607,25 +6582,25 @@
         <v>95</v>
       </c>
       <c r="B66">
-        <v>2648.43</v>
+        <v>968</v>
       </c>
       <c r="C66">
-        <v>634.14</v>
+        <v>902</v>
       </c>
       <c r="D66">
-        <v>1657</v>
+        <v>902</v>
       </c>
       <c r="E66">
-        <v>377.72</v>
+        <v>952</v>
       </c>
       <c r="F66">
-        <v>2703.03</v>
+        <v>1230</v>
       </c>
       <c r="G66">
-        <v>937.94</v>
+        <v>820</v>
       </c>
       <c r="H66">
-        <v>1446.7</v>
+        <v>738</v>
       </c>
       <c r="I66">
         <v>7</v>
@@ -6637,55 +6612,55 @@
         <v>0</v>
       </c>
       <c r="L66">
-        <v>1486.4228571428571</v>
+        <v>930.28571428571433</v>
       </c>
       <c r="M66">
-        <v>0.39700000000000002</v>
+        <v>0.72460000000000002</v>
       </c>
       <c r="N66">
         <v>0</v>
       </c>
       <c r="O66">
-        <v>593.00660152449836</v>
+        <v>-36.960180803396042</v>
       </c>
       <c r="P66" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Q66">
-        <v>1486.4228571428571</v>
+        <v>930.28571428571433</v>
       </c>
       <c r="R66">
-        <v>211.29804912798019</v>
+        <v>229.742782440117</v>
       </c>
       <c r="S66">
-        <v>1486.4228571428571</v>
+        <v>930.28571428571433</v>
       </c>
       <c r="T66">
-        <v>1493.0433333333331</v>
+        <v>962.33333333333337</v>
       </c>
       <c r="U66">
-        <v>1486.4228571428571</v>
+        <v>930.28571428571433</v>
       </c>
       <c r="V66">
-        <v>-46.343333333333248</v>
+        <v>-224.3333333333334</v>
       </c>
       <c r="W66">
-        <v>-3.1039509904825211E-2</v>
+        <v>-0.2331139591271216</v>
       </c>
       <c r="X66">
-        <v>-9.7174450670792275E-3</v>
+        <v>-0.79072953775584054</v>
       </c>
       <c r="Z66" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA66" t="s">
         <v>124</v>
       </c>
-      <c r="AA66" t="s">
-        <v>125</v>
-      </c>
       <c r="AB66" t="b">
         <v>0</v>
       </c>
       <c r="AC66" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AE66">
         <v>65</v>
@@ -6696,25 +6671,25 @@
         <v>96</v>
       </c>
       <c r="B67">
-        <v>4545.8599999999997</v>
+        <v>5307.36</v>
       </c>
       <c r="C67">
-        <v>4531.8</v>
+        <v>5913.14</v>
       </c>
       <c r="D67">
-        <v>4148.78</v>
+        <v>7305.66</v>
       </c>
       <c r="E67">
-        <v>3631.68</v>
+        <v>8615.94</v>
       </c>
       <c r="F67">
-        <v>3738.19</v>
+        <v>7711.38</v>
       </c>
       <c r="G67">
-        <v>3918.33</v>
+        <v>7155.75</v>
       </c>
       <c r="H67">
-        <v>3920.43</v>
+        <v>6769.75</v>
       </c>
       <c r="I67">
         <v>7</v>
@@ -6726,55 +6701,55 @@
         <v>0</v>
       </c>
       <c r="L67">
-        <v>4062.1528571428571</v>
+        <v>6968.4257142857141</v>
       </c>
       <c r="M67">
-        <v>7.1000000000000004E-3</v>
+        <v>4.8999999999999998E-3</v>
       </c>
       <c r="N67">
         <v>0</v>
       </c>
       <c r="O67">
-        <v>-108.3559820865989</v>
+        <v>-107.1996050261087</v>
       </c>
       <c r="P67" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Q67">
-        <v>4062.1528571428571</v>
+        <v>6968.4257142857141</v>
       </c>
       <c r="R67">
-        <v>577.44333642969843</v>
+        <v>1720.91808811284</v>
       </c>
       <c r="S67">
-        <v>4062.1528571428571</v>
+        <v>6968.4257142857141</v>
       </c>
       <c r="T67">
-        <v>4085.7733333333331</v>
+        <v>7001.538333333333</v>
       </c>
       <c r="U67">
-        <v>4062.1528571428571</v>
+        <v>6968.4257142857141</v>
       </c>
       <c r="V67">
-        <v>-165.34333333333319</v>
+        <v>-231.78833333333299</v>
       </c>
       <c r="W67">
-        <v>-4.0468063165520672E-2</v>
+        <v>-3.3105343754217767E-2</v>
       </c>
       <c r="X67">
-        <v>-1.2669213592219369E-2</v>
+        <v>-0.1122943184614088</v>
       </c>
       <c r="Z67" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA67" t="s">
         <v>124</v>
       </c>
-      <c r="AA67" t="s">
-        <v>125</v>
-      </c>
       <c r="AB67" t="b">
         <v>0</v>
       </c>
       <c r="AC67" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AE67">
         <v>66</v>
@@ -6785,25 +6760,25 @@
         <v>97</v>
       </c>
       <c r="B68">
-        <v>968</v>
+        <v>940.88</v>
       </c>
       <c r="C68">
-        <v>902</v>
+        <v>1270.3</v>
       </c>
       <c r="D68">
-        <v>902</v>
+        <v>266.8</v>
       </c>
       <c r="E68">
-        <v>952</v>
+        <v>266.8</v>
       </c>
       <c r="F68">
-        <v>1230</v>
+        <v>266.8</v>
       </c>
       <c r="G68">
-        <v>820</v>
+        <v>266.8</v>
       </c>
       <c r="H68">
-        <v>738</v>
+        <v>266.8</v>
       </c>
       <c r="I68">
         <v>7</v>
@@ -6815,55 +6790,55 @@
         <v>0</v>
       </c>
       <c r="L68">
-        <v>930.28571428571433</v>
+        <v>506.45428571428579</v>
       </c>
       <c r="M68">
-        <v>0.75480000000000003</v>
+        <v>3.32E-2</v>
       </c>
       <c r="N68">
         <v>0</v>
       </c>
       <c r="O68">
-        <v>-46.722460133272421</v>
+        <v>-148.9612679696574</v>
       </c>
       <c r="P68" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Q68">
-        <v>930.28571428571433</v>
+        <v>506.45428571428579</v>
       </c>
       <c r="R68">
-        <v>132.2420168767018</v>
+        <v>125.07363597221349</v>
       </c>
       <c r="S68">
-        <v>930.28571428571433</v>
+        <v>506.45428571428579</v>
       </c>
       <c r="T68">
-        <v>962.33333333333337</v>
+        <v>546.39666666666676</v>
       </c>
       <c r="U68">
-        <v>930.28571428571433</v>
+        <v>506.45428571428579</v>
       </c>
       <c r="V68">
-        <v>-224.3333333333334</v>
+        <v>-279.59666666666669</v>
       </c>
       <c r="W68">
-        <v>-0.2331139591271216</v>
+        <v>-0.51171005191588537</v>
       </c>
       <c r="X68">
-        <v>-7.2980278977762186E-2</v>
+        <v>-1.735735836376129</v>
       </c>
       <c r="Z68" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA68" t="s">
         <v>124</v>
       </c>
-      <c r="AA68" t="s">
-        <v>125</v>
-      </c>
       <c r="AB68" t="b">
         <v>0</v>
       </c>
       <c r="AC68" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AE68">
         <v>67</v>
@@ -6874,25 +6849,25 @@
         <v>98</v>
       </c>
       <c r="B69">
-        <v>5307.36</v>
+        <v>1250.69</v>
       </c>
       <c r="C69">
-        <v>5913.14</v>
+        <v>994.21</v>
       </c>
       <c r="D69">
-        <v>7305.66</v>
+        <v>637</v>
       </c>
       <c r="E69">
-        <v>8615.94</v>
+        <v>1188</v>
       </c>
       <c r="F69">
-        <v>7711.38</v>
+        <v>1725.35</v>
       </c>
       <c r="G69">
-        <v>7155.75</v>
+        <v>965.18</v>
       </c>
       <c r="H69">
-        <v>6769.75</v>
+        <v>798.13</v>
       </c>
       <c r="I69">
         <v>7</v>
@@ -6904,55 +6879,55 @@
         <v>0</v>
       </c>
       <c r="L69">
-        <v>6968.4257142857141</v>
+        <v>1079.7942857142859</v>
       </c>
       <c r="M69">
-        <v>0.01</v>
+        <v>0.56059999999999999</v>
       </c>
       <c r="N69">
         <v>0</v>
       </c>
       <c r="O69">
-        <v>-318.62779015487013</v>
+        <v>32.555259097389921</v>
       </c>
       <c r="P69" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Q69">
-        <v>6968.4257142857141</v>
+        <v>1079.7942857142859</v>
       </c>
       <c r="R69">
-        <v>990.57596689009495</v>
+        <v>266.66532641900648</v>
       </c>
       <c r="S69">
-        <v>6968.4257142857141</v>
+        <v>1079.7942857142859</v>
       </c>
       <c r="T69">
-        <v>7001.538333333333</v>
+        <v>1126.738333333333</v>
       </c>
       <c r="U69">
-        <v>6968.4257142857141</v>
+        <v>1079.7942857142859</v>
       </c>
       <c r="V69">
-        <v>-231.78833333333299</v>
+        <v>-328.60833333333352</v>
       </c>
       <c r="W69">
-        <v>-3.3105343754217767E-2</v>
+        <v>-0.29164564975896512</v>
       </c>
       <c r="X69">
-        <v>-1.0364189394252521E-2</v>
+        <v>-0.98927078706878546</v>
       </c>
       <c r="Z69" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA69" t="s">
         <v>124</v>
       </c>
-      <c r="AA69" t="s">
-        <v>125</v>
-      </c>
       <c r="AB69" t="b">
         <v>0</v>
       </c>
       <c r="AC69" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AE69">
         <v>68</v>
@@ -6963,25 +6938,25 @@
         <v>99</v>
       </c>
       <c r="B70">
-        <v>940.88</v>
+        <v>967.37</v>
       </c>
       <c r="C70">
-        <v>1270.3</v>
+        <v>823.31</v>
       </c>
       <c r="D70">
-        <v>266.8</v>
+        <v>479.59</v>
       </c>
       <c r="E70">
-        <v>266.8</v>
+        <v>340.69</v>
       </c>
       <c r="F70">
-        <v>266.8</v>
+        <v>1240.6099999999999</v>
       </c>
       <c r="G70">
-        <v>266.8</v>
+        <v>345.48</v>
       </c>
       <c r="H70">
-        <v>266.8</v>
+        <v>354.47</v>
       </c>
       <c r="I70">
         <v>7</v>
@@ -6993,55 +6968,55 @@
         <v>0</v>
       </c>
       <c r="L70">
-        <v>506.45428571428579</v>
+        <v>650.21714285714279</v>
       </c>
       <c r="M70">
-        <v>3.39E-2</v>
+        <v>0.66369999999999996</v>
       </c>
       <c r="N70">
         <v>0</v>
       </c>
       <c r="O70">
-        <v>-155.5738097806655</v>
+        <v>53.080394134513647</v>
       </c>
       <c r="P70" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Q70">
-        <v>506.45428571428579</v>
+        <v>650.21714285714279</v>
       </c>
       <c r="R70">
-        <v>71.993512498609604</v>
+        <v>160.57722191828029</v>
       </c>
       <c r="S70">
-        <v>506.45428571428579</v>
+        <v>650.21714285714279</v>
       </c>
       <c r="T70">
-        <v>546.39666666666676</v>
+        <v>699.50833333333321</v>
       </c>
       <c r="U70">
-        <v>506.45428571428579</v>
+        <v>650.21714285714279</v>
       </c>
       <c r="V70">
-        <v>-279.59666666666669</v>
+        <v>-345.03833333333318</v>
       </c>
       <c r="W70">
-        <v>-0.51171005191588537</v>
+        <v>-0.49325836003859841</v>
       </c>
       <c r="X70">
-        <v>-0.1601995113650902</v>
+        <v>-1.6731471443751329</v>
       </c>
       <c r="Z70" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA70" t="s">
         <v>124</v>
       </c>
-      <c r="AA70" t="s">
-        <v>125</v>
-      </c>
       <c r="AB70" t="b">
         <v>0</v>
       </c>
       <c r="AC70" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AE70">
         <v>69</v>
@@ -7052,25 +7027,25 @@
         <v>100</v>
       </c>
       <c r="B71">
-        <v>1250.69</v>
+        <v>3691.42</v>
       </c>
       <c r="C71">
-        <v>994.21</v>
+        <v>6285.33</v>
       </c>
       <c r="D71">
-        <v>637</v>
+        <v>6063.56</v>
       </c>
       <c r="E71">
-        <v>1188</v>
+        <v>8135.66</v>
       </c>
       <c r="F71">
-        <v>1725.35</v>
+        <v>7006.91</v>
       </c>
       <c r="G71">
-        <v>965.18</v>
+        <v>5925.37</v>
       </c>
       <c r="H71">
-        <v>798.13</v>
+        <v>5782.46</v>
       </c>
       <c r="I71">
         <v>7</v>
@@ -7082,55 +7057,58 @@
         <v>0</v>
       </c>
       <c r="L71">
-        <v>1079.7942857142859</v>
+        <v>6127.244285714286</v>
       </c>
       <c r="M71">
-        <v>0.57089999999999996</v>
+        <v>6.0299999999999999E-2</v>
       </c>
       <c r="N71">
         <v>0</v>
       </c>
       <c r="O71">
-        <v>9.4731270539062962</v>
+        <v>47.684091794763837</v>
       </c>
       <c r="P71" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Q71">
-        <v>1079.7942857142859</v>
+        <v>6127.244285714286</v>
       </c>
       <c r="R71">
-        <v>153.49496607548571</v>
+        <v>1513.180444753094</v>
       </c>
       <c r="S71">
-        <v>1079.7942857142859</v>
+        <v>6127.244285714286</v>
       </c>
       <c r="T71">
-        <v>1126.738333333333</v>
+        <v>6184.708333333333</v>
       </c>
       <c r="U71">
-        <v>1079.7942857142859</v>
+        <v>6127.244285714286</v>
       </c>
       <c r="V71">
-        <v>-328.60833333333352</v>
+        <v>-402.24833333333299</v>
       </c>
       <c r="W71">
-        <v>-0.29164564975896512</v>
+        <v>-6.5039175924491127E-2</v>
       </c>
       <c r="X71">
-        <v>-9.1304617543101346E-2</v>
+        <v>-0.22061483450996919</v>
       </c>
       <c r="Z71" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA71" t="s">
         <v>124</v>
       </c>
-      <c r="AA71" t="s">
-        <v>125</v>
-      </c>
       <c r="AB71" t="b">
         <v>0</v>
       </c>
       <c r="AC71" t="s">
-        <v>127</v>
+        <v>129</v>
+      </c>
+      <c r="AD71" t="s">
+        <v>130</v>
       </c>
       <c r="AE71">
         <v>70</v>
@@ -7141,25 +7119,25 @@
         <v>101</v>
       </c>
       <c r="B72">
-        <v>967.37</v>
+        <v>2067.65</v>
       </c>
       <c r="C72">
-        <v>823.31</v>
+        <v>1790.93</v>
       </c>
       <c r="D72">
-        <v>479.59</v>
+        <v>2135.02</v>
       </c>
       <c r="E72">
-        <v>340.69</v>
+        <v>1772.26</v>
       </c>
       <c r="F72">
-        <v>1240.6099999999999</v>
+        <v>4107.4799999999996</v>
       </c>
       <c r="G72">
-        <v>345.48</v>
+        <v>903.73</v>
       </c>
       <c r="H72">
-        <v>354.47</v>
+        <v>1608.41</v>
       </c>
       <c r="I72">
         <v>7</v>
@@ -7171,55 +7149,55 @@
         <v>0</v>
       </c>
       <c r="L72">
-        <v>650.21714285714279</v>
+        <v>2055.068571428571</v>
       </c>
       <c r="M72">
-        <v>0.83660000000000001</v>
+        <v>0.58979999999999999</v>
       </c>
       <c r="N72">
         <v>0</v>
       </c>
       <c r="O72">
-        <v>63.827427865307982</v>
+        <v>454.74705618779922</v>
       </c>
       <c r="P72" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Q72">
-        <v>650.21714285714279</v>
+        <v>2055.068571428571</v>
       </c>
       <c r="R72">
-        <v>92.429696660725682</v>
+        <v>507.51845852835601</v>
       </c>
       <c r="S72">
-        <v>650.21714285714279</v>
+        <v>2055.068571428571</v>
       </c>
       <c r="T72">
-        <v>699.50833333333321</v>
+        <v>2129.5116666666672</v>
       </c>
       <c r="U72">
-        <v>650.21714285714279</v>
+        <v>2055.068571428571</v>
       </c>
       <c r="V72">
-        <v>-345.03833333333318</v>
+        <v>-521.10166666666669</v>
       </c>
       <c r="W72">
-        <v>-0.49325836003859841</v>
+        <v>-0.24470477190780049</v>
       </c>
       <c r="X72">
-        <v>-0.15442289624577951</v>
+        <v>-0.830045922182578</v>
       </c>
       <c r="Z72" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA72" t="s">
         <v>124</v>
       </c>
-      <c r="AA72" t="s">
-        <v>125</v>
-      </c>
       <c r="AB72" t="b">
         <v>0</v>
       </c>
       <c r="AC72" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AE72">
         <v>71</v>
@@ -7230,25 +7208,25 @@
         <v>102</v>
       </c>
       <c r="B73">
-        <v>3691.42</v>
+        <v>2738.62</v>
       </c>
       <c r="C73">
-        <v>6285.33</v>
+        <v>2918.84</v>
       </c>
       <c r="D73">
-        <v>6063.56</v>
+        <v>2668.11</v>
       </c>
       <c r="E73">
-        <v>8135.66</v>
+        <v>2485.7199999999998</v>
       </c>
       <c r="F73">
-        <v>7006.91</v>
+        <v>3463.62</v>
       </c>
       <c r="G73">
-        <v>5925.37</v>
+        <v>2182.7399999999998</v>
       </c>
       <c r="H73">
-        <v>5782.46</v>
+        <v>2156.63</v>
       </c>
       <c r="I73">
         <v>7</v>
@@ -7260,58 +7238,55 @@
         <v>0</v>
       </c>
       <c r="L73">
-        <v>6127.244285714286</v>
+        <v>2659.1828571428568</v>
       </c>
       <c r="M73">
-        <v>5.0000000000000001E-4</v>
+        <v>0.80730000000000002</v>
       </c>
       <c r="N73">
         <v>0</v>
       </c>
       <c r="O73">
-        <v>-376.62426676830091</v>
+        <v>-20.693145823861411</v>
       </c>
       <c r="P73" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Q73">
-        <v>6127.244285714286</v>
+        <v>2659.1828571428568</v>
       </c>
       <c r="R73">
-        <v>871.0003064609524</v>
+        <v>656.71014746919855</v>
       </c>
       <c r="S73">
-        <v>6127.244285714286</v>
+        <v>2659.1828571428568</v>
       </c>
       <c r="T73">
-        <v>6184.708333333333</v>
+        <v>2742.9416666666671</v>
       </c>
       <c r="U73">
-        <v>6127.244285714286</v>
+        <v>2659.1828571428568</v>
       </c>
       <c r="V73">
-        <v>-402.24833333333299</v>
+        <v>-586.31166666666695</v>
       </c>
       <c r="W73">
-        <v>-6.5039175924491127E-2</v>
+        <v>-0.21375287480290331</v>
       </c>
       <c r="X73">
-        <v>-2.0361617216001701E-2</v>
+        <v>-0.72505615931267109</v>
       </c>
       <c r="Z73" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA73" t="s">
         <v>124</v>
       </c>
-      <c r="AA73" t="s">
-        <v>125</v>
-      </c>
       <c r="AB73" t="b">
         <v>0</v>
       </c>
       <c r="AC73" t="s">
-        <v>127</v>
-      </c>
-      <c r="AD73" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AE73">
         <v>72</v>
@@ -7322,28 +7297,28 @@
         <v>103</v>
       </c>
       <c r="B74">
-        <v>2067.65</v>
+        <v>0</v>
       </c>
       <c r="C74">
-        <v>1790.93</v>
+        <v>0</v>
       </c>
       <c r="D74">
-        <v>2135.02</v>
+        <v>0</v>
       </c>
       <c r="E74">
-        <v>1772.26</v>
+        <v>0</v>
       </c>
       <c r="F74">
-        <v>4107.4799999999996</v>
+        <v>1108</v>
       </c>
       <c r="G74">
-        <v>903.73</v>
+        <v>9972</v>
       </c>
       <c r="H74">
-        <v>1608.41</v>
+        <v>1108</v>
       </c>
       <c r="I74">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J74" t="b">
         <v>0</v>
@@ -7352,55 +7327,55 @@
         <v>0</v>
       </c>
       <c r="L74">
-        <v>2055.068571428571</v>
+        <v>1741.1428571428571</v>
       </c>
       <c r="M74">
-        <v>0.6774</v>
+        <v>1.9E-3</v>
       </c>
       <c r="N74">
         <v>0</v>
       </c>
       <c r="O74">
-        <v>440.28169645148341</v>
+        <v>-822.60187597640152</v>
       </c>
       <c r="P74" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Q74">
-        <v>2055.068571428571</v>
+        <v>1741.1428571428571</v>
       </c>
       <c r="R74">
-        <v>292.13220038996559</v>
+        <v>429.9915590264352</v>
       </c>
       <c r="S74">
-        <v>2055.068571428571</v>
+        <v>1741.1428571428571</v>
       </c>
       <c r="T74">
-        <v>2129.5116666666672</v>
+        <v>1846.666666666667</v>
       </c>
       <c r="U74">
-        <v>2055.068571428571</v>
+        <v>1741.1428571428571</v>
       </c>
       <c r="V74">
-        <v>-521.10166666666669</v>
+        <v>-738.66666666666674</v>
       </c>
       <c r="W74">
-        <v>-0.24470477190780049</v>
+        <v>-0.4</v>
       </c>
       <c r="X74">
-        <v>-7.6608979521823856E-2</v>
+        <v>-1.3568119913825329</v>
       </c>
       <c r="Z74" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA74" t="s">
         <v>124</v>
       </c>
-      <c r="AA74" t="s">
-        <v>125</v>
-      </c>
       <c r="AB74" t="b">
         <v>0</v>
       </c>
       <c r="AC74" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AE74">
         <v>73</v>
@@ -7411,28 +7386,28 @@
         <v>104</v>
       </c>
       <c r="B75">
-        <v>2738.62</v>
+        <v>578.99</v>
       </c>
       <c r="C75">
-        <v>2918.84</v>
+        <v>838.22</v>
       </c>
       <c r="D75">
-        <v>2668.11</v>
+        <v>838.22</v>
       </c>
       <c r="E75">
-        <v>2485.7199999999998</v>
+        <v>0</v>
       </c>
       <c r="F75">
-        <v>3463.62</v>
+        <v>2315.96</v>
       </c>
       <c r="G75">
-        <v>2182.7399999999998</v>
+        <v>0</v>
       </c>
       <c r="H75">
-        <v>2156.63</v>
+        <v>0</v>
       </c>
       <c r="I75">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J75" t="b">
         <v>0</v>
@@ -7441,55 +7416,55 @@
         <v>0</v>
       </c>
       <c r="L75">
-        <v>2659.1828571428568</v>
+        <v>653.05571428571432</v>
       </c>
       <c r="M75">
-        <v>0.82699999999999996</v>
+        <v>0.80269999999999997</v>
       </c>
       <c r="N75">
         <v>0</v>
       </c>
       <c r="O75">
-        <v>-54.732110644949437</v>
+        <v>225.9904146809495</v>
       </c>
       <c r="P75" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Q75">
-        <v>2659.1828571428568</v>
+        <v>653.05571428571432</v>
       </c>
       <c r="R75">
-        <v>378.00828161972549</v>
+        <v>161.27823375597771</v>
       </c>
       <c r="S75">
-        <v>2659.1828571428568</v>
+        <v>653.05571428571432</v>
       </c>
       <c r="T75">
-        <v>2742.9416666666671</v>
+        <v>761.89833333333343</v>
       </c>
       <c r="U75">
-        <v>2659.1828571428568</v>
+        <v>653.05571428571432</v>
       </c>
       <c r="V75">
-        <v>-586.31166666666695</v>
+        <v>-761.89833333333343</v>
       </c>
       <c r="W75">
-        <v>-0.21375287480290331</v>
+        <v>-1</v>
       </c>
       <c r="X75">
-        <v>-6.6918963127848174E-2</v>
+        <v>-3.3920299784563319</v>
       </c>
       <c r="Z75" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA75" t="s">
         <v>124</v>
       </c>
-      <c r="AA75" t="s">
-        <v>125</v>
-      </c>
       <c r="AB75" t="b">
         <v>0</v>
       </c>
       <c r="AC75" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AE75">
         <v>74</v>
@@ -7500,28 +7475,28 @@
         <v>105</v>
       </c>
       <c r="B76">
-        <v>0</v>
+        <v>6737.43</v>
       </c>
       <c r="C76">
-        <v>0</v>
+        <v>6796.31</v>
       </c>
       <c r="D76">
-        <v>0</v>
+        <v>5052.58</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>5086.4799999999996</v>
       </c>
       <c r="F76">
-        <v>1108</v>
+        <v>5730.34</v>
       </c>
       <c r="G76">
-        <v>9972</v>
+        <v>5150.3100000000004</v>
       </c>
       <c r="H76">
-        <v>1108</v>
+        <v>4985.3599999999997</v>
       </c>
       <c r="I76">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J76" t="b">
         <v>0</v>
@@ -7530,55 +7505,55 @@
         <v>0</v>
       </c>
       <c r="L76">
-        <v>1741.1428571428571</v>
+        <v>5648.4014285714284</v>
       </c>
       <c r="M76">
-        <v>4.5999999999999999E-3</v>
+        <v>0.16789999999999999</v>
       </c>
       <c r="N76">
         <v>0</v>
       </c>
       <c r="O76">
-        <v>-903.99673296792866</v>
+        <v>-273.3832886614673</v>
       </c>
       <c r="P76" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Q76">
-        <v>1741.1428571428571</v>
+        <v>5648.4014285714284</v>
       </c>
       <c r="R76">
-        <v>247.50701807328639</v>
+        <v>1394.925710038563</v>
       </c>
       <c r="S76">
-        <v>1741.1428571428571</v>
+        <v>5648.4014285714284</v>
       </c>
       <c r="T76">
-        <v>1846.666666666667</v>
+        <v>5758.9083333333328</v>
       </c>
       <c r="U76">
-        <v>1741.1428571428571</v>
+        <v>5648.4014285714284</v>
       </c>
       <c r="V76">
-        <v>-738.66666666666674</v>
+        <v>-773.54833333333318</v>
       </c>
       <c r="W76">
-        <v>-0.4</v>
+        <v>-0.13432204309555201</v>
       </c>
       <c r="X76">
-        <v>-0.12522678478977681</v>
+        <v>-0.45562439694761558</v>
       </c>
       <c r="Z76" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA76" t="s">
         <v>124</v>
       </c>
-      <c r="AA76" t="s">
-        <v>125</v>
-      </c>
       <c r="AB76" t="b">
         <v>0</v>
       </c>
       <c r="AC76" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AE76">
         <v>75</v>
@@ -7589,28 +7564,28 @@
         <v>106</v>
       </c>
       <c r="B77">
-        <v>578.99</v>
+        <v>0</v>
       </c>
       <c r="C77">
-        <v>838.22</v>
+        <v>0</v>
       </c>
       <c r="D77">
-        <v>838.22</v>
+        <v>0</v>
       </c>
       <c r="E77">
         <v>0</v>
       </c>
       <c r="F77">
-        <v>2315.96</v>
+        <v>1372.56</v>
       </c>
       <c r="G77">
-        <v>0</v>
+        <v>9972</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1108</v>
       </c>
       <c r="I77">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J77" t="b">
         <v>0</v>
@@ -7619,55 +7594,58 @@
         <v>0</v>
       </c>
       <c r="L77">
-        <v>653.05571428571432</v>
+        <v>1778.937142857143</v>
       </c>
       <c r="M77">
-        <v>0.8821</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="N77">
         <v>0</v>
       </c>
       <c r="O77">
-        <v>193.05222174024991</v>
+        <v>-761.06871423527832</v>
       </c>
       <c r="P77" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Q77">
-        <v>653.05571428571432</v>
+        <v>1778.937142857143</v>
       </c>
       <c r="R77">
-        <v>92.833205394653831</v>
+        <v>439.32521236217798</v>
       </c>
       <c r="S77">
-        <v>653.05571428571432</v>
+        <v>1778.937142857143</v>
       </c>
       <c r="T77">
-        <v>761.89833333333343</v>
+        <v>1890.76</v>
       </c>
       <c r="U77">
-        <v>653.05571428571432</v>
+        <v>1778.937142857143</v>
       </c>
       <c r="V77">
-        <v>-761.89833333333343</v>
+        <v>-782.76</v>
       </c>
       <c r="W77">
-        <v>-1</v>
+        <v>-0.41399225708180842</v>
       </c>
       <c r="X77">
-        <v>-0.31306696197444189</v>
+        <v>-1.4042741468702951</v>
+      </c>
+      <c r="Y77">
+        <v>2</v>
       </c>
       <c r="Z77" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA77" t="s">
         <v>124</v>
       </c>
-      <c r="AA77" t="s">
-        <v>125</v>
-      </c>
       <c r="AB77" t="b">
         <v>0</v>
       </c>
       <c r="AC77" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AE77">
         <v>76</v>
@@ -7678,28 +7656,28 @@
         <v>107</v>
       </c>
       <c r="B78">
-        <v>6737.43</v>
+        <v>7067.81</v>
       </c>
       <c r="C78">
-        <v>6796.31</v>
+        <v>0</v>
       </c>
       <c r="D78">
-        <v>5052.58</v>
+        <v>0</v>
       </c>
       <c r="E78">
-        <v>5086.4799999999996</v>
+        <v>200</v>
       </c>
       <c r="F78">
-        <v>5730.34</v>
+        <v>0</v>
       </c>
       <c r="G78">
-        <v>5150.3100000000004</v>
+        <v>0</v>
       </c>
       <c r="H78">
-        <v>4985.3599999999997</v>
+        <v>20</v>
       </c>
       <c r="I78">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J78" t="b">
         <v>0</v>
@@ -7708,55 +7686,58 @@
         <v>0</v>
       </c>
       <c r="L78">
-        <v>5648.4014285714284</v>
+        <v>1041.1157142857139</v>
       </c>
       <c r="M78">
-        <v>0.219</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="N78">
         <v>0</v>
       </c>
       <c r="O78">
-        <v>-254.45666481335769</v>
+        <v>-1477.0053926849</v>
       </c>
       <c r="P78" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Q78">
-        <v>5648.4014285714284</v>
+        <v>1041.1157142857139</v>
       </c>
       <c r="R78">
-        <v>802.93181500379376</v>
+        <v>257.11329043226488</v>
       </c>
       <c r="S78">
-        <v>5648.4014285714284</v>
+        <v>1041.1157142857139</v>
       </c>
       <c r="T78">
-        <v>5758.9083333333328</v>
+        <v>1211.301666666667</v>
       </c>
       <c r="U78">
-        <v>5648.4014285714284</v>
+        <v>1041.1157142857139</v>
       </c>
       <c r="V78">
-        <v>-773.54833333333318</v>
+        <v>-1191.301666666667</v>
       </c>
       <c r="W78">
-        <v>-0.13432204309555201</v>
+        <v>-0.98348883638950391</v>
       </c>
       <c r="X78">
-        <v>-4.2051793958124507E-2</v>
+        <v>-3.3360236165103321</v>
+      </c>
+      <c r="Y78">
+        <v>1</v>
       </c>
       <c r="Z78" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA78" t="s">
         <v>124</v>
       </c>
-      <c r="AA78" t="s">
-        <v>125</v>
-      </c>
       <c r="AB78" t="b">
         <v>0</v>
       </c>
       <c r="AC78" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AE78">
         <v>77</v>
@@ -7767,28 +7748,28 @@
         <v>108</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>5998.14</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>2512.91</v>
       </c>
       <c r="D79">
-        <v>0</v>
+        <v>4456.1000000000004</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>2741.61</v>
       </c>
       <c r="F79">
-        <v>1372.56</v>
+        <v>2249.08</v>
       </c>
       <c r="G79">
-        <v>9972</v>
+        <v>1783.93</v>
       </c>
       <c r="H79">
-        <v>1108</v>
+        <v>2033</v>
       </c>
       <c r="I79">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J79" t="b">
         <v>0</v>
@@ -7797,58 +7778,55 @@
         <v>0</v>
       </c>
       <c r="L79">
-        <v>1778.937142857143</v>
+        <v>3110.681428571429</v>
       </c>
       <c r="M79">
-        <v>2E-3</v>
+        <v>3.6299999999999999E-2</v>
       </c>
       <c r="N79">
         <v>0</v>
       </c>
       <c r="O79">
-        <v>-849.02508687041859</v>
+        <v>-1425.9402149234959</v>
       </c>
       <c r="P79" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Q79">
-        <v>1778.937142857143</v>
+        <v>3110.681428571429</v>
       </c>
       <c r="R79">
-        <v>252.87955308325269</v>
+        <v>768.21195436019445</v>
       </c>
       <c r="S79">
-        <v>1778.937142857143</v>
+        <v>3110.681428571429</v>
       </c>
       <c r="T79">
-        <v>1890.76</v>
+        <v>3290.2950000000001</v>
       </c>
       <c r="U79">
-        <v>1778.937142857143</v>
+        <v>3110.681428571429</v>
       </c>
       <c r="V79">
-        <v>-782.76</v>
+        <v>-1257.2950000000001</v>
       </c>
       <c r="W79">
-        <v>-0.41399225708180842</v>
+        <v>-0.38212227171119922</v>
       </c>
       <c r="X79">
-        <v>-0.1296072982055439</v>
-      </c>
-      <c r="Y79">
-        <v>2</v>
+        <v>-1.2961702010802241</v>
       </c>
       <c r="Z79" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA79" t="s">
         <v>124</v>
       </c>
-      <c r="AA79" t="s">
-        <v>125</v>
-      </c>
       <c r="AB79" t="b">
         <v>0</v>
       </c>
       <c r="AC79" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AE79">
         <v>78</v>
@@ -7859,28 +7837,28 @@
         <v>109</v>
       </c>
       <c r="B80">
-        <v>7067.81</v>
+        <v>6653.87</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>7328.86</v>
       </c>
       <c r="D80">
-        <v>0</v>
+        <v>6653.86</v>
       </c>
       <c r="E80">
-        <v>200</v>
+        <v>7240.44</v>
       </c>
       <c r="F80">
-        <v>0</v>
+        <v>8192.34</v>
       </c>
       <c r="G80">
-        <v>0</v>
+        <v>5461.56</v>
       </c>
       <c r="H80">
-        <v>20</v>
+        <v>5461.56</v>
       </c>
       <c r="I80">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J80" t="b">
         <v>0</v>
@@ -7889,58 +7867,55 @@
         <v>0</v>
       </c>
       <c r="L80">
-        <v>1041.1157142857139</v>
+        <v>6713.2128571428557</v>
       </c>
       <c r="M80">
-        <v>8.0000000000000002E-3</v>
+        <v>0.61570000000000003</v>
       </c>
       <c r="N80">
         <v>0</v>
       </c>
       <c r="O80">
-        <v>-762.69626341305548</v>
+        <v>-323.60724177609342</v>
       </c>
       <c r="P80" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Q80">
-        <v>1041.1157142857139</v>
+        <v>6713.2128571428557</v>
       </c>
       <c r="R80">
-        <v>147.99672804272049</v>
+        <v>1657.8908793595469</v>
       </c>
       <c r="S80">
-        <v>1041.1157142857139</v>
+        <v>6713.2128571428557</v>
       </c>
       <c r="T80">
-        <v>1211.301666666667</v>
+        <v>6921.8216666666658</v>
       </c>
       <c r="U80">
-        <v>1041.1157142857139</v>
+        <v>6713.2128571428557</v>
       </c>
       <c r="V80">
-        <v>-1191.301666666667</v>
+        <v>-1460.261666666665</v>
       </c>
       <c r="W80">
-        <v>-0.98348883638950391</v>
+        <v>-0.2109649362535343</v>
       </c>
       <c r="X80">
-        <v>-0.30789786214424097</v>
-      </c>
-      <c r="Y80">
-        <v>1</v>
+        <v>-0.71559938817511726</v>
       </c>
       <c r="Z80" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA80" t="s">
         <v>124</v>
       </c>
-      <c r="AA80" t="s">
-        <v>125</v>
-      </c>
       <c r="AB80" t="b">
         <v>0</v>
       </c>
       <c r="AC80" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AE80">
         <v>79</v>
@@ -7951,25 +7926,25 @@
         <v>110</v>
       </c>
       <c r="B81">
-        <v>5998.14</v>
+        <v>10269.19</v>
       </c>
       <c r="C81">
-        <v>2512.91</v>
+        <v>9139.11</v>
       </c>
       <c r="D81">
-        <v>4456.1000000000004</v>
+        <v>10928.95</v>
       </c>
       <c r="E81">
-        <v>2741.61</v>
+        <v>11077.27</v>
       </c>
       <c r="F81">
-        <v>2249.08</v>
+        <v>9255.99</v>
       </c>
       <c r="G81">
-        <v>1783.93</v>
+        <v>7709.3</v>
       </c>
       <c r="H81">
-        <v>2033</v>
+        <v>7815.46</v>
       </c>
       <c r="I81">
         <v>7</v>
@@ -7981,55 +7956,58 @@
         <v>0</v>
       </c>
       <c r="L81">
-        <v>3110.681428571429</v>
+        <v>9456.4671428571437</v>
       </c>
       <c r="M81">
-        <v>1.1999999999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="N81">
         <v>0</v>
       </c>
       <c r="O81">
-        <v>-1020.6553041252851</v>
+        <v>-1639.14432411693</v>
       </c>
       <c r="P81" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Q81">
-        <v>3110.681428571429</v>
+        <v>9456.4671428571437</v>
       </c>
       <c r="R81">
-        <v>442.18972693892812</v>
+        <v>2335.363254633723</v>
       </c>
       <c r="S81">
-        <v>3110.681428571429</v>
+        <v>9456.4671428571437</v>
       </c>
       <c r="T81">
-        <v>3290.2950000000001</v>
+        <v>9729.9683333333342</v>
       </c>
       <c r="U81">
-        <v>3110.681428571429</v>
+        <v>9456.4671428571437</v>
       </c>
       <c r="V81">
-        <v>-1257.2950000000001</v>
+        <v>-1914.5083333333339</v>
       </c>
       <c r="W81">
-        <v>-0.38212227171119922</v>
+        <v>-0.19676408676218721</v>
       </c>
       <c r="X81">
-        <v>-0.1196298587073974</v>
+        <v>-0.6674296809809217</v>
       </c>
       <c r="Z81" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA81" t="s">
         <v>124</v>
       </c>
-      <c r="AA81" t="s">
-        <v>125</v>
-      </c>
       <c r="AB81" t="b">
         <v>0</v>
       </c>
       <c r="AC81" t="s">
-        <v>127</v>
+        <v>129</v>
+      </c>
+      <c r="AD81" t="s">
+        <v>130</v>
       </c>
       <c r="AE81">
         <v>80</v>
@@ -8040,25 +8018,25 @@
         <v>111</v>
       </c>
       <c r="B82">
-        <v>6653.87</v>
+        <v>6112.59</v>
       </c>
       <c r="C82">
-        <v>7328.86</v>
+        <v>6105.5</v>
       </c>
       <c r="D82">
-        <v>6653.86</v>
+        <v>6316.22</v>
       </c>
       <c r="E82">
-        <v>7240.44</v>
+        <v>3097.33</v>
       </c>
       <c r="F82">
-        <v>8192.34</v>
+        <v>4401.6499999999996</v>
       </c>
       <c r="G82">
-        <v>5461.56</v>
+        <v>2746.19</v>
       </c>
       <c r="H82">
-        <v>5461.56</v>
+        <v>2854.87</v>
       </c>
       <c r="I82">
         <v>7</v>
@@ -8070,55 +8048,58 @@
         <v>0</v>
       </c>
       <c r="L82">
-        <v>6713.2128571428557</v>
+        <v>4519.1928571428571</v>
       </c>
       <c r="M82">
-        <v>0.50170000000000003</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="N82">
         <v>0</v>
       </c>
       <c r="O82">
-        <v>-482.4299688002402</v>
+        <v>-1145.1508146905981</v>
       </c>
       <c r="P82" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Q82">
-        <v>6713.2128571428557</v>
+        <v>4519.1928571428571</v>
       </c>
       <c r="R82">
-        <v>954.29693729395558</v>
+        <v>1116.057062297991</v>
       </c>
       <c r="S82">
-        <v>6713.2128571428557</v>
+        <v>4519.1928571428571</v>
       </c>
       <c r="T82">
-        <v>6921.8216666666658</v>
+        <v>4796.58</v>
       </c>
       <c r="U82">
-        <v>6713.2128571428557</v>
+        <v>4519.1928571428571</v>
       </c>
       <c r="V82">
-        <v>-1460.261666666665</v>
+        <v>-1941.71</v>
       </c>
       <c r="W82">
-        <v>-0.2109649362535343</v>
+        <v>-0.40481134474980091</v>
       </c>
       <c r="X82">
-        <v>-6.6046151676025774E-2</v>
+        <v>-1.373132217010546</v>
+      </c>
+      <c r="Y82">
+        <v>3</v>
       </c>
       <c r="Z82" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA82" t="s">
         <v>124</v>
       </c>
-      <c r="AA82" t="s">
-        <v>125</v>
-      </c>
       <c r="AB82" t="b">
         <v>0</v>
       </c>
       <c r="AC82" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AE82">
         <v>81</v>
@@ -8129,25 +8110,25 @@
         <v>112</v>
       </c>
       <c r="B83">
-        <v>10269.19</v>
+        <v>15541.84</v>
       </c>
       <c r="C83">
-        <v>9139.11</v>
+        <v>9262.11</v>
       </c>
       <c r="D83">
-        <v>10928.95</v>
+        <v>15982.64</v>
       </c>
       <c r="E83">
-        <v>11077.27</v>
+        <v>3252.65</v>
       </c>
       <c r="F83">
-        <v>9255.99</v>
+        <v>13635.22</v>
       </c>
       <c r="G83">
-        <v>7709.3</v>
+        <v>8041.35</v>
       </c>
       <c r="H83">
-        <v>7815.46</v>
+        <v>8874.26</v>
       </c>
       <c r="I83">
         <v>7</v>
@@ -8159,58 +8140,55 @@
         <v>0</v>
       </c>
       <c r="L83">
-        <v>9456.4671428571437</v>
+        <v>10655.724285714279</v>
       </c>
       <c r="M83">
-        <v>1E-4</v>
+        <v>7.1900000000000006E-2</v>
       </c>
       <c r="N83">
         <v>0</v>
       </c>
       <c r="O83">
-        <v>-1623.2025292988119</v>
+        <v>-315.17256771573921</v>
       </c>
       <c r="P83" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Q83">
-        <v>9456.4671428571437</v>
+        <v>10655.724285714279</v>
       </c>
       <c r="R83">
-        <v>1344.2561444253431</v>
+        <v>2631.531054085242</v>
       </c>
       <c r="S83">
-        <v>9456.4671428571437</v>
+        <v>10655.724285714279</v>
       </c>
       <c r="T83">
-        <v>9729.9683333333342</v>
+        <v>10952.635</v>
       </c>
       <c r="U83">
-        <v>9456.4671428571437</v>
+        <v>10655.724285714279</v>
       </c>
       <c r="V83">
-        <v>-1914.5083333333339</v>
+        <v>-2078.375</v>
       </c>
       <c r="W83">
-        <v>-0.19676408676218721</v>
+        <v>-0.1897602722997708</v>
       </c>
       <c r="X83">
-        <v>-6.1600334868313462E-2</v>
+        <v>-0.6436725323608592</v>
       </c>
       <c r="Z83" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA83" t="s">
         <v>124</v>
       </c>
-      <c r="AA83" t="s">
-        <v>125</v>
-      </c>
       <c r="AB83" t="b">
         <v>0</v>
       </c>
       <c r="AC83" t="s">
-        <v>127</v>
-      </c>
-      <c r="AD83" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AE83">
         <v>82</v>
@@ -8221,25 +8199,25 @@
         <v>113</v>
       </c>
       <c r="B84">
-        <v>6112.59</v>
+        <v>11298.13</v>
       </c>
       <c r="C84">
-        <v>6105.5</v>
+        <v>11966.02</v>
       </c>
       <c r="D84">
-        <v>6316.22</v>
+        <v>11697.69</v>
       </c>
       <c r="E84">
-        <v>3097.33</v>
+        <v>12230.22</v>
       </c>
       <c r="F84">
-        <v>4401.6499999999996</v>
+        <v>17488.21</v>
       </c>
       <c r="G84">
-        <v>2746.19</v>
+        <v>10124.11</v>
       </c>
       <c r="H84">
-        <v>2854.87</v>
+        <v>9406.56</v>
       </c>
       <c r="I84">
         <v>7</v>
@@ -8251,58 +8229,55 @@
         <v>0</v>
       </c>
       <c r="L84">
-        <v>4519.1928571428571</v>
+        <v>12030.13428571429</v>
       </c>
       <c r="M84">
-        <v>0.1414</v>
+        <v>0.80120000000000002</v>
       </c>
       <c r="N84">
         <v>0</v>
       </c>
       <c r="O84">
-        <v>-991.67555794345935</v>
+        <v>147.28882394517501</v>
       </c>
       <c r="P84" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Q84">
-        <v>4519.1928571428571</v>
+        <v>12030.13428571429</v>
       </c>
       <c r="R84">
-        <v>642.41250715348451</v>
+        <v>2970.9544943946171</v>
       </c>
       <c r="S84">
-        <v>4519.1928571428571</v>
+        <v>12030.13428571429</v>
       </c>
       <c r="T84">
-        <v>4796.58</v>
+        <v>12467.396666666669</v>
       </c>
       <c r="U84">
-        <v>4519.1928571428571</v>
+        <v>12030.13428571429</v>
       </c>
       <c r="V84">
-        <v>-1941.71</v>
+        <v>-3060.836666666668</v>
       </c>
       <c r="W84">
-        <v>-0.40481134474980091</v>
+        <v>-0.24550728179285769</v>
       </c>
       <c r="X84">
-        <v>-0.12673305787360861</v>
-      </c>
-      <c r="Y84">
-        <v>3</v>
+        <v>-0.83276805977069956</v>
       </c>
       <c r="Z84" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA84" t="s">
         <v>124</v>
       </c>
-      <c r="AA84" t="s">
-        <v>125</v>
-      </c>
       <c r="AB84" t="b">
         <v>0</v>
       </c>
       <c r="AC84" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AE84">
         <v>83</v>
@@ -8325,13 +8300,13 @@
         <v>3252.65</v>
       </c>
       <c r="F85">
-        <v>13635.22</v>
+        <v>12029.6</v>
       </c>
       <c r="G85">
         <v>8041.35</v>
       </c>
       <c r="H85">
-        <v>8874.26</v>
+        <v>6679.29</v>
       </c>
       <c r="I85">
         <v>7</v>
@@ -8343,55 +8318,55 @@
         <v>0</v>
       </c>
       <c r="L85">
-        <v>10655.724285714279</v>
+        <v>10112.78285714286</v>
       </c>
       <c r="M85">
-        <v>0.27010000000000001</v>
+        <v>6.1699999999999998E-2</v>
       </c>
       <c r="N85">
         <v>0</v>
       </c>
       <c r="O85">
-        <v>827.64919078685307</v>
+        <v>-2056.9881657366982</v>
       </c>
       <c r="P85" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Q85">
-        <v>10655.724285714279</v>
+        <v>10112.78285714286</v>
       </c>
       <c r="R85">
-        <v>1514.7329999653509</v>
+        <v>2497.4465759657569</v>
       </c>
       <c r="S85">
-        <v>10655.724285714279</v>
+        <v>10112.78285714286</v>
       </c>
       <c r="T85">
-        <v>10952.635</v>
+        <v>10685.031666666669</v>
       </c>
       <c r="U85">
-        <v>10655.724285714279</v>
+        <v>10112.78285714286</v>
       </c>
       <c r="V85">
-        <v>-2078.375</v>
+        <v>-4005.7416666666659</v>
       </c>
       <c r="W85">
-        <v>-0.1897602722997708</v>
+        <v>-0.37489282125041268</v>
       </c>
       <c r="X85">
-        <v>-5.9407671952332083E-2</v>
+        <v>-1.271647688389471</v>
       </c>
       <c r="Z85" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA85" t="s">
         <v>124</v>
       </c>
-      <c r="AA85" t="s">
-        <v>125</v>
-      </c>
       <c r="AB85" t="b">
         <v>0</v>
       </c>
       <c r="AC85" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AE85">
         <v>84</v>
@@ -8402,25 +8377,25 @@
         <v>115</v>
       </c>
       <c r="B86">
-        <v>11298.13</v>
+        <v>34271.339999999997</v>
       </c>
       <c r="C86">
-        <v>11966.02</v>
+        <v>36800.629999999997</v>
       </c>
       <c r="D86">
-        <v>11697.69</v>
+        <v>34840.75</v>
       </c>
       <c r="E86">
-        <v>12230.22</v>
+        <v>32894</v>
       </c>
       <c r="F86">
-        <v>17488.21</v>
+        <v>45882.2</v>
       </c>
       <c r="G86">
-        <v>10124.11</v>
+        <v>29065.22</v>
       </c>
       <c r="H86">
-        <v>9406.56</v>
+        <v>28972.19</v>
       </c>
       <c r="I86">
         <v>7</v>
@@ -8432,236 +8407,58 @@
         <v>0</v>
       </c>
       <c r="L86">
-        <v>12030.13428571429</v>
+        <v>34675.19</v>
       </c>
       <c r="M86">
-        <v>0.75090000000000001</v>
+        <v>0.83379999999999999</v>
       </c>
       <c r="N86">
         <v>0</v>
       </c>
       <c r="O86">
-        <v>-160.56744298413099</v>
+        <v>500.63840187897591</v>
       </c>
       <c r="P86" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Q86">
-        <v>12030.13428571429</v>
+        <v>34675.19</v>
       </c>
       <c r="R86">
-        <v>1710.108192365313</v>
+        <v>8563.3633946065784</v>
       </c>
       <c r="S86">
-        <v>12030.13428571429</v>
+        <v>34675.19</v>
       </c>
       <c r="T86">
-        <v>12467.396666666669</v>
+        <v>35625.69</v>
       </c>
       <c r="U86">
-        <v>12030.13428571429</v>
+        <v>34675.19</v>
       </c>
       <c r="V86">
-        <v>-3060.836666666668</v>
+        <v>-6653.4999999999964</v>
       </c>
       <c r="W86">
-        <v>-0.24550728179285769</v>
+        <v>-0.18676129500930361</v>
       </c>
       <c r="X86">
-        <v>-7.6860218853493173E-2</v>
+        <v>-0.63349991148688478</v>
       </c>
       <c r="Z86" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA86" t="s">
         <v>124</v>
       </c>
-      <c r="AA86" t="s">
-        <v>125</v>
-      </c>
       <c r="AB86" t="b">
         <v>0</v>
       </c>
       <c r="AC86" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AE86">
         <v>85</v>
-      </c>
-    </row>
-    <row r="87" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>116</v>
-      </c>
-      <c r="B87">
-        <v>15541.84</v>
-      </c>
-      <c r="C87">
-        <v>9262.11</v>
-      </c>
-      <c r="D87">
-        <v>15982.64</v>
-      </c>
-      <c r="E87">
-        <v>3252.65</v>
-      </c>
-      <c r="F87">
-        <v>12029.6</v>
-      </c>
-      <c r="G87">
-        <v>8041.35</v>
-      </c>
-      <c r="H87">
-        <v>6679.29</v>
-      </c>
-      <c r="I87">
-        <v>7</v>
-      </c>
-      <c r="J87" t="b">
-        <v>0</v>
-      </c>
-      <c r="K87">
-        <v>0</v>
-      </c>
-      <c r="L87">
-        <v>10112.78285714286</v>
-      </c>
-      <c r="M87">
-        <v>0.23719999999999999</v>
-      </c>
-      <c r="N87">
-        <v>0</v>
-      </c>
-      <c r="O87">
-        <v>-954.86686612684662</v>
-      </c>
-      <c r="P87" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q87">
-        <v>10112.78285714286</v>
-      </c>
-      <c r="R87">
-        <v>1437.552765487246</v>
-      </c>
-      <c r="S87">
-        <v>10112.78285714286</v>
-      </c>
-      <c r="T87">
-        <v>10685.031666666669</v>
-      </c>
-      <c r="U87">
-        <v>10112.78285714286</v>
-      </c>
-      <c r="V87">
-        <v>-4005.7416666666659</v>
-      </c>
-      <c r="W87">
-        <v>-0.37489282125041268</v>
-      </c>
-      <c r="X87">
-        <v>-0.1173665566148942</v>
-      </c>
-      <c r="Z87" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA87" t="s">
-        <v>125</v>
-      </c>
-      <c r="AB87" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC87" t="s">
-        <v>127</v>
-      </c>
-      <c r="AE87">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="88" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>117</v>
-      </c>
-      <c r="B88">
-        <v>34271.339999999997</v>
-      </c>
-      <c r="C88">
-        <v>36800.629999999997</v>
-      </c>
-      <c r="D88">
-        <v>34840.75</v>
-      </c>
-      <c r="E88">
-        <v>32894</v>
-      </c>
-      <c r="F88">
-        <v>45882.2</v>
-      </c>
-      <c r="G88">
-        <v>29065.22</v>
-      </c>
-      <c r="H88">
-        <v>28972.19</v>
-      </c>
-      <c r="I88">
-        <v>7</v>
-      </c>
-      <c r="J88" t="b">
-        <v>0</v>
-      </c>
-      <c r="K88">
-        <v>0</v>
-      </c>
-      <c r="L88">
-        <v>34675.19</v>
-      </c>
-      <c r="M88">
-        <v>0.83089999999999997</v>
-      </c>
-      <c r="N88">
-        <v>0</v>
-      </c>
-      <c r="O88">
-        <v>-16.9888871075309</v>
-      </c>
-      <c r="P88" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q88">
-        <v>34675.19</v>
-      </c>
-      <c r="R88">
-        <v>4929.1491751044041</v>
-      </c>
-      <c r="S88">
-        <v>34675.19</v>
-      </c>
-      <c r="T88">
-        <v>35625.69</v>
-      </c>
-      <c r="U88">
-        <v>34675.19</v>
-      </c>
-      <c r="V88">
-        <v>-6653.4999999999964</v>
-      </c>
-      <c r="W88">
-        <v>-0.18676129500930361</v>
-      </c>
-      <c r="X88">
-        <v>-5.8468791242975188E-2</v>
-      </c>
-      <c r="Z88" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA88" t="s">
-        <v>125</v>
-      </c>
-      <c r="AB88" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC88" t="s">
-        <v>127</v>
-      </c>
-      <c r="AE88">
-        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/public/expense-analysis.xlsx
+++ b/public/expense-analysis.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kotzbauer/expense_management_analytics-RMT-v2/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{421B1B56-588C-1D4D-A00C-592804088268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F2F5AF-02DE-1943-A508-BBA78B5194F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6360" yWindow="760" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2560" yWindow="6340" windowWidth="26440" windowHeight="13560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AZ$86</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
@@ -553,12 +556,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -588,11 +597,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -897,11 +907,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AZ86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AE93" sqref="AE93"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="37.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="31.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="30.1640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="29" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="21" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="35" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="19" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="14" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="14" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="25" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="34.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -1061,7 +1125,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>52</v>
       </c>
@@ -1216,7 +1280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>53</v>
       </c>
@@ -1371,7 +1435,7 @@
         <v>16.666666666666661</v>
       </c>
     </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>54</v>
       </c>
@@ -1526,7 +1590,7 @@
         <v>33.333333333333329</v>
       </c>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>55</v>
       </c>
@@ -1678,7 +1742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>56</v>
       </c>
@@ -1830,159 +1894,159 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="7" spans="1:52" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7" t="b">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" t="s">
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2">
+        <v>0</v>
+      </c>
+      <c r="P7" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
-      <c r="Y7" t="s">
+      <c r="Q7" s="2">
+        <v>0</v>
+      </c>
+      <c r="R7" s="2">
+        <v>0</v>
+      </c>
+      <c r="S7" s="2">
+        <v>0</v>
+      </c>
+      <c r="T7" s="2">
+        <v>0</v>
+      </c>
+      <c r="U7" s="2">
+        <v>0</v>
+      </c>
+      <c r="V7" s="2">
+        <v>0</v>
+      </c>
+      <c r="W7" s="2">
+        <v>0</v>
+      </c>
+      <c r="X7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="AA7" t="s">
-        <v>147</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>147</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>147</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>147</v>
-      </c>
-      <c r="AE7" t="s">
+      <c r="AA7" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="AB7" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="AC7" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="AD7" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="AE7" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="AF7">
-        <v>0</v>
-      </c>
-      <c r="AG7">
+      <c r="AF7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="2">
         <v>1961.3796428571441</v>
       </c>
-      <c r="AH7" t="s">
+      <c r="AH7" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="AI7" t="s">
-        <v>147</v>
-      </c>
-      <c r="AJ7">
+      <c r="AI7" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="AJ7" s="2">
         <v>29</v>
       </c>
-      <c r="AK7">
-        <v>0</v>
-      </c>
-      <c r="AL7">
-        <v>0</v>
-      </c>
-      <c r="AM7">
-        <v>0</v>
-      </c>
-      <c r="AO7">
-        <v>0</v>
-      </c>
-      <c r="AP7">
+      <c r="AK7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP7" s="2">
         <v>67</v>
       </c>
-      <c r="AQ7">
-        <v>0</v>
-      </c>
-      <c r="AR7">
-        <v>0</v>
-      </c>
-      <c r="AS7">
-        <v>0</v>
-      </c>
-      <c r="AT7">
-        <v>0</v>
-      </c>
-      <c r="AU7">
-        <v>0</v>
-      </c>
-      <c r="AV7">
-        <v>0</v>
-      </c>
-      <c r="AW7">
-        <v>0</v>
-      </c>
-      <c r="AX7">
-        <v>0</v>
-      </c>
-      <c r="AY7">
-        <v>0</v>
-      </c>
-      <c r="AZ7">
+      <c r="AQ7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ7" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>58</v>
       </c>
@@ -2137,7 +2201,7 @@
         <v>83.333333333333343</v>
       </c>
     </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>59</v>
       </c>
@@ -2295,7 +2359,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>60</v>
       </c>
@@ -2450,7 +2514,7 @@
         <v>66.666666666666657</v>
       </c>
     </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>61</v>
       </c>
@@ -2605,7 +2669,7 @@
         <v>66.666666666666657</v>
       </c>
     </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>62</v>
       </c>
@@ -2760,7 +2824,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>63</v>
       </c>
@@ -2915,7 +2979,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>64</v>
       </c>
@@ -3070,7 +3134,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>65</v>
       </c>
@@ -3222,7 +3286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>66</v>
       </c>
@@ -3377,8 +3441,8 @@
         <v>66.666666666666657</v>
       </c>
     </row>
-    <row r="17" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="17" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B17">
@@ -3532,7 +3596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>68</v>
       </c>
@@ -3684,7 +3748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>69</v>
       </c>
@@ -3839,7 +3903,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>70</v>
       </c>
@@ -3994,7 +4058,7 @@
         <v>33.333333333333329</v>
       </c>
     </row>
-    <row r="21" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>71</v>
       </c>
@@ -4149,7 +4213,7 @@
         <v>33.333333333333329</v>
       </c>
     </row>
-    <row r="22" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>72</v>
       </c>
@@ -4304,7 +4368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>73</v>
       </c>
@@ -4459,7 +4523,7 @@
         <v>33.333333333333329</v>
       </c>
     </row>
-    <row r="24" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>74</v>
       </c>
@@ -4614,7 +4678,7 @@
         <v>16.666666666666661</v>
       </c>
     </row>
-    <row r="25" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>75</v>
       </c>
@@ -4769,8 +4833,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+    <row r="26" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B26">
@@ -4924,7 +4988,7 @@
         <v>16.666666666666661</v>
       </c>
     </row>
-    <row r="27" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>77</v>
       </c>
@@ -5079,7 +5143,7 @@
         <v>66.666666666666657</v>
       </c>
     </row>
-    <row r="28" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>78</v>
       </c>
@@ -5234,7 +5298,7 @@
         <v>33.333333333333329</v>
       </c>
     </row>
-    <row r="29" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>79</v>
       </c>
@@ -5389,7 +5453,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>80</v>
       </c>
@@ -5544,7 +5608,7 @@
         <v>66.666666666666657</v>
       </c>
     </row>
-    <row r="31" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>81</v>
       </c>
@@ -5699,7 +5763,7 @@
         <v>83.333333333333343</v>
       </c>
     </row>
-    <row r="32" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>82</v>
       </c>
@@ -5854,7 +5918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>83</v>
       </c>
@@ -6009,7 +6073,7 @@
         <v>16.666666666666661</v>
       </c>
     </row>
-    <row r="34" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>84</v>
       </c>
@@ -6164,7 +6228,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>85</v>
       </c>
@@ -6316,7 +6380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>86</v>
       </c>
@@ -6471,7 +6535,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>87</v>
       </c>
@@ -6626,8 +6690,8 @@
         <v>16.666666666666661</v>
       </c>
     </row>
-    <row r="38" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+    <row r="38" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
         <v>88</v>
       </c>
       <c r="B38">
@@ -6781,7 +6845,7 @@
         <v>16.666666666666661</v>
       </c>
     </row>
-    <row r="39" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>89</v>
       </c>
@@ -6936,7 +7000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>90</v>
       </c>
@@ -7091,7 +7155,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>91</v>
       </c>
@@ -7243,7 +7307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>92</v>
       </c>
@@ -7398,8 +7462,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+    <row r="43" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
         <v>93</v>
       </c>
       <c r="B43">
@@ -7553,7 +7617,7 @@
         <v>16.666666666666661</v>
       </c>
     </row>
-    <row r="44" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>94</v>
       </c>
@@ -7708,7 +7772,7 @@
         <v>83.333333333333343</v>
       </c>
     </row>
-    <row r="45" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>95</v>
       </c>
@@ -7863,7 +7927,7 @@
         <v>33.333333333333329</v>
       </c>
     </row>
-    <row r="46" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>96</v>
       </c>
@@ -8107,7 +8171,7 @@
         <v>159</v>
       </c>
       <c r="AE47" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AF47">
         <v>232.0196428571428</v>
@@ -8173,7 +8237,7 @@
         <v>66.666666666666657</v>
       </c>
     </row>
-    <row r="48" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>98</v>
       </c>
@@ -8328,7 +8392,7 @@
         <v>16.666666666666661</v>
       </c>
     </row>
-    <row r="49" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>99</v>
       </c>
@@ -8480,7 +8544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>100</v>
       </c>
@@ -8632,7 +8696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>101</v>
       </c>
@@ -8787,7 +8851,7 @@
         <v>33.333333333333329</v>
       </c>
     </row>
-    <row r="52" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>102</v>
       </c>
@@ -8942,7 +9006,7 @@
         <v>16.666666666666661</v>
       </c>
     </row>
-    <row r="53" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>103</v>
       </c>
@@ -9097,7 +9161,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>104</v>
       </c>
@@ -9252,7 +9316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>105</v>
       </c>
@@ -9407,7 +9471,7 @@
         <v>66.666666666666657</v>
       </c>
     </row>
-    <row r="56" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>106</v>
       </c>
@@ -9559,7 +9623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>107</v>
       </c>
@@ -9714,7 +9778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>108</v>
       </c>
@@ -9869,7 +9933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>109</v>
       </c>
@@ -10024,7 +10088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>110</v>
       </c>
@@ -10176,7 +10240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>111</v>
       </c>
@@ -10331,7 +10395,7 @@
         <v>16.666666666666661</v>
       </c>
     </row>
-    <row r="62" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>112</v>
       </c>
@@ -10489,7 +10553,7 @@
         <v>16.666666666666661</v>
       </c>
     </row>
-    <row r="63" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>113</v>
       </c>
@@ -10644,7 +10708,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="64" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>114</v>
       </c>
@@ -10799,7 +10863,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="65" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>115</v>
       </c>
@@ -10951,7 +11015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>116</v>
       </c>
@@ -11106,7 +11170,7 @@
         <v>16.666666666666661</v>
       </c>
     </row>
-    <row r="67" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>117</v>
       </c>
@@ -11258,7 +11322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>118</v>
       </c>
@@ -11410,7 +11474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>119</v>
       </c>
@@ -11562,7 +11626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>120</v>
       </c>
@@ -11714,7 +11778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>121</v>
       </c>
@@ -11869,7 +11933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>122</v>
       </c>
@@ -12027,8 +12091,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
+    <row r="73" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
         <v>123</v>
       </c>
       <c r="B73">
@@ -12182,7 +12246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>124</v>
       </c>
@@ -12337,7 +12401,7 @@
         <v>33.333333333333329</v>
       </c>
     </row>
-    <row r="75" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>125</v>
       </c>
@@ -12492,7 +12556,7 @@
         <v>33.333333333333329</v>
       </c>
     </row>
-    <row r="76" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>126</v>
       </c>
@@ -12644,7 +12708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>127</v>
       </c>
@@ -12799,7 +12863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>128</v>
       </c>
@@ -12954,7 +13018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>129</v>
       </c>
@@ -13109,7 +13173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>130</v>
       </c>
@@ -13264,7 +13328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>131</v>
       </c>
@@ -13416,7 +13480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>132</v>
       </c>
@@ -13571,7 +13635,7 @@
         <v>16.666666666666661</v>
       </c>
     </row>
-    <row r="83" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>133</v>
       </c>
@@ -13723,7 +13787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>134</v>
       </c>
@@ -13878,7 +13942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>135</v>
       </c>
@@ -14033,7 +14097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>136</v>
       </c>
@@ -14189,6 +14253,14 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AZ86" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="614200 Internet &amp; Social media"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/public/expense-analysis.xlsx
+++ b/public/expense-analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kotzbauer/expense_management_analytics-RMT-v2/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F2F5AF-02DE-1943-A508-BBA78B5194F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F39B3741-DC44-7949-A66F-4796F83ECA93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2560" yWindow="6340" windowWidth="26440" windowHeight="13560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2300" yWindow="760" windowWidth="25360" windowHeight="14740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -172,13 +172,13 @@
     <t>Total Excess Costs (5% Buffer)</t>
   </si>
   <si>
-    <t>% of Months Outpaced Growth</t>
-  </si>
-  <si>
-    <t>% of Months Did Not Decline with Profit</t>
-  </si>
-  <si>
-    <t>% of Months Opposite Direction than Profit</t>
+    <t># of Months Outpaced Growth</t>
+  </si>
+  <si>
+    <t># of Months Did Not Decline with Profit</t>
+  </si>
+  <si>
+    <t># of Months Opposite Direction than Profit</t>
   </si>
   <si>
     <t xml:space="preserve">   400000 Management Fees</t>
@@ -907,11 +907,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AZ86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AE93" sqref="AE93"/>
+    <sheetView tabSelected="1" topLeftCell="AT1" workbookViewId="0">
+      <selection activeCell="AY1" sqref="AY1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -962,9 +961,9 @@
     <col min="47" max="47" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="49" max="49" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="25" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="34.83203125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="31.83203125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="34.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52" x14ac:dyDescent="0.2">
@@ -1125,7 +1124,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>52</v>
       </c>
@@ -1280,7 +1279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>53</v>
       </c>
@@ -1426,16 +1425,16 @@
         <v>398.27981777279672</v>
       </c>
       <c r="AX3">
-        <v>16.666666666666661</v>
+        <v>1</v>
       </c>
       <c r="AY3">
-        <v>16.666666666666661</v>
+        <v>1</v>
       </c>
       <c r="AZ3">
-        <v>16.666666666666661</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>54</v>
       </c>
@@ -1581,16 +1580,16 @@
         <v>915.76569624870388</v>
       </c>
       <c r="AX4">
-        <v>16.666666666666661</v>
+        <v>1</v>
       </c>
       <c r="AY4">
-        <v>16.666666666666661</v>
+        <v>1</v>
       </c>
       <c r="AZ4">
-        <v>33.333333333333329</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>55</v>
       </c>
@@ -1733,16 +1732,16 @@
         <v>0</v>
       </c>
       <c r="AX5">
-        <v>16.666666666666661</v>
+        <v>1</v>
       </c>
       <c r="AY5">
-        <v>16.666666666666661</v>
+        <v>1</v>
       </c>
       <c r="AZ5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>56</v>
       </c>
@@ -1894,159 +1893,159 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:52" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="2">
-        <v>0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2">
-        <v>0</v>
-      </c>
-      <c r="J7" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K7" s="2">
-        <v>0</v>
-      </c>
-      <c r="L7" s="2">
-        <v>0</v>
-      </c>
-      <c r="M7" s="2">
-        <v>0</v>
-      </c>
-      <c r="N7" s="2">
-        <v>0</v>
-      </c>
-      <c r="O7" s="2">
-        <v>0</v>
-      </c>
-      <c r="P7" s="2" t="s">
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="s">
         <v>138</v>
       </c>
-      <c r="Q7" s="2">
-        <v>0</v>
-      </c>
-      <c r="R7" s="2">
-        <v>0</v>
-      </c>
-      <c r="S7" s="2">
-        <v>0</v>
-      </c>
-      <c r="T7" s="2">
-        <v>0</v>
-      </c>
-      <c r="U7" s="2">
-        <v>0</v>
-      </c>
-      <c r="V7" s="2">
-        <v>0</v>
-      </c>
-      <c r="W7" s="2">
-        <v>0</v>
-      </c>
-      <c r="X7" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="2" t="s">
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="s">
         <v>145</v>
       </c>
-      <c r="AA7" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="AB7" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="AC7" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="AD7" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="AE7" s="2" t="s">
+      <c r="AA7" t="s">
+        <v>147</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>147</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>147</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>147</v>
+      </c>
+      <c r="AE7" t="s">
         <v>162</v>
       </c>
-      <c r="AF7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="2">
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
         <v>1961.3796428571441</v>
       </c>
-      <c r="AH7" s="2" t="s">
+      <c r="AH7" t="s">
         <v>166</v>
       </c>
-      <c r="AI7" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="AJ7" s="2">
+      <c r="AI7" t="s">
+        <v>147</v>
+      </c>
+      <c r="AJ7">
         <v>29</v>
       </c>
-      <c r="AK7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP7" s="2">
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
         <v>67</v>
       </c>
-      <c r="AQ7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AU7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AV7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AW7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AX7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AY7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AZ7" s="2">
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <v>0</v>
+      </c>
+      <c r="AY7">
+        <v>0</v>
+      </c>
+      <c r="AZ7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>58</v>
       </c>
@@ -2192,16 +2191,16 @@
         <v>12332.34393450957</v>
       </c>
       <c r="AX8">
-        <v>33.333333333333329</v>
+        <v>2</v>
       </c>
       <c r="AY8">
-        <v>33.333333333333329</v>
+        <v>2</v>
       </c>
       <c r="AZ8">
-        <v>83.333333333333343</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>59</v>
       </c>
@@ -2350,16 +2349,16 @@
         <v>3367.4322113797061</v>
       </c>
       <c r="AX9">
-        <v>33.333333333333329</v>
+        <v>2</v>
       </c>
       <c r="AY9">
-        <v>33.333333333333329</v>
+        <v>2</v>
       </c>
       <c r="AZ9">
-        <v>50</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>60</v>
       </c>
@@ -2505,16 +2504,16 @@
         <v>8924.4517453896242</v>
       </c>
       <c r="AX10">
-        <v>33.333333333333329</v>
+        <v>2</v>
       </c>
       <c r="AY10">
-        <v>33.333333333333329</v>
+        <v>2</v>
       </c>
       <c r="AZ10">
-        <v>66.666666666666657</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>61</v>
       </c>
@@ -2660,16 +2659,16 @@
         <v>5530.5817263010131</v>
       </c>
       <c r="AX11">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="AY11">
-        <v>33.333333333333329</v>
+        <v>2</v>
       </c>
       <c r="AZ11">
-        <v>66.666666666666657</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>62</v>
       </c>
@@ -2815,16 +2814,16 @@
         <v>2521.1125907723372</v>
       </c>
       <c r="AX12">
-        <v>33.333333333333329</v>
+        <v>2</v>
       </c>
       <c r="AY12">
-        <v>33.333333333333329</v>
+        <v>2</v>
       </c>
       <c r="AZ12">
-        <v>100</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>63</v>
       </c>
@@ -2970,16 +2969,16 @@
         <v>722.87408227344599</v>
       </c>
       <c r="AX13">
-        <v>33.333333333333329</v>
+        <v>2</v>
       </c>
       <c r="AY13">
-        <v>33.333333333333329</v>
+        <v>2</v>
       </c>
       <c r="AZ13">
-        <v>50</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>64</v>
       </c>
@@ -3125,16 +3124,16 @@
         <v>33283.022545252767</v>
       </c>
       <c r="AX14">
-        <v>33.333333333333329</v>
+        <v>2</v>
       </c>
       <c r="AY14">
-        <v>33.333333333333329</v>
+        <v>2</v>
       </c>
       <c r="AZ14">
-        <v>100</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>65</v>
       </c>
@@ -3286,7 +3285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>66</v>
       </c>
@@ -3432,17 +3431,17 @@
         <v>13996.88007225446</v>
       </c>
       <c r="AX16">
-        <v>33.333333333333329</v>
+        <v>2</v>
       </c>
       <c r="AY16">
-        <v>16.666666666666661</v>
+        <v>1</v>
       </c>
       <c r="AZ16">
-        <v>66.666666666666657</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>67</v>
       </c>
       <c r="B17">
@@ -3587,16 +3586,16 @@
         <v>3281.37</v>
       </c>
       <c r="AX17">
-        <v>16.666666666666661</v>
+        <v>1</v>
       </c>
       <c r="AY17">
-        <v>16.666666666666661</v>
+        <v>1</v>
       </c>
       <c r="AZ17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>68</v>
       </c>
@@ -3739,16 +3738,16 @@
         <v>519.22</v>
       </c>
       <c r="AX18">
-        <v>16.666666666666661</v>
+        <v>1</v>
       </c>
       <c r="AY18">
-        <v>16.666666666666661</v>
+        <v>1</v>
       </c>
       <c r="AZ18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>69</v>
       </c>
@@ -3894,16 +3893,16 @@
         <v>15602.500072254459</v>
       </c>
       <c r="AX19">
-        <v>33.333333333333329</v>
+        <v>2</v>
       </c>
       <c r="AY19">
-        <v>16.666666666666661</v>
+        <v>1</v>
       </c>
       <c r="AZ19">
-        <v>50</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>70</v>
       </c>
@@ -4049,16 +4048,16 @@
         <v>9269.0867138464</v>
       </c>
       <c r="AX20">
-        <v>33.333333333333329</v>
+        <v>2</v>
       </c>
       <c r="AY20">
-        <v>33.333333333333329</v>
+        <v>2</v>
       </c>
       <c r="AZ20">
-        <v>33.333333333333329</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>71</v>
       </c>
@@ -4204,16 +4203,16 @@
         <v>210.76528876877529</v>
       </c>
       <c r="AX21">
-        <v>33.333333333333329</v>
+        <v>2</v>
       </c>
       <c r="AY21">
-        <v>33.333333333333329</v>
+        <v>2</v>
       </c>
       <c r="AZ21">
-        <v>33.333333333333329</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>72</v>
       </c>
@@ -4359,16 +4358,16 @@
         <v>395.77532672975639</v>
       </c>
       <c r="AX22">
-        <v>33.333333333333329</v>
+        <v>2</v>
       </c>
       <c r="AY22">
-        <v>33.333333333333329</v>
+        <v>2</v>
       </c>
       <c r="AZ22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>73</v>
       </c>
@@ -4514,16 +4513,16 @@
         <v>554.03902380088778</v>
       </c>
       <c r="AX23">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="AY23">
-        <v>33.333333333333329</v>
+        <v>2</v>
       </c>
       <c r="AZ23">
-        <v>33.333333333333329</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>74</v>
       </c>
@@ -4669,16 +4668,16 @@
         <v>157.1338204411293</v>
       </c>
       <c r="AX24">
-        <v>16.666666666666661</v>
+        <v>1</v>
       </c>
       <c r="AY24">
         <v>0</v>
       </c>
       <c r="AZ24">
-        <v>16.666666666666661</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>75</v>
       </c>
@@ -4824,17 +4823,17 @@
         <v>109.5310421034078</v>
       </c>
       <c r="AX25">
-        <v>33.333333333333329</v>
+        <v>2</v>
       </c>
       <c r="AY25">
-        <v>33.333333333333329</v>
+        <v>2</v>
       </c>
       <c r="AZ25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
+    <row r="26" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>76</v>
       </c>
       <c r="B26">
@@ -4979,16 +4978,16 @@
         <v>2846.8977307856371</v>
       </c>
       <c r="AX26">
-        <v>33.333333333333329</v>
+        <v>2</v>
       </c>
       <c r="AY26">
         <v>0</v>
       </c>
       <c r="AZ26">
-        <v>16.666666666666661</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>77</v>
       </c>
@@ -5134,16 +5133,16 @@
         <v>1035.0390149343521</v>
       </c>
       <c r="AX27">
-        <v>16.666666666666661</v>
+        <v>1</v>
       </c>
       <c r="AY27">
-        <v>16.666666666666661</v>
+        <v>1</v>
       </c>
       <c r="AZ27">
-        <v>66.666666666666657</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>78</v>
       </c>
@@ -5289,16 +5288,16 @@
         <v>564.8062234999154</v>
       </c>
       <c r="AX28">
-        <v>33.333333333333329</v>
+        <v>2</v>
       </c>
       <c r="AY28">
-        <v>33.333333333333329</v>
+        <v>2</v>
       </c>
       <c r="AZ28">
-        <v>33.333333333333329</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>79</v>
       </c>
@@ -5444,16 +5443,16 @@
         <v>2158.8170182416588</v>
       </c>
       <c r="AX29">
-        <v>33.333333333333329</v>
+        <v>2</v>
       </c>
       <c r="AY29">
-        <v>33.333333333333329</v>
+        <v>2</v>
       </c>
       <c r="AZ29">
-        <v>50</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>80</v>
       </c>
@@ -5599,16 +5598,16 @@
         <v>1514.4434244594979</v>
       </c>
       <c r="AX30">
-        <v>33.333333333333329</v>
+        <v>2</v>
       </c>
       <c r="AY30">
-        <v>16.666666666666661</v>
+        <v>1</v>
       </c>
       <c r="AZ30">
-        <v>66.666666666666657</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>81</v>
       </c>
@@ -5754,16 +5753,16 @@
         <v>3647.8962162012949</v>
       </c>
       <c r="AX31">
-        <v>33.333333333333329</v>
+        <v>2</v>
       </c>
       <c r="AY31">
-        <v>33.333333333333329</v>
+        <v>2</v>
       </c>
       <c r="AZ31">
-        <v>83.333333333333343</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>82</v>
       </c>
@@ -5918,7 +5917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>83</v>
       </c>
@@ -6064,16 +6063,16 @@
         <v>838.55</v>
       </c>
       <c r="AX33">
-        <v>16.666666666666661</v>
+        <v>1</v>
       </c>
       <c r="AY33">
-        <v>16.666666666666661</v>
+        <v>1</v>
       </c>
       <c r="AZ33">
-        <v>16.666666666666661</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>84</v>
       </c>
@@ -6219,16 +6218,16 @@
         <v>346.97</v>
       </c>
       <c r="AX34">
-        <v>16.666666666666661</v>
+        <v>1</v>
       </c>
       <c r="AY34">
-        <v>16.666666666666661</v>
+        <v>1</v>
       </c>
       <c r="AZ34">
-        <v>50</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>85</v>
       </c>
@@ -6380,7 +6379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>86</v>
       </c>
@@ -6526,16 +6525,16 @@
         <v>4642.5880210794458</v>
       </c>
       <c r="AX36">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="AY36">
-        <v>33.333333333333329</v>
+        <v>2</v>
       </c>
       <c r="AZ36">
-        <v>50</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>87</v>
       </c>
@@ -6681,17 +6680,17 @@
         <v>521.8431844622902</v>
       </c>
       <c r="AX37">
-        <v>33.333333333333329</v>
+        <v>2</v>
       </c>
       <c r="AY37">
         <v>0</v>
       </c>
       <c r="AZ37">
-        <v>16.666666666666661</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
+    <row r="38" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>88</v>
       </c>
       <c r="B38">
@@ -6836,16 +6835,16 @@
         <v>4164.45</v>
       </c>
       <c r="AX38">
-        <v>16.666666666666661</v>
+        <v>1</v>
       </c>
       <c r="AY38">
-        <v>16.666666666666661</v>
+        <v>1</v>
       </c>
       <c r="AZ38">
-        <v>16.666666666666661</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>89</v>
       </c>
@@ -7000,7 +6999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>90</v>
       </c>
@@ -7146,16 +7145,16 @@
         <v>8624.043131856055</v>
       </c>
       <c r="AX40">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="AY40">
-        <v>33.333333333333329</v>
+        <v>2</v>
       </c>
       <c r="AZ40">
-        <v>50</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>91</v>
       </c>
@@ -7307,7 +7306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>92</v>
       </c>
@@ -7453,17 +7452,17 @@
         <v>74.59506853768265</v>
       </c>
       <c r="AX42">
-        <v>33.333333333333329</v>
+        <v>2</v>
       </c>
       <c r="AY42">
-        <v>33.333333333333329</v>
+        <v>2</v>
       </c>
       <c r="AZ42">
-        <v>100</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
+    <row r="43" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>93</v>
       </c>
       <c r="B43">
@@ -7608,16 +7607,16 @@
         <v>106.6253432095332</v>
       </c>
       <c r="AX43">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="AY43">
-        <v>33.333333333333329</v>
+        <v>2</v>
       </c>
       <c r="AZ43">
-        <v>16.666666666666661</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>94</v>
       </c>
@@ -7763,16 +7762,16 @@
         <v>163.8089263502319</v>
       </c>
       <c r="AX44">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="AY44">
-        <v>33.333333333333329</v>
+        <v>2</v>
       </c>
       <c r="AZ44">
-        <v>83.333333333333343</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>95</v>
       </c>
@@ -7918,16 +7917,16 @@
         <v>1780.869927836208</v>
       </c>
       <c r="AX45">
-        <v>33.333333333333329</v>
+        <v>2</v>
       </c>
       <c r="AY45">
-        <v>16.666666666666661</v>
+        <v>1</v>
       </c>
       <c r="AZ45">
-        <v>33.333333333333329</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>96</v>
       </c>
@@ -8079,165 +8078,165 @@
         <v>0</v>
       </c>
       <c r="AZ46">
-        <v>16.666666666666661</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+    <row r="47" spans="1:52" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="2">
         <v>3691.42</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="2">
         <v>6285.33</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="2">
         <v>6063.56</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="2">
         <v>8135.66</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="2">
         <v>7006.91</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="2">
         <v>5925.37</v>
       </c>
-      <c r="H47">
+      <c r="H47" s="2">
         <v>5782.46</v>
       </c>
-      <c r="I47">
+      <c r="I47" s="2">
         <v>7</v>
       </c>
-      <c r="J47" t="b">
-        <v>0</v>
-      </c>
-      <c r="K47">
-        <v>0</v>
-      </c>
-      <c r="L47">
+      <c r="J47" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K47" s="2">
+        <v>0</v>
+      </c>
+      <c r="L47" s="2">
         <v>6127.244285714286</v>
       </c>
-      <c r="M47">
+      <c r="M47" s="2">
         <v>6.0299999999999999E-2</v>
       </c>
-      <c r="N47">
+      <c r="N47" s="2">
         <v>-0.27710000000000001</v>
       </c>
-      <c r="O47">
+      <c r="O47" s="2">
         <v>47.684091794763837</v>
       </c>
-      <c r="P47" t="s">
+      <c r="P47" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="Q47">
+      <c r="Q47" s="2">
         <v>6127.244285714286</v>
       </c>
-      <c r="R47">
+      <c r="R47" s="2">
         <v>1513.180444753094</v>
       </c>
-      <c r="S47">
+      <c r="S47" s="2">
         <v>6127.244285714286</v>
       </c>
-      <c r="T47">
+      <c r="T47" s="2">
         <v>6184.708333333333</v>
       </c>
-      <c r="U47">
+      <c r="U47" s="2">
         <v>6127.244285714286</v>
       </c>
-      <c r="V47">
+      <c r="V47" s="2">
         <v>-402.24833333333299</v>
       </c>
-      <c r="W47">
+      <c r="W47" s="2">
         <v>-6.5039175924491127E-2</v>
       </c>
-      <c r="X47">
+      <c r="X47" s="2">
         <v>-0.22061483450996919</v>
       </c>
-      <c r="Y47" t="s">
+      <c r="Y47" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="AA47" t="s">
+      <c r="AA47" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="AB47" t="s">
+      <c r="AB47" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="AC47" t="s">
+      <c r="AC47" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="AD47" t="s">
+      <c r="AD47" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="AE47" t="s">
+      <c r="AE47" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="AF47">
+      <c r="AF47" s="2">
         <v>232.0196428571428</v>
       </c>
-      <c r="AG47">
+      <c r="AG47" s="2">
         <v>1961.3796428571441</v>
       </c>
-      <c r="AH47" t="s">
+      <c r="AH47" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="AI47" t="s">
+      <c r="AI47" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="AJ47">
+      <c r="AJ47" s="2">
         <v>69</v>
       </c>
-      <c r="AK47">
+      <c r="AK47" s="2">
         <v>5782.46</v>
       </c>
-      <c r="AL47">
+      <c r="AL47" s="2">
         <v>1513.180444753094</v>
       </c>
-      <c r="AM47">
+      <c r="AM47" s="2">
         <v>4269.2795552469061</v>
       </c>
-      <c r="AN47">
+      <c r="AN47" s="2">
         <v>282.13948772933861</v>
       </c>
-      <c r="AO47">
+      <c r="AO47" s="2">
         <v>6184.708333333333</v>
       </c>
-      <c r="AP47">
+      <c r="AP47" s="2">
         <v>13</v>
       </c>
-      <c r="AQ47">
+      <c r="AQ47" s="2">
         <v>3102.269936927813</v>
       </c>
-      <c r="AR47">
-        <v>0</v>
-      </c>
-      <c r="AS47">
+      <c r="AR47" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS47" s="2">
         <v>1643.0615210860301</v>
       </c>
-      <c r="AT47">
+      <c r="AT47" s="2">
         <v>2097.8852550436141</v>
       </c>
-      <c r="AU47">
-        <v>0</v>
-      </c>
-      <c r="AV47">
-        <v>0</v>
-      </c>
-      <c r="AW47">
+      <c r="AU47" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV47" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW47" s="2">
         <v>6843.2167130574562</v>
       </c>
-      <c r="AX47">
-        <v>50</v>
-      </c>
-      <c r="AY47">
-        <v>33.333333333333329</v>
-      </c>
-      <c r="AZ47">
-        <v>66.666666666666657</v>
+      <c r="AX47" s="2">
+        <v>3</v>
+      </c>
+      <c r="AY47" s="2">
+        <v>2</v>
+      </c>
+      <c r="AZ47" s="2">
+        <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>98</v>
       </c>
@@ -8383,16 +8382,16 @@
         <v>2856.1399929250279</v>
       </c>
       <c r="AX48">
-        <v>33.333333333333329</v>
+        <v>2</v>
       </c>
       <c r="AY48">
-        <v>33.333333333333329</v>
+        <v>2</v>
       </c>
       <c r="AZ48">
-        <v>16.666666666666661</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>99</v>
       </c>
@@ -8544,7 +8543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>100</v>
       </c>
@@ -8696,7 +8695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>101</v>
       </c>
@@ -8842,16 +8841,16 @@
         <v>1642.314968123133</v>
       </c>
       <c r="AX51">
-        <v>66.666666666666657</v>
+        <v>4</v>
       </c>
       <c r="AY51">
-        <v>16.666666666666661</v>
+        <v>1</v>
       </c>
       <c r="AZ51">
-        <v>33.333333333333329</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>102</v>
       </c>
@@ -8997,16 +8996,16 @@
         <v>2654.9249854207419</v>
       </c>
       <c r="AX52">
-        <v>33.333333333333329</v>
+        <v>2</v>
       </c>
       <c r="AY52">
-        <v>33.333333333333329</v>
+        <v>2</v>
       </c>
       <c r="AZ52">
-        <v>16.666666666666661</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>103</v>
       </c>
@@ -9152,16 +9151,16 @@
         <v>3525.5520325123512</v>
       </c>
       <c r="AX53">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="AY53">
-        <v>33.333333333333329</v>
+        <v>2</v>
       </c>
       <c r="AZ53">
-        <v>50</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>104</v>
       </c>
@@ -9307,16 +9306,16 @@
         <v>79.32079892826431</v>
       </c>
       <c r="AX54">
-        <v>16.666666666666661</v>
+        <v>1</v>
       </c>
       <c r="AY54">
-        <v>16.666666666666661</v>
+        <v>1</v>
       </c>
       <c r="AZ54">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>105</v>
       </c>
@@ -9462,16 +9461,16 @@
         <v>200.62837673741129</v>
       </c>
       <c r="AX55">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="AY55">
-        <v>33.333333333333329</v>
+        <v>2</v>
       </c>
       <c r="AZ55">
-        <v>66.666666666666657</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>106</v>
       </c>
@@ -9623,7 +9622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>107</v>
       </c>
@@ -9769,16 +9768,16 @@
         <v>5.1400000000000006</v>
       </c>
       <c r="AX57">
-        <v>16.666666666666661</v>
+        <v>1</v>
       </c>
       <c r="AY57">
-        <v>16.666666666666661</v>
+        <v>1</v>
       </c>
       <c r="AZ57">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>108</v>
       </c>
@@ -9924,16 +9923,16 @@
         <v>100.13</v>
       </c>
       <c r="AX58">
-        <v>16.666666666666661</v>
+        <v>1</v>
       </c>
       <c r="AY58">
-        <v>16.666666666666661</v>
+        <v>1</v>
       </c>
       <c r="AZ58">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>109</v>
       </c>
@@ -10079,16 +10078,16 @@
         <v>666.67</v>
       </c>
       <c r="AX59">
-        <v>16.666666666666661</v>
+        <v>1</v>
       </c>
       <c r="AY59">
-        <v>16.666666666666661</v>
+        <v>1</v>
       </c>
       <c r="AZ59">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>110</v>
       </c>
@@ -10231,16 +10230,16 @@
         <v>264.56</v>
       </c>
       <c r="AX60">
-        <v>16.666666666666661</v>
+        <v>1</v>
       </c>
       <c r="AY60">
-        <v>16.666666666666661</v>
+        <v>1</v>
       </c>
       <c r="AZ60">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>111</v>
       </c>
@@ -10386,16 +10385,16 @@
         <v>9144.2793476084116</v>
       </c>
       <c r="AX61">
-        <v>33.333333333333329</v>
+        <v>2</v>
       </c>
       <c r="AY61">
-        <v>16.666666666666661</v>
+        <v>1</v>
       </c>
       <c r="AZ61">
-        <v>16.666666666666661</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>112</v>
       </c>
@@ -10544,16 +10543,16 @@
         <v>8946.642365842421</v>
       </c>
       <c r="AX62">
-        <v>33.333333333333329</v>
+        <v>2</v>
       </c>
       <c r="AY62">
-        <v>16.666666666666661</v>
+        <v>1</v>
       </c>
       <c r="AZ62">
-        <v>16.666666666666661</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>113</v>
       </c>
@@ -10699,16 +10698,16 @@
         <v>3581.8884646499341</v>
       </c>
       <c r="AX63">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="AY63">
-        <v>16.666666666666661</v>
+        <v>1</v>
       </c>
       <c r="AZ63">
-        <v>50</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>114</v>
       </c>
@@ -10854,16 +10853,16 @@
         <v>166.89356973815251</v>
       </c>
       <c r="AX64">
-        <v>16.666666666666661</v>
+        <v>1</v>
       </c>
       <c r="AY64">
-        <v>16.666666666666661</v>
+        <v>1</v>
       </c>
       <c r="AZ64">
-        <v>50</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>115</v>
       </c>
@@ -11015,7 +11014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>116</v>
       </c>
@@ -11161,16 +11160,16 @@
         <v>1146.399747481855</v>
       </c>
       <c r="AX66">
-        <v>33.333333333333329</v>
+        <v>2</v>
       </c>
       <c r="AY66">
-        <v>33.333333333333329</v>
+        <v>2</v>
       </c>
       <c r="AZ66">
-        <v>16.666666666666661</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>117</v>
       </c>
@@ -11322,7 +11321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>118</v>
       </c>
@@ -11474,7 +11473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>119</v>
       </c>
@@ -11626,7 +11625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>120</v>
       </c>
@@ -11778,7 +11777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>121</v>
       </c>
@@ -11933,7 +11932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>122</v>
       </c>
@@ -12091,8 +12090,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="2" t="s">
+    <row r="73" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
         <v>123</v>
       </c>
       <c r="B73">
@@ -12246,7 +12245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>124</v>
       </c>
@@ -12392,16 +12391,16 @@
         <v>5502.7996544406506</v>
       </c>
       <c r="AX74">
-        <v>33.333333333333329</v>
+        <v>2</v>
       </c>
       <c r="AY74">
-        <v>16.666666666666661</v>
+        <v>1</v>
       </c>
       <c r="AZ74">
-        <v>33.333333333333329</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>125</v>
       </c>
@@ -12547,16 +12546,16 @@
         <v>5627.7996544406506</v>
       </c>
       <c r="AX75">
-        <v>33.333333333333329</v>
+        <v>2</v>
       </c>
       <c r="AY75">
-        <v>16.666666666666661</v>
+        <v>1</v>
       </c>
       <c r="AZ75">
-        <v>33.333333333333329</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>126</v>
       </c>
@@ -12708,7 +12707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>127</v>
       </c>
@@ -12854,16 +12853,16 @@
         <v>302.49</v>
       </c>
       <c r="AX77">
-        <v>16.666666666666661</v>
+        <v>1</v>
       </c>
       <c r="AY77">
-        <v>16.666666666666661</v>
+        <v>1</v>
       </c>
       <c r="AZ77">
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>128</v>
       </c>
@@ -13009,16 +13008,16 @@
         <v>105.77</v>
       </c>
       <c r="AX78">
-        <v>16.666666666666661</v>
+        <v>1</v>
       </c>
       <c r="AY78">
-        <v>16.666666666666661</v>
+        <v>1</v>
       </c>
       <c r="AZ78">
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>129</v>
       </c>
@@ -13164,16 +13163,16 @@
         <v>1596.83</v>
       </c>
       <c r="AX79">
-        <v>16.666666666666661</v>
+        <v>1</v>
       </c>
       <c r="AY79">
-        <v>16.666666666666661</v>
+        <v>1</v>
       </c>
       <c r="AZ79">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>130</v>
       </c>
@@ -13319,16 +13318,16 @@
         <v>2005.09</v>
       </c>
       <c r="AX80">
-        <v>16.666666666666661</v>
+        <v>1</v>
       </c>
       <c r="AY80">
-        <v>16.666666666666661</v>
+        <v>1</v>
       </c>
       <c r="AZ80">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>131</v>
       </c>
@@ -13480,7 +13479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>132</v>
       </c>
@@ -13626,16 +13625,16 @@
         <v>175349.94970783431</v>
       </c>
       <c r="AX82">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="AY82">
         <v>0</v>
       </c>
       <c r="AZ82">
-        <v>16.666666666666661</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>133</v>
       </c>
@@ -13787,7 +13786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>134</v>
       </c>
@@ -13942,7 +13941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>135</v>
       </c>
@@ -14097,7 +14096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>136</v>
       </c>
@@ -14253,14 +14252,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AZ86" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="614200 Internet &amp; Social media"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/public/expense-analysis.xlsx
+++ b/public/expense-analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kotzbauer/expense_management_analytics-RMT-v2/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F39B3741-DC44-7949-A66F-4796F83ECA93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{418A9D0C-6FD3-6F49-B983-BED19875ABE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2300" yWindow="760" windowWidth="25360" windowHeight="14740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2300" yWindow="760" windowWidth="26800" windowHeight="16900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,25 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AZ$86</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="169">
   <si>
     <t>Category</t>
   </si>
@@ -44,9 +57,6 @@
   </si>
   <si>
     <t>Jun 2025</t>
-  </si>
-  <si>
-    <t>Jul 2025</t>
   </si>
   <si>
     <t>Nonzero Month Count</t>
@@ -597,12 +607,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="17" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -909,8 +922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AZ86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AT1" workbookViewId="0">
-      <selection activeCell="AY1" sqref="AY1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -988,145 +1001,145 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3">
+        <v>45839</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2">
         <v>141494.04999999999</v>
@@ -1171,7 +1184,7 @@
         <v>25.94386691172258</v>
       </c>
       <c r="P2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q2">
         <v>165325.71048139789</v>
@@ -1198,22 +1211,22 @@
         <v>1.0011852137655839</v>
       </c>
       <c r="Y2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AA2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AB2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AC2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AD2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AE2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AF2">
         <v>1930.246071428573</v>
@@ -1222,10 +1235,10 @@
         <v>1961.3796428571441</v>
       </c>
       <c r="AH2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AI2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AJ2">
         <v>2</v>
@@ -1281,7 +1294,7 @@
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3">
         <v>220.02</v>
@@ -1326,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q3">
         <v>115.4314285714286</v>
@@ -1353,22 +1366,22 @@
         <v>-3.3920299784563319</v>
       </c>
       <c r="Y3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AA3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AB3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AC3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AD3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AE3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AF3">
         <v>-65.573571428571398</v>
@@ -1377,10 +1390,10 @@
         <v>1961.3796428571441</v>
       </c>
       <c r="AH3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AI3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AJ3">
         <v>61</v>
@@ -1436,7 +1449,7 @@
     </row>
     <row r="4" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B4">
         <v>50</v>
@@ -1481,7 +1494,7 @@
         <v>23.14167177682646</v>
       </c>
       <c r="P4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q4">
         <v>186.9828571428572</v>
@@ -1508,22 +1521,22 @@
         <v>2.659882995555837</v>
       </c>
       <c r="Y4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AA4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AB4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AC4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AD4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AE4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AF4">
         <v>80.991428571428557</v>
@@ -1532,10 +1545,10 @@
         <v>1961.3796428571441</v>
       </c>
       <c r="AH4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AI4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AJ4">
         <v>13</v>
@@ -1591,7 +1604,7 @@
     </row>
     <row r="5" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1636,7 +1649,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -1663,22 +1676,22 @@
         <v>-3.3920299784563319</v>
       </c>
       <c r="Y5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AA5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AB5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AC5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AD5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AE5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1687,10 +1700,10 @@
         <v>1961.3796428571441</v>
       </c>
       <c r="AH5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AI5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AJ5">
         <v>23</v>
@@ -1743,7 +1756,7 @@
     </row>
     <row r="6" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1788,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q6">
         <v>0</v>
@@ -1815,22 +1828,22 @@
         <v>0</v>
       </c>
       <c r="Y6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AA6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AB6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AC6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AD6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AE6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1839,10 +1852,10 @@
         <v>1961.3796428571441</v>
       </c>
       <c r="AH6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AI6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AJ6">
         <v>29</v>
@@ -1895,7 +1908,7 @@
     </row>
     <row r="7" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1940,7 +1953,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q7">
         <v>0</v>
@@ -1967,22 +1980,22 @@
         <v>0</v>
       </c>
       <c r="Y7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AA7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AB7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AC7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AD7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AE7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1991,10 +2004,10 @@
         <v>1961.3796428571441</v>
       </c>
       <c r="AH7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AI7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AJ7">
         <v>29</v>
@@ -2047,7 +2060,7 @@
     </row>
     <row r="8" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B8">
         <v>11298.13</v>
@@ -2092,7 +2105,7 @@
         <v>147.28882394517501</v>
       </c>
       <c r="P8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q8">
         <v>12030.13428571429</v>
@@ -2119,22 +2132,22 @@
         <v>-0.83276805977069956</v>
       </c>
       <c r="Y8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AA8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AB8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AC8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AD8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AE8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AF8">
         <v>-127.4289285714285</v>
@@ -2143,10 +2156,10 @@
         <v>1961.3796428571441</v>
       </c>
       <c r="AH8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AI8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AJ8">
         <v>83</v>
@@ -2202,7 +2215,7 @@
     </row>
     <row r="9" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B9">
         <v>6112.59</v>
@@ -2247,7 +2260,7 @@
         <v>-1145.1508146905981</v>
       </c>
       <c r="P9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q9">
         <v>4519.1928571428571</v>
@@ -2274,25 +2287,25 @@
         <v>-1.373132217010546</v>
       </c>
       <c r="Y9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Z9">
         <v>3</v>
       </c>
       <c r="AA9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AB9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AC9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AD9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AE9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AF9">
         <v>-657.36964285714271</v>
@@ -2301,10 +2314,10 @@
         <v>1961.3796428571441</v>
       </c>
       <c r="AH9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AI9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AJ9">
         <v>81</v>
@@ -2360,7 +2373,7 @@
     </row>
     <row r="10" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B10">
         <v>6500.13</v>
@@ -2405,7 +2418,7 @@
         <v>1879.76096102775</v>
       </c>
       <c r="P10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q10">
         <v>7823.181428571429</v>
@@ -2432,22 +2445,22 @@
         <v>0.27188164359499728</v>
       </c>
       <c r="Y10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AA10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AB10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AC10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AD10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AE10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AF10">
         <v>370.33035714285688</v>
@@ -2456,10 +2469,10 @@
         <v>1961.3796428571441</v>
       </c>
       <c r="AH10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AI10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AJ10">
         <v>10</v>
@@ -2515,7 +2528,7 @@
     </row>
     <row r="11" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B11">
         <v>6653.87</v>
@@ -2560,7 +2573,7 @@
         <v>-323.60724177609342</v>
       </c>
       <c r="P11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q11">
         <v>6713.2128571428557</v>
@@ -2587,22 +2600,22 @@
         <v>-0.71559938817511726</v>
       </c>
       <c r="Y11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AA11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AB11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AC11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AD11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AE11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AF11">
         <v>-206.18035714285699</v>
@@ -2611,10 +2624,10 @@
         <v>1961.3796428571441</v>
       </c>
       <c r="AH11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AI11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AJ11">
         <v>79</v>
@@ -2670,7 +2683,7 @@
     </row>
     <row r="12" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B12">
         <v>2738.62</v>
@@ -2715,7 +2728,7 @@
         <v>-20.693145823861411</v>
       </c>
       <c r="P12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q12">
         <v>2659.1828571428568</v>
@@ -2742,22 +2755,22 @@
         <v>-0.72505615931267109</v>
       </c>
       <c r="Y12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AA12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AB12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AC12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AD12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AE12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AF12">
         <v>-86.523571428571415</v>
@@ -2766,10 +2779,10 @@
         <v>1961.3796428571441</v>
       </c>
       <c r="AH12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AI12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AJ12">
         <v>71</v>
@@ -2825,7 +2838,7 @@
     </row>
     <row r="13" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B13">
         <v>968</v>
@@ -2870,7 +2883,7 @@
         <v>-36.960180803396042</v>
       </c>
       <c r="P13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q13">
         <v>930.28571428571433</v>
@@ -2897,22 +2910,22 @@
         <v>-0.79072953775584054</v>
       </c>
       <c r="Y13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AA13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AB13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AC13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AD13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AE13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AF13">
         <v>-18.785714285714281</v>
@@ -2921,10 +2934,10 @@
         <v>1961.3796428571441</v>
       </c>
       <c r="AH13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AI13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AJ13">
         <v>63</v>
@@ -2978,164 +2991,164 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>64</v>
-      </c>
-      <c r="B14">
+    <row r="14" spans="1:52" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="2">
         <v>34271.339999999997</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="2">
         <v>36800.629999999997</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="2">
         <v>34840.75</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="2">
         <v>32894</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="2">
         <v>45882.2</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="2">
         <v>29065.22</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="2">
         <v>28972.19</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="2">
         <v>7</v>
       </c>
-      <c r="J14" t="b">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
+      <c r="J14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2">
         <v>34675.19</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="2">
         <v>0.83379999999999999</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="2">
         <v>-0.6048</v>
       </c>
-      <c r="O14">
+      <c r="O14" s="2">
         <v>500.63840187897591</v>
       </c>
-      <c r="P14" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q14">
+      <c r="P14" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q14" s="2">
         <v>34675.19</v>
       </c>
-      <c r="R14">
+      <c r="R14" s="2">
         <v>8563.3633946065784</v>
       </c>
-      <c r="S14">
+      <c r="S14" s="2">
         <v>34675.19</v>
       </c>
-      <c r="T14">
+      <c r="T14" s="2">
         <v>35625.69</v>
       </c>
-      <c r="U14">
+      <c r="U14" s="2">
         <v>34675.19</v>
       </c>
-      <c r="V14">
+      <c r="V14" s="2">
         <v>-6653.4999999999964</v>
       </c>
-      <c r="W14">
+      <c r="W14" s="2">
         <v>-0.18676129500930361</v>
       </c>
-      <c r="X14">
+      <c r="X14" s="2">
         <v>-0.63349991148688478</v>
       </c>
-      <c r="Y14" t="s">
-        <v>142</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>148</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>152</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>156</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>159</v>
-      </c>
-      <c r="AE14" t="s">
-        <v>162</v>
-      </c>
-      <c r="AF14">
+      <c r="Y14" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA14" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="AB14" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC14" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD14" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AE14" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF14" s="2">
         <v>-725.9578571428566</v>
       </c>
-      <c r="AG14">
+      <c r="AG14" s="2">
         <v>1961.3796428571441</v>
       </c>
-      <c r="AH14" t="s">
-        <v>165</v>
-      </c>
-      <c r="AI14" t="s">
-        <v>168</v>
-      </c>
-      <c r="AJ14">
+      <c r="AH14" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="AI14" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="AJ14" s="2">
         <v>85</v>
       </c>
-      <c r="AK14">
+      <c r="AK14" s="2">
         <v>28972.19</v>
       </c>
-      <c r="AL14">
-        <v>8563.3633946065784</v>
-      </c>
-      <c r="AM14">
-        <v>20408.82660539342</v>
-      </c>
-      <c r="AN14">
+      <c r="AL14" s="2">
+        <v>8563.3633946065802</v>
+      </c>
+      <c r="AM14" s="2">
+        <v>20408.826605393398</v>
+      </c>
+      <c r="AN14" s="2">
         <v>238.3272280404147</v>
       </c>
-      <c r="AO14">
+      <c r="AO14" s="2">
         <v>35625.69</v>
       </c>
-      <c r="AP14">
+      <c r="AP14" s="2">
         <v>3</v>
       </c>
-      <c r="AQ14">
+      <c r="AQ14" s="2">
         <v>7248.9307455211347</v>
       </c>
-      <c r="AR14">
-        <v>0</v>
-      </c>
-      <c r="AS14">
-        <v>0</v>
-      </c>
-      <c r="AT14">
+      <c r="AR14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT14" s="2">
         <v>26034.091799731628</v>
       </c>
-      <c r="AU14">
-        <v>0</v>
-      </c>
-      <c r="AV14">
-        <v>0</v>
-      </c>
-      <c r="AW14">
+      <c r="AU14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW14" s="2">
         <v>33283.022545252767</v>
       </c>
-      <c r="AX14">
+      <c r="AX14" s="2">
         <v>2</v>
       </c>
-      <c r="AY14">
+      <c r="AY14" s="2">
         <v>2</v>
       </c>
-      <c r="AZ14">
+      <c r="AZ14" s="2">
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -3180,7 +3193,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q15">
         <v>0</v>
@@ -3207,22 +3220,22 @@
         <v>0</v>
       </c>
       <c r="Y15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AA15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AB15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AC15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AD15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AE15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -3231,10 +3244,10 @@
         <v>1961.3796428571441</v>
       </c>
       <c r="AH15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AI15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AJ15">
         <v>29</v>
@@ -3287,7 +3300,7 @@
     </row>
     <row r="16" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B16">
         <v>15541.84</v>
@@ -3332,7 +3345,7 @@
         <v>-2056.9881657366982</v>
       </c>
       <c r="P16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q16">
         <v>10112.78285714286</v>
@@ -3359,22 +3372,22 @@
         <v>-1.271647688389471</v>
       </c>
       <c r="Y16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AA16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AB16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AC16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AD16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AE16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AF16">
         <v>-1177.936071428571</v>
@@ -3383,10 +3396,10 @@
         <v>1961.3796428571441</v>
       </c>
       <c r="AH16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AI16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AJ16">
         <v>84</v>
@@ -3442,7 +3455,7 @@
     </row>
     <row r="17" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -3487,7 +3500,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q17">
         <v>468.76714285714291</v>
@@ -3514,22 +3527,22 @@
         <v>37.727653610344987</v>
       </c>
       <c r="Y17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AA17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AB17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AC17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AD17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AE17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AF17">
         <v>273.97535714285709</v>
@@ -3538,10 +3551,10 @@
         <v>1961.3796428571441</v>
       </c>
       <c r="AH17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AI17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AJ17">
         <v>7</v>
@@ -3597,7 +3610,7 @@
     </row>
     <row r="18" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -3642,7 +3655,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Q18">
         <v>0</v>
@@ -3669,22 +3682,22 @@
         <v>-3.3920299784563319</v>
       </c>
       <c r="Y18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AA18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AB18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AC18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AD18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AE18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AF18">
         <v>0</v>
@@ -3693,10 +3706,10 @@
         <v>1961.3796428571441</v>
       </c>
       <c r="AH18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AI18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AJ18">
         <v>58</v>
@@ -3749,7 +3762,7 @@
     </row>
     <row r="19" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B19">
         <v>15541.84</v>
@@ -3794,7 +3807,7 @@
         <v>-315.17256771573921</v>
       </c>
       <c r="P19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q19">
         <v>10655.724285714279</v>
@@ -3821,22 +3834,22 @@
         <v>-0.6436725323608592</v>
       </c>
       <c r="Y19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AA19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AB19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AC19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AD19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AE19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AF19">
         <v>-885.41714285714284</v>
@@ -3845,10 +3858,10 @@
         <v>1961.3796428571441</v>
       </c>
       <c r="AH19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AI19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AJ19">
         <v>82</v>
@@ -3904,7 +3917,7 @@
     </row>
     <row r="20" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B20">
         <v>16000</v>
@@ -3949,7 +3962,7 @@
         <v>274.45675527682403</v>
       </c>
       <c r="P20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q20">
         <v>16171.428571428571</v>
@@ -3976,22 +3989,22 @@
         <v>1.679222761612046E-2</v>
       </c>
       <c r="Y20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AA20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AB20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AC20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AD20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AE20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AF20">
         <v>68.571428571428569</v>
@@ -4000,10 +4013,10 @@
         <v>1961.3796428571441</v>
       </c>
       <c r="AH20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AI20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AJ20">
         <v>18</v>
@@ -4059,7 +4072,7 @@
     </row>
     <row r="21" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B21">
         <v>123.45</v>
@@ -4104,7 +4117,7 @@
         <v>32.611008990615353</v>
       </c>
       <c r="P21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q21">
         <v>110.9057142857143</v>
@@ -4131,22 +4144,22 @@
         <v>0.79104174378796277</v>
       </c>
       <c r="Y21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AA21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AB21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AC21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AD21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AE21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AF21">
         <v>5.0453571428571431</v>
@@ -4155,10 +4168,10 @@
         <v>1961.3796428571441</v>
       </c>
       <c r="AH21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AI21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AJ21">
         <v>25</v>
@@ -4214,7 +4227,7 @@
     </row>
     <row r="22" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B22">
         <v>737</v>
@@ -4259,7 +4272,7 @@
         <v>13.55951783921091</v>
       </c>
       <c r="P22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q22">
         <v>748.57142857142856</v>
@@ -4286,22 +4299,22 @@
         <v>0.1138265093441722</v>
       </c>
       <c r="Y22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AA22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AB22" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AC22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AD22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AE22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AF22">
         <v>5.8928571428571406</v>
@@ -4310,10 +4323,10 @@
         <v>1961.3796428571441</v>
       </c>
       <c r="AH22" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AI22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AJ22">
         <v>26</v>
@@ -4369,7 +4382,7 @@
     </row>
     <row r="23" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B23">
         <v>860.45</v>
@@ -4414,7 +4427,7 @@
         <v>46.170526829826372</v>
       </c>
       <c r="P23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q23">
         <v>859.47714285714278</v>
@@ -4441,22 +4454,22 @@
         <v>0.1991051116611765</v>
       </c>
       <c r="Y23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AA23" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AB23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AC23" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AD23" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AE23" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AF23">
         <v>10.938214285714279</v>
@@ -4465,10 +4478,10 @@
         <v>1961.3796428571441</v>
       </c>
       <c r="AH23" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AI23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AJ23">
         <v>21</v>
@@ -4524,7 +4537,7 @@
     </row>
     <row r="24" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B24">
         <v>711.34</v>
@@ -4569,7 +4582,7 @@
         <v>-151.40510900150011</v>
       </c>
       <c r="P24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q24">
         <v>431.99571428571431</v>
@@ -4596,22 +4609,22 @@
         <v>-0.83144217209631455</v>
       </c>
       <c r="Y24" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AA24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AB24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AC24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AD24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AE24" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AF24">
         <v>-40.23214285714284</v>
@@ -4620,10 +4633,10 @@
         <v>1961.3796428571441</v>
       </c>
       <c r="AH24" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AI24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AJ24">
         <v>60</v>
@@ -4679,7 +4692,7 @@
     </row>
     <row r="25" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B25">
         <v>204.97</v>
@@ -4724,7 +4737,7 @@
         <v>6.4611216039907049E-3</v>
       </c>
       <c r="P25" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q25">
         <v>204.9914285714286</v>
@@ -4751,22 +4764,22 @@
         <v>1.6547294884888269E-4</v>
       </c>
       <c r="Y25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AA25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AB25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AC25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AD25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AE25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AF25">
         <v>5.3571428571430584E-3</v>
@@ -4775,10 +4788,10 @@
         <v>1961.3796428571441</v>
       </c>
       <c r="AH25" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AI25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AJ25">
         <v>28</v>
@@ -4834,7 +4847,7 @@
     </row>
     <row r="26" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B26">
         <v>2937.12</v>
@@ -4879,7 +4892,7 @@
         <v>71.915700861444293</v>
       </c>
       <c r="P26" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q26">
         <v>2261.2434295529679</v>
@@ -4906,22 +4919,22 @@
         <v>2.7730879719458019</v>
       </c>
       <c r="Y26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AA26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AB26" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AC26" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AD26" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AE26" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AF26">
         <v>13.268928571428591</v>
@@ -4930,10 +4943,10 @@
         <v>1961.3796428571441</v>
       </c>
       <c r="AH26" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AI26" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AJ26">
         <v>8</v>
@@ -4989,7 +5002,7 @@
     </row>
     <row r="27" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B27">
         <v>967.37</v>
@@ -5034,7 +5047,7 @@
         <v>53.080394134513647</v>
       </c>
       <c r="P27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q27">
         <v>650.21714285714279</v>
@@ -5061,22 +5074,22 @@
         <v>-1.6731471443751329</v>
       </c>
       <c r="Y27" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AA27" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AB27" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AC27" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AD27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AE27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AF27">
         <v>-72.619285714285709</v>
@@ -5085,10 +5098,10 @@
         <v>1961.3796428571441</v>
       </c>
       <c r="AH27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AI27" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AJ27">
         <v>68</v>
@@ -5144,7 +5157,7 @@
     </row>
     <row r="28" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B28">
         <v>940.88</v>
@@ -5189,7 +5202,7 @@
         <v>-148.9612679696574</v>
       </c>
       <c r="P28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q28">
         <v>506.45428571428579</v>
@@ -5216,22 +5229,22 @@
         <v>-1.735735836376129</v>
       </c>
       <c r="Y28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AA28" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AB28" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AC28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AD28" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AE28" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AF28">
         <v>-143.9014285714286</v>
@@ -5240,10 +5253,10 @@
         <v>1961.3796428571441</v>
       </c>
       <c r="AH28" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AI28" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AJ28">
         <v>66</v>
@@ -5299,7 +5312,7 @@
     </row>
     <row r="29" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B29">
         <v>4545.8599999999997</v>
@@ -5344,7 +5357,7 @@
         <v>-156.97727978919971</v>
       </c>
       <c r="P29" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q29">
         <v>4062.1528571428571</v>
@@ -5371,22 +5384,22 @@
         <v>-0.13726888342751051</v>
       </c>
       <c r="Y29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AA29" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AB29" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AC29" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AD29" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AE29" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AF29">
         <v>-125.4935714285714</v>
@@ -5395,10 +5408,10 @@
         <v>1961.3796428571441</v>
       </c>
       <c r="AH29" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AI29" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AJ29">
         <v>62</v>
@@ -5454,7 +5467,7 @@
     </row>
     <row r="30" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B30">
         <v>1250.69</v>
@@ -5499,7 +5512,7 @@
         <v>32.555259097389921</v>
       </c>
       <c r="P30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q30">
         <v>1079.7942857142859</v>
@@ -5526,22 +5539,22 @@
         <v>-0.98927078706878546</v>
       </c>
       <c r="Y30" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AA30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AB30" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AC30" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AD30" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AE30" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AF30">
         <v>-11.69250000000001</v>
@@ -5550,10 +5563,10 @@
         <v>1961.3796428571441</v>
       </c>
       <c r="AH30" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AI30" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AJ30">
         <v>67</v>
@@ -5609,7 +5622,7 @@
     </row>
     <row r="31" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B31">
         <v>6737.43</v>
@@ -5654,7 +5667,7 @@
         <v>-273.3832886614673</v>
       </c>
       <c r="P31" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q31">
         <v>5648.4014285714284</v>
@@ -5681,22 +5694,22 @@
         <v>-0.45562439694761558</v>
       </c>
       <c r="Y31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AA31" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AB31" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AC31" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AD31" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AE31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AF31">
         <v>-281.08749999999998</v>
@@ -5705,10 +5718,10 @@
         <v>1961.3796428571441</v>
       </c>
       <c r="AH31" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AI31" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AJ31">
         <v>74</v>
@@ -5764,7 +5777,7 @@
     </row>
     <row r="32" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -5809,7 +5822,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q32">
         <v>2.9042857142857139</v>
@@ -5836,22 +5849,22 @@
         <v>-3.3920299784563319</v>
       </c>
       <c r="Y32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AA32" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AB32" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AC32" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AD32" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AE32" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AF32">
         <v>-0.12821428571428581</v>
@@ -5860,10 +5873,10 @@
         <v>1961.3796428571441</v>
       </c>
       <c r="AH32" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AI32" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AJ32">
         <v>45</v>
@@ -5919,7 +5932,7 @@
     </row>
     <row r="33" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -5964,7 +5977,7 @@
         <v>-89.274696330587261</v>
       </c>
       <c r="P33" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q33">
         <v>133.93571428571431</v>
@@ -5991,22 +6004,22 @@
         <v>-0.98923252189075894</v>
       </c>
       <c r="Y33" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AA33" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AB33" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AC33" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AD33" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AE33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AF33">
         <v>35.607142857142847</v>
@@ -6015,10 +6028,10 @@
         <v>1961.3796428571441</v>
       </c>
       <c r="AH33" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AI33" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AJ33">
         <v>54</v>
@@ -6074,7 +6087,7 @@
     </row>
     <row r="34" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B34">
         <v>539.88</v>
@@ -6119,7 +6132,7 @@
         <v>41.371880553146298</v>
       </c>
       <c r="P34" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q34">
         <v>267.69571428571442</v>
@@ -6146,22 +6159,22 @@
         <v>-0.36757751168686092</v>
       </c>
       <c r="Y34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AA34" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AB34" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AC34" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AD34" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AE34" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AF34">
         <v>-29.746428571428559</v>
@@ -6170,10 +6183,10 @@
         <v>1961.3796428571441</v>
       </c>
       <c r="AH34" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AI34" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AJ34">
         <v>51</v>
@@ -6229,7 +6242,7 @@
     </row>
     <row r="35" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -6274,7 +6287,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q35">
         <v>0</v>
@@ -6301,22 +6314,22 @@
         <v>0</v>
       </c>
       <c r="Y35" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AA35" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AB35" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AC35" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AD35" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AE35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AF35">
         <v>0</v>
@@ -6325,10 +6338,10 @@
         <v>1961.3796428571441</v>
       </c>
       <c r="AH35" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AI35" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AJ35">
         <v>29</v>
@@ -6381,7 +6394,7 @@
     </row>
     <row r="36" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B36">
         <v>5307.36</v>
@@ -6426,7 +6439,7 @@
         <v>-107.1996050261087</v>
       </c>
       <c r="P36" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q36">
         <v>6968.4257142857141</v>
@@ -6453,22 +6466,22 @@
         <v>-0.1122943184614088</v>
       </c>
       <c r="Y36" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AA36" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AB36" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AC36" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AD36" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AE36" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AF36">
         <v>259.93249999999989</v>
@@ -6477,10 +6490,10 @@
         <v>1961.3796428571441</v>
       </c>
       <c r="AH36" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AI36" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AJ36">
         <v>64</v>
@@ -6536,7 +6549,7 @@
     </row>
     <row r="37" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B37">
         <v>264.38</v>
@@ -6581,7 +6594,7 @@
         <v>-34.618151051206837</v>
       </c>
       <c r="P37" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q37">
         <v>179.91142857142859</v>
@@ -6608,22 +6621,22 @@
         <v>1.0350088959573731</v>
       </c>
       <c r="Y37" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AA37" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AB37" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AC37" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AD37" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AE37" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AF37">
         <v>32.56642857142856</v>
@@ -6632,10 +6645,10 @@
         <v>1961.3796428571441</v>
       </c>
       <c r="AH37" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AI37" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AJ37">
         <v>20</v>
@@ -6691,7 +6704,7 @@
     </row>
     <row r="38" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -6736,7 +6749,7 @@
         <v>2751.8338150890131</v>
       </c>
       <c r="P38" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q38">
         <v>1737.778571428571</v>
@@ -6763,22 +6776,22 @@
         <v>6.5790910992588811</v>
       </c>
       <c r="Y38" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AA38" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AB38" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AC38" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AD38" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AE38" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AF38">
         <v>863.01607142857119</v>
@@ -6787,10 +6800,10 @@
         <v>1961.3796428571441</v>
       </c>
       <c r="AH38" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AI38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AJ38">
         <v>4</v>
@@ -6846,7 +6859,7 @@
     </row>
     <row r="39" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -6891,7 +6904,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Q39">
         <v>1000</v>
@@ -6918,22 +6931,22 @@
         <v>0</v>
       </c>
       <c r="Y39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AA39" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AB39" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AC39" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AD39" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AE39" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AF39">
         <v>0</v>
@@ -6942,10 +6955,10 @@
         <v>1961.3796428571441</v>
       </c>
       <c r="AH39" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AI39" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AJ39">
         <v>9</v>
@@ -7001,7 +7014,7 @@
     </row>
     <row r="40" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B40">
         <v>5571.74</v>
@@ -7046,7 +7059,7 @@
         <v>3233.4275829727871</v>
       </c>
       <c r="P40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q40">
         <v>9028.9728571428586</v>
@@ -7073,22 +7086,22 @@
         <v>1.375174822985755</v>
       </c>
       <c r="Y40" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AA40" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AB40" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AC40" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AD40" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AE40" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AF40">
         <v>1262.657857142857</v>
@@ -7097,10 +7110,10 @@
         <v>1961.3796428571441</v>
       </c>
       <c r="AH40" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AI40" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AJ40">
         <v>3</v>
@@ -7156,7 +7169,7 @@
     </row>
     <row r="41" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -7201,7 +7214,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q41">
         <v>0</v>
@@ -7228,22 +7241,22 @@
         <v>0</v>
       </c>
       <c r="Y41" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AA41" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AB41" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AC41" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AD41" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AE41" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AF41">
         <v>0</v>
@@ -7252,10 +7265,10 @@
         <v>1961.3796428571441</v>
       </c>
       <c r="AH41" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AI41" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AJ41">
         <v>29</v>
@@ -7308,7 +7321,7 @@
     </row>
     <row r="42" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B42">
         <v>76.099999999999994</v>
@@ -7353,7 +7366,7 @@
         <v>0.7419794819770047</v>
       </c>
       <c r="P42" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q42">
         <v>77.102857142857147</v>
@@ -7380,22 +7393,22 @@
         <v>-0.66660465604606334</v>
       </c>
       <c r="Y42" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AA42" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AB42" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AC42" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AD42" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AE42" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AF42">
         <v>-1.6532142857142851</v>
@@ -7404,10 +7417,10 @@
         <v>1961.3796428571441</v>
       </c>
       <c r="AH42" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AI42" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AJ42">
         <v>46</v>
@@ -7463,7 +7476,7 @@
     </row>
     <row r="43" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B43">
         <v>157.29</v>
@@ -7508,7 +7521,7 @@
         <v>38.521147912609003</v>
       </c>
       <c r="P43" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q43">
         <v>166.12</v>
@@ -7535,22 +7548,22 @@
         <v>1.3324291701421249</v>
       </c>
       <c r="Y43" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AA43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AB43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AC43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AD43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AE43" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AF43">
         <v>6.6214285714285754</v>
@@ -7559,10 +7572,10 @@
         <v>1961.3796428571441</v>
       </c>
       <c r="AH43" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AI43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AJ43">
         <v>19</v>
@@ -7618,7 +7631,7 @@
     </row>
     <row r="44" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B44">
         <v>233.39</v>
@@ -7663,7 +7676,7 @@
         <v>39.263127394585979</v>
       </c>
       <c r="P44" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q44">
         <v>243.22285714285709</v>
@@ -7690,22 +7703,22 @@
         <v>0.66223595125059942</v>
       </c>
       <c r="Y44" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AA44" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AB44" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AC44" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AD44" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AE44" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AF44">
         <v>4.9682142857142857</v>
@@ -7714,10 +7727,10 @@
         <v>1961.3796428571441</v>
       </c>
       <c r="AH44" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AI44" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AJ44">
         <v>22</v>
@@ -7773,7 +7786,7 @@
     </row>
     <row r="45" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B45">
         <v>5998.14</v>
@@ -7818,7 +7831,7 @@
         <v>-1425.9402149234959</v>
       </c>
       <c r="P45" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q45">
         <v>3110.681428571429</v>
@@ -7845,22 +7858,22 @@
         <v>-1.2961702010802241</v>
       </c>
       <c r="Y45" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AA45" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AB45" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AC45" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AD45" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AE45" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AF45">
         <v>-555.7285714285714</v>
@@ -7869,10 +7882,10 @@
         <v>1961.3796428571441</v>
       </c>
       <c r="AH45" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AI45" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AJ45">
         <v>78</v>
@@ -7928,7 +7941,7 @@
     </row>
     <row r="46" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B46">
         <v>579.63</v>
@@ -7973,7 +7986,7 @@
         <v>-260.88820098819701</v>
       </c>
       <c r="P46" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q46">
         <v>218.54142857142861</v>
@@ -8000,22 +8013,22 @@
         <v>-3.3920299784563319</v>
       </c>
       <c r="Y46" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AA46" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AB46" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AC46" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AD46" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AE46" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AF46">
         <v>-101.0685714285714</v>
@@ -8024,10 +8037,10 @@
         <v>1961.3796428571441</v>
       </c>
       <c r="AH46" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AI46" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AJ46">
         <v>65</v>
@@ -8083,7 +8096,7 @@
     </row>
     <row r="47" spans="1:52" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B47" s="2">
         <v>3691.42</v>
@@ -8128,7 +8141,7 @@
         <v>47.684091794763837</v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q47" s="2">
         <v>6127.244285714286</v>
@@ -8155,22 +8168,22 @@
         <v>-0.22061483450996919</v>
       </c>
       <c r="Y47" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AA47" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AB47" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AC47" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AD47" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AE47" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AF47" s="2">
         <v>232.0196428571428</v>
@@ -8179,10 +8192,10 @@
         <v>1961.3796428571441</v>
       </c>
       <c r="AH47" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AI47" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AJ47" s="2">
         <v>69</v>
@@ -8238,7 +8251,7 @@
     </row>
     <row r="48" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B48">
         <v>10269.19</v>
@@ -8283,7 +8296,7 @@
         <v>-1639.14432411693</v>
       </c>
       <c r="P48" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q48">
         <v>9456.4671428571437</v>
@@ -8310,22 +8323,22 @@
         <v>-0.6674296809809217</v>
       </c>
       <c r="Y48" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AA48" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AB48" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AC48" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AD48" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AE48" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AF48">
         <v>-424.77749999999997</v>
@@ -8334,10 +8347,10 @@
         <v>1961.3796428571441</v>
       </c>
       <c r="AH48" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AI48" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AJ48">
         <v>80</v>
@@ -8393,7 +8406,7 @@
     </row>
     <row r="49" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B49">
         <v>396.58</v>
@@ -8438,7 +8451,7 @@
         <v>0</v>
       </c>
       <c r="P49" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Q49">
         <v>0</v>
@@ -8465,22 +8478,22 @@
         <v>-3.3920299784563319</v>
       </c>
       <c r="Y49" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AA49" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AB49" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AC49" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AD49" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AE49" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AF49">
         <v>0</v>
@@ -8489,10 +8502,10 @@
         <v>1961.3796428571441</v>
       </c>
       <c r="AH49" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AI49" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AJ49">
         <v>57</v>
@@ -8545,7 +8558,7 @@
     </row>
     <row r="50" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -8590,7 +8603,7 @@
         <v>0</v>
       </c>
       <c r="P50" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q50">
         <v>0</v>
@@ -8617,22 +8630,22 @@
         <v>0</v>
       </c>
       <c r="Y50" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AA50" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AB50" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AC50" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AD50" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AE50" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AF50">
         <v>0</v>
@@ -8641,10 +8654,10 @@
         <v>1961.3796428571441</v>
       </c>
       <c r="AH50" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AI50" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AJ50">
         <v>29</v>
@@ -8697,7 +8710,7 @@
     </row>
     <row r="51" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B51">
         <v>1488.66</v>
@@ -8742,7 +8755,7 @@
         <v>228.7566415068502</v>
       </c>
       <c r="P51" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q51">
         <v>1402.012857142857</v>
@@ -8769,22 +8782,22 @@
         <v>0.59723716648396452</v>
       </c>
       <c r="Y51" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AA51" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AB51" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AC51" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AD51" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AE51" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AF51">
         <v>27.000357142857141</v>
@@ -8793,10 +8806,10 @@
         <v>1961.3796428571441</v>
       </c>
       <c r="AH51" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AI51" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AJ51">
         <v>11</v>
@@ -8852,7 +8865,7 @@
     </row>
     <row r="52" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B52">
         <v>578.99</v>
@@ -8897,7 +8910,7 @@
         <v>225.9904146809495</v>
       </c>
       <c r="P52" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q52">
         <v>653.05571428571432</v>
@@ -8924,22 +8937,22 @@
         <v>-3.3920299784563319</v>
       </c>
       <c r="Y52" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AA52" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AB52" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AC52" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AD52" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AE52" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AF52">
         <v>-69.131071428571417</v>
@@ -8948,10 +8961,10 @@
         <v>1961.3796428571441</v>
       </c>
       <c r="AH52" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AI52" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AJ52">
         <v>73</v>
@@ -9007,7 +9020,7 @@
     </row>
     <row r="53" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B53">
         <v>2067.65</v>
@@ -9052,7 +9065,7 @@
         <v>454.74705618779922</v>
       </c>
       <c r="P53" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q53">
         <v>2055.068571428571</v>
@@ -9079,22 +9092,22 @@
         <v>-0.830045922182578</v>
       </c>
       <c r="Y53" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AA53" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AB53" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AC53" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AD53" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AE53" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AF53">
         <v>-42.130714285714298</v>
@@ -9103,10 +9116,10 @@
         <v>1961.3796428571441</v>
       </c>
       <c r="AH53" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AI53" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AJ53">
         <v>70</v>
@@ -9162,7 +9175,7 @@
     </row>
     <row r="54" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B54">
         <v>799</v>
@@ -9207,7 +9220,7 @@
         <v>-122.1261203342749</v>
       </c>
       <c r="P54" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q54">
         <v>285.57142857142861</v>
@@ -9234,22 +9247,22 @@
         <v>-1.129419653749496</v>
       </c>
       <c r="Y54" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AA54" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AB54" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AC54" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AD54" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AE54" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AF54">
         <v>-64.178571428571388</v>
@@ -9258,10 +9271,10 @@
         <v>1961.3796428571441</v>
       </c>
       <c r="AH54" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AI54" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AJ54">
         <v>59</v>
@@ -9317,7 +9330,7 @@
     </row>
     <row r="55" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B55">
         <v>325.63</v>
@@ -9362,7 +9375,7 @@
         <v>1.853001711907041</v>
       </c>
       <c r="P55" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q55">
         <v>184.88714285714289</v>
@@ -9389,22 +9402,22 @@
         <v>0.60589434644578333</v>
       </c>
       <c r="Y55" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AA55" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AB55" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AC55" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AD55" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AE55" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AF55">
         <v>-34.335357142857141</v>
@@ -9413,10 +9426,10 @@
         <v>1961.3796428571441</v>
       </c>
       <c r="AH55" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AI55" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AJ55">
         <v>24</v>
@@ -9472,7 +9485,7 @@
     </row>
     <row r="56" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -9517,7 +9530,7 @@
         <v>0</v>
       </c>
       <c r="P56" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Q56">
         <v>0</v>
@@ -9544,22 +9557,22 @@
         <v>-3.3920299784563319</v>
       </c>
       <c r="Y56" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AA56" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AB56" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AC56" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AD56" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AE56" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AF56">
         <v>0</v>
@@ -9568,10 +9581,10 @@
         <v>1961.3796428571441</v>
       </c>
       <c r="AH56" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AI56" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AJ56">
         <v>47</v>
@@ -9624,7 +9637,7 @@
     </row>
     <row r="57" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -9669,7 +9682,7 @@
         <v>0</v>
       </c>
       <c r="P57" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q57">
         <v>0.73428571428571432</v>
@@ -9696,22 +9709,22 @@
         <v>-3.3920299784563319</v>
       </c>
       <c r="Y57" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AA57" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AB57" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AC57" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AD57" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AE57" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AF57">
         <v>-5.2857142857142832E-2</v>
@@ -9720,10 +9733,10 @@
         <v>1961.3796428571441</v>
       </c>
       <c r="AH57" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AI57" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AJ57">
         <v>44</v>
@@ -9779,7 +9792,7 @@
     </row>
     <row r="58" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -9824,7 +9837,7 @@
         <v>-23.442910162398061</v>
       </c>
       <c r="P58" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q58">
         <v>14.30428571428571</v>
@@ -9851,22 +9864,22 @@
         <v>-3.3920299784563319</v>
       </c>
       <c r="Y58" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AA58" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AB58" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AC58" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AD58" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AE58" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AF58">
         <v>-5.2857142857142568E-2</v>
@@ -9875,10 +9888,10 @@
         <v>1961.3796428571441</v>
       </c>
       <c r="AH58" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AI58" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AJ58">
         <v>49</v>
@@ -9934,7 +9947,7 @@
     </row>
     <row r="59" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B59">
         <v>1333.34</v>
@@ -9979,7 +9992,7 @@
         <v>25.627627573565629</v>
       </c>
       <c r="P59" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q59">
         <v>666.67</v>
@@ -10006,22 +10019,22 @@
         <v>0</v>
       </c>
       <c r="Y59" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AA59" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AB59" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AC59" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AD59" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AE59" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AF59">
         <v>-71.428928571428543</v>
@@ -10030,10 +10043,10 @@
         <v>1961.3796428571441</v>
       </c>
       <c r="AH59" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AI59" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AJ59">
         <v>29</v>
@@ -10089,7 +10102,7 @@
     </row>
     <row r="60" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -10134,7 +10147,7 @@
         <v>0</v>
       </c>
       <c r="P60" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Q60">
         <v>0</v>
@@ -10161,22 +10174,22 @@
         <v>-3.3920299784563319</v>
       </c>
       <c r="Y60" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AA60" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AB60" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AC60" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AD60" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AE60" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AF60">
         <v>0</v>
@@ -10185,10 +10198,10 @@
         <v>1961.3796428571441</v>
       </c>
       <c r="AH60" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AI60" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AJ60">
         <v>55</v>
@@ -10241,7 +10254,7 @@
     </row>
     <row r="61" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -10286,7 +10299,7 @@
         <v>-822.60187597640152</v>
       </c>
       <c r="P61" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q61">
         <v>1741.1428571428571</v>
@@ -10313,22 +10326,22 @@
         <v>-1.3568119913825329</v>
       </c>
       <c r="Y61" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AA61" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AB61" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AC61" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AD61" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AE61" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AF61">
         <v>870.57142857142856</v>
@@ -10337,10 +10350,10 @@
         <v>1961.3796428571441</v>
       </c>
       <c r="AH61" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AI61" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AJ61">
         <v>72</v>
@@ -10396,7 +10409,7 @@
     </row>
     <row r="62" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -10441,7 +10454,7 @@
         <v>-761.06871423527832</v>
       </c>
       <c r="P62" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q62">
         <v>1778.937142857143</v>
@@ -10468,25 +10481,25 @@
         <v>-1.4042741468702951</v>
       </c>
       <c r="Y62" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Z62">
         <v>2</v>
       </c>
       <c r="AA62" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AB62" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AC62" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AD62" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AE62" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AF62">
         <v>880.02</v>
@@ -10495,10 +10508,10 @@
         <v>1961.3796428571441</v>
       </c>
       <c r="AH62" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AI62" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AJ62">
         <v>75</v>
@@ -10554,7 +10567,7 @@
     </row>
     <row r="63" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B63">
         <v>2648.43</v>
@@ -10599,7 +10612,7 @@
         <v>359.51079800695169</v>
       </c>
       <c r="P63" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q63">
         <v>1486.4228571428571</v>
@@ -10626,22 +10639,22 @@
         <v>-0.1052869481137594</v>
       </c>
       <c r="Y63" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AA63" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AB63" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AC63" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AD63" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AE63" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AF63">
         <v>-69.69857142857137</v>
@@ -10650,10 +10663,10 @@
         <v>1961.3796428571441</v>
       </c>
       <c r="AH63" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AI63" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AJ63">
         <v>56</v>
@@ -10709,7 +10722,7 @@
     </row>
     <row r="64" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B64">
         <v>380.77</v>
@@ -10754,7 +10767,7 @@
         <v>-16.21869153602438</v>
       </c>
       <c r="P64" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q64">
         <v>307.10000000000002</v>
@@ -10781,22 +10794,22 @@
         <v>-0.33125782014400418</v>
       </c>
       <c r="Y64" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AA64" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AB64" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AC64" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AD64" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AE64" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AF64">
         <v>-10.21535714285714</v>
@@ -10805,10 +10818,10 @@
         <v>1961.3796428571441</v>
       </c>
       <c r="AH64" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AI64" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AJ64">
         <v>52</v>
@@ -10864,7 +10877,7 @@
     </row>
     <row r="65" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B65">
         <v>172</v>
@@ -10909,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="P65" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Q65">
         <v>0</v>
@@ -10936,22 +10949,22 @@
         <v>-3.3920299784563319</v>
       </c>
       <c r="Y65" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AA65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AB65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AC65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AD65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AE65" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AF65">
         <v>0</v>
@@ -10960,10 +10973,10 @@
         <v>1961.3796428571441</v>
       </c>
       <c r="AH65" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AI65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AJ65">
         <v>50</v>
@@ -11016,7 +11029,7 @@
     </row>
     <row r="66" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B66">
         <v>700</v>
@@ -11061,7 +11074,7 @@
         <v>340.19447671103808</v>
       </c>
       <c r="P66" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q66">
         <v>707.14285714285711</v>
@@ -11088,22 +11101,22 @@
         <v>1.130676659485444</v>
       </c>
       <c r="Y66" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AA66" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AB66" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AC66" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AD66" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AE66" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AF66">
         <v>48.214285714285708</v>
@@ -11112,10 +11125,10 @@
         <v>1961.3796428571441</v>
       </c>
       <c r="AH66" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AI66" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AJ66">
         <v>12</v>
@@ -11171,7 +11184,7 @@
     </row>
     <row r="67" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -11216,7 +11229,7 @@
         <v>0</v>
       </c>
       <c r="P67" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q67">
         <v>0</v>
@@ -11243,22 +11256,22 @@
         <v>0</v>
       </c>
       <c r="Y67" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AA67" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AB67" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AC67" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AD67" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AE67" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AF67">
         <v>0</v>
@@ -11267,10 +11280,10 @@
         <v>1961.3796428571441</v>
       </c>
       <c r="AH67" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AI67" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AJ67">
         <v>29</v>
@@ -11323,7 +11336,7 @@
     </row>
     <row r="68" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B68">
         <v>100</v>
@@ -11368,7 +11381,7 @@
         <v>0</v>
       </c>
       <c r="P68" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Q68">
         <v>0</v>
@@ -11395,22 +11408,22 @@
         <v>-3.3920299784563319</v>
       </c>
       <c r="Y68" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AA68" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AB68" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AC68" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AD68" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AE68" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AF68">
         <v>0</v>
@@ -11419,10 +11432,10 @@
         <v>1961.3796428571441</v>
       </c>
       <c r="AH68" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AI68" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AJ68">
         <v>48</v>
@@ -11475,7 +11488,7 @@
     </row>
     <row r="69" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B69">
         <v>6967.81</v>
@@ -11520,7 +11533,7 @@
         <v>0</v>
       </c>
       <c r="P69" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Q69">
         <v>0</v>
@@ -11547,22 +11560,22 @@
         <v>-3.3920299784563319</v>
       </c>
       <c r="Y69" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AA69" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AB69" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AC69" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AD69" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AE69" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AF69">
         <v>0</v>
@@ -11571,10 +11584,10 @@
         <v>1961.3796428571441</v>
       </c>
       <c r="AH69" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AI69" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AJ69">
         <v>76</v>
@@ -11627,7 +11640,7 @@
     </row>
     <row r="70" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -11672,7 +11685,7 @@
         <v>0</v>
       </c>
       <c r="P70" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Q70">
         <v>0</v>
@@ -11699,22 +11712,22 @@
         <v>-3.3920299784563319</v>
       </c>
       <c r="Y70" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AA70" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AB70" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AC70" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AD70" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AE70" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AF70">
         <v>0</v>
@@ -11723,10 +11736,10 @@
         <v>1961.3796428571441</v>
       </c>
       <c r="AH70" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AI70" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AJ70">
         <v>53</v>
@@ -11779,7 +11792,7 @@
     </row>
     <row r="71" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -11824,7 +11837,7 @@
         <v>0</v>
       </c>
       <c r="P71" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Q71">
         <v>20</v>
@@ -11851,22 +11864,22 @@
         <v>0</v>
       </c>
       <c r="Y71" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AA71" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AB71" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AC71" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AD71" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AE71" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AF71">
         <v>0</v>
@@ -11875,10 +11888,10 @@
         <v>1961.3796428571441</v>
       </c>
       <c r="AH71" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AI71" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AJ71">
         <v>27</v>
@@ -11934,7 +11947,7 @@
     </row>
     <row r="72" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B72">
         <v>7067.81</v>
@@ -11979,7 +11992,7 @@
         <v>-1477.0053926849</v>
       </c>
       <c r="P72" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q72">
         <v>1041.1157142857139</v>
@@ -12006,25 +12019,25 @@
         <v>-3.3360236165103321</v>
       </c>
       <c r="Y72" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Z72">
         <v>1</v>
       </c>
       <c r="AA72" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AB72" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AC72" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AD72" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AE72" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AF72">
         <v>-755.12250000000017</v>
@@ -12033,10 +12046,10 @@
         <v>1961.3796428571441</v>
       </c>
       <c r="AH72" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AI72" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AJ72">
         <v>77</v>
@@ -12092,7 +12105,7 @@
     </row>
     <row r="73" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B73">
         <v>125</v>
@@ -12137,7 +12150,7 @@
         <v>0</v>
       </c>
       <c r="P73" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q73">
         <v>35.714285714285722</v>
@@ -12164,22 +12177,22 @@
         <v>16.96014989228166</v>
       </c>
       <c r="Y73" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AA73" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AB73" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AC73" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AD73" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AE73" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AF73">
         <v>5.3711982134420168E-15</v>
@@ -12188,10 +12201,10 @@
         <v>1961.3796428571441</v>
       </c>
       <c r="AH73" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AI73" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AJ73">
         <v>14</v>
@@ -12247,7 +12260,7 @@
     </row>
     <row r="74" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B74">
         <v>14421.21</v>
@@ -12292,7 +12305,7 @@
         <v>782.12443028780945</v>
       </c>
       <c r="P74" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q74">
         <v>12104.231428571429</v>
@@ -12319,22 +12332,22 @@
         <v>0.58996739295425082</v>
       </c>
       <c r="Y74" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AA74" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AB74" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AC74" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AD74" t="s">
+        <v>160</v>
+      </c>
+      <c r="AE74" t="s">
         <v>161</v>
-      </c>
-      <c r="AE74" t="s">
-        <v>162</v>
       </c>
       <c r="AF74">
         <v>-252.53571428571411</v>
@@ -12343,10 +12356,10 @@
         <v>1961.3796428571441</v>
       </c>
       <c r="AH74" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AI74" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AJ74">
         <v>6</v>
@@ -12402,7 +12415,7 @@
     </row>
     <row r="75" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B75">
         <v>14546.21</v>
@@ -12447,7 +12460,7 @@
         <v>834.56545335091687</v>
       </c>
       <c r="P75" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q75">
         <v>12139.945714285721</v>
@@ -12474,22 +12487,22 @@
         <v>0.61879234685830564</v>
       </c>
       <c r="Y75" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AA75" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AB75" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AC75" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AD75" t="s">
+        <v>160</v>
+      </c>
+      <c r="AE75" t="s">
         <v>161</v>
-      </c>
-      <c r="AE75" t="s">
-        <v>162</v>
       </c>
       <c r="AF75">
         <v>-252.53571428571411</v>
@@ -12498,10 +12511,10 @@
         <v>1961.3796428571441</v>
       </c>
       <c r="AH75" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AI75" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AJ75">
         <v>5</v>
@@ -12557,7 +12570,7 @@
     </row>
     <row r="76" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -12602,7 +12615,7 @@
         <v>0</v>
       </c>
       <c r="P76" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q76">
         <v>0</v>
@@ -12629,22 +12642,22 @@
         <v>0</v>
       </c>
       <c r="Y76" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AA76" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AB76" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AC76" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AD76" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AE76" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AF76">
         <v>0</v>
@@ -12653,10 +12666,10 @@
         <v>1961.3796428571441</v>
       </c>
       <c r="AH76" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AI76" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AJ76">
         <v>29</v>
@@ -12709,7 +12722,7 @@
     </row>
     <row r="77" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B77">
         <v>604.98</v>
@@ -12754,7 +12767,7 @@
         <v>11.62809345662447</v>
       </c>
       <c r="P77" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q77">
         <v>302.49000000000012</v>
@@ -12781,22 +12794,22 @@
         <v>0</v>
       </c>
       <c r="Y77" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AA77" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AB77" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AC77" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AD77" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AE77" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AF77">
         <v>-32.409642857142863</v>
@@ -12805,10 +12818,10 @@
         <v>1961.3796428571441</v>
       </c>
       <c r="AH77" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AI77" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AJ77">
         <v>29</v>
@@ -12864,7 +12877,7 @@
     </row>
     <row r="78" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B78">
         <v>211.54</v>
@@ -12909,7 +12922,7 @@
         <v>4.0659309230294269</v>
       </c>
       <c r="P78" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q78">
         <v>105.77</v>
@@ -12936,22 +12949,22 @@
         <v>0</v>
       </c>
       <c r="Y78" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AA78" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AB78" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AC78" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AD78" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AE78" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AF78">
         <v>-11.3325</v>
@@ -12960,10 +12973,10 @@
         <v>1961.3796428571441</v>
       </c>
       <c r="AH78" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AI78" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AJ78">
         <v>29</v>
@@ -13019,7 +13032,7 @@
     </row>
     <row r="79" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B79">
         <v>3193.66</v>
@@ -13064,7 +13077,7 @@
         <v>61.384139886745743</v>
       </c>
       <c r="P79" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q79">
         <v>1596.83</v>
@@ -13091,22 +13104,22 @@
         <v>0</v>
       </c>
       <c r="Y79" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AA79" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AB79" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AC79" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AD79" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AE79" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AF79">
         <v>-171.08892857142851</v>
@@ -13115,10 +13128,10 @@
         <v>1961.3796428571441</v>
       </c>
       <c r="AH79" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AI79" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AJ79">
         <v>29</v>
@@ -13174,7 +13187,7 @@
     </row>
     <row r="80" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B80">
         <v>4010.18</v>
@@ -13219,7 +13232,7 @@
         <v>77.078164266399654</v>
       </c>
       <c r="P80" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q80">
         <v>2005.09</v>
@@ -13246,22 +13259,22 @@
         <v>0</v>
       </c>
       <c r="Y80" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AA80" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AB80" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AC80" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AD80" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AE80" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AF80">
         <v>-214.83107142857139</v>
@@ -13270,10 +13283,10 @@
         <v>1961.3796428571441</v>
       </c>
       <c r="AH80" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AI80" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AJ80">
         <v>29</v>
@@ -13329,7 +13342,7 @@
     </row>
     <row r="81" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -13374,7 +13387,7 @@
         <v>0</v>
       </c>
       <c r="P81" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q81">
         <v>0</v>
@@ -13401,22 +13414,22 @@
         <v>0</v>
       </c>
       <c r="Y81" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AA81" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AB81" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AC81" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AD81" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AE81" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AF81">
         <v>0</v>
@@ -13425,10 +13438,10 @@
         <v>1961.3796428571441</v>
       </c>
       <c r="AH81" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AI81" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AJ81">
         <v>29</v>
@@ -13481,7 +13494,7 @@
     </row>
     <row r="82" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B82">
         <v>12470.41</v>
@@ -13526,7 +13539,7 @@
         <v>-1365.4952466825559</v>
       </c>
       <c r="P82" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q82">
         <v>60932.548683050823</v>
@@ -13553,22 +13566,22 @@
         <v>10.811235604628081</v>
       </c>
       <c r="Y82" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AA82" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AB82" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AC82" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AD82" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AE82" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AF82">
         <v>3672.5432142857112</v>
@@ -13577,10 +13590,10 @@
         <v>1961.3796428571441</v>
       </c>
       <c r="AH82" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AI82" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AJ82">
         <v>1</v>
@@ -13636,7 +13649,7 @@
     </row>
     <row r="83" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -13681,7 +13694,7 @@
         <v>0</v>
       </c>
       <c r="P83" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q83">
         <v>0</v>
@@ -13708,22 +13721,22 @@
         <v>0</v>
       </c>
       <c r="Y83" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AA83" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AB83" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AC83" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AD83" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AE83" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AF83">
         <v>0</v>
@@ -13732,10 +13745,10 @@
         <v>1961.3796428571441</v>
       </c>
       <c r="AH83" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AI83" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AJ83">
         <v>29</v>
@@ -13788,7 +13801,7 @@
     </row>
     <row r="84" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -13833,7 +13846,7 @@
         <v>0</v>
       </c>
       <c r="P84" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Q84">
         <v>99</v>
@@ -13860,22 +13873,22 @@
         <v>0</v>
       </c>
       <c r="Y84" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AA84" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AB84" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AC84" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AD84" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AE84" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AF84">
         <v>0</v>
@@ -13884,10 +13897,10 @@
         <v>1961.3796428571441</v>
       </c>
       <c r="AH84" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AI84" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AJ84">
         <v>15</v>
@@ -13943,7 +13956,7 @@
     </row>
     <row r="85" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -13988,7 +14001,7 @@
         <v>0</v>
       </c>
       <c r="P85" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Q85">
         <v>99</v>
@@ -14015,22 +14028,22 @@
         <v>0</v>
       </c>
       <c r="Y85" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AA85" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AB85" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AC85" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AD85" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AE85" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AF85">
         <v>0</v>
@@ -14039,10 +14052,10 @@
         <v>1961.3796428571441</v>
       </c>
       <c r="AH85" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AI85" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AJ85">
         <v>15</v>
@@ -14098,7 +14111,7 @@
     </row>
     <row r="86" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -14143,7 +14156,7 @@
         <v>0</v>
       </c>
       <c r="P86" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Q86">
         <v>99</v>
@@ -14170,22 +14183,22 @@
         <v>0</v>
       </c>
       <c r="Y86" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AA86" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AB86" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AC86" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AD86" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AE86" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AF86">
         <v>0</v>
@@ -14194,10 +14207,10 @@
         <v>1961.3796428571441</v>
       </c>
       <c r="AH86" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AI86" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AJ86">
         <v>15</v>

--- a/public/expense-analysis.xlsx
+++ b/public/expense-analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kotzbauer/expense_management_analytics-RMT-v2/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{06F369E8-E85D-9A47-95C6-DDC1DAC87745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{16460BC0-57D5-AE47-BFD7-DB7D0EB9F925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2920" yWindow="900" windowWidth="25800" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/public/expense-analysis.xlsx
+++ b/public/expense-analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kotzbauer/expense_management_analytics-RMT-v2/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{16460BC0-57D5-AE47-BFD7-DB7D0EB9F925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27EDAFBE-7EE3-3242-902E-53E75FC3B089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2920" yWindow="900" windowWidth="25800" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4440" yWindow="900" windowWidth="25800" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -709,12 +709,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -744,11 +756,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1055,8 +1069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BW86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BQ1" workbookViewId="0">
-      <selection activeCell="BH1" sqref="BH1"/>
+    <sheetView tabSelected="1" topLeftCell="BQ36" workbookViewId="0">
+      <selection activeCell="BV52" sqref="BV52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4014,227 +4028,227 @@
         <v>-23.311395912712161</v>
       </c>
     </row>
-    <row r="14" spans="1:75" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="14" spans="1:75" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
         <v>34271.339999999997</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="2">
         <v>36800.629999999997</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="2">
         <v>34840.75</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="2">
         <v>32894</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="2">
         <v>45882.2</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="2">
         <v>29065.22</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="2">
         <v>28972.19</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="2">
         <v>7</v>
       </c>
-      <c r="J14" t="b">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
+      <c r="J14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2">
         <v>34675.19</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="2">
         <v>0.83379999999999999</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="2">
         <v>-0.6048</v>
       </c>
-      <c r="O14">
+      <c r="O14" s="2">
         <v>500.63840187897591</v>
       </c>
-      <c r="P14" t="s">
+      <c r="P14" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="Q14">
+      <c r="Q14" s="2">
         <v>34675.19</v>
       </c>
-      <c r="R14">
+      <c r="R14" s="2">
         <v>8563.3633946065784</v>
       </c>
-      <c r="S14">
+      <c r="S14" s="2">
         <v>34675.19</v>
       </c>
-      <c r="T14">
+      <c r="T14" s="2">
         <v>35625.69</v>
       </c>
-      <c r="U14">
+      <c r="U14" s="2">
         <v>34675.19</v>
       </c>
-      <c r="V14">
+      <c r="V14" s="2">
         <v>-6653.4999999999964</v>
       </c>
-      <c r="W14">
+      <c r="W14" s="2">
         <v>-0.18676129500930361</v>
       </c>
-      <c r="X14">
+      <c r="X14" s="2">
         <v>-0.63349991148688478</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Y14" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AA14" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AB14" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AC14" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AD14" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AE14" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="AF14">
+      <c r="AF14" s="2">
         <v>-725.9578571428566</v>
       </c>
-      <c r="AG14">
+      <c r="AG14" s="2">
         <v>1961.3796428571441</v>
       </c>
-      <c r="AH14" t="s">
+      <c r="AH14" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="AI14" t="s">
+      <c r="AI14" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="AJ14">
+      <c r="AJ14" s="2">
         <v>85</v>
       </c>
-      <c r="AK14">
+      <c r="AK14" s="2">
         <v>28972.19</v>
       </c>
-      <c r="AL14">
+      <c r="AL14" s="2">
         <v>8563.3633946065784</v>
       </c>
-      <c r="AM14">
+      <c r="AM14" s="2">
         <v>20408.82660539342</v>
       </c>
-      <c r="AN14">
+      <c r="AN14" s="2">
         <v>238.3272280404147</v>
       </c>
-      <c r="AO14">
+      <c r="AO14" s="2">
         <v>35625.69</v>
       </c>
-      <c r="AP14">
+      <c r="AP14" s="2">
         <v>3</v>
       </c>
-      <c r="AQ14">
+      <c r="AQ14" s="2">
         <v>7248.9307455211347</v>
       </c>
-      <c r="AR14">
-        <v>0</v>
-      </c>
-      <c r="AS14">
-        <v>0</v>
-      </c>
-      <c r="AT14">
+      <c r="AR14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT14" s="2">
         <v>26034.091799731628</v>
       </c>
-      <c r="AU14">
-        <v>0</v>
-      </c>
-      <c r="AV14">
-        <v>0</v>
-      </c>
-      <c r="AW14">
+      <c r="AU14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW14" s="2">
         <v>-18.771392497407849</v>
       </c>
-      <c r="AX14">
+      <c r="AX14" s="2">
         <v>25.12935401237554</v>
       </c>
-      <c r="AY14">
+      <c r="AY14" s="2">
         <v>2.075686212620468</v>
       </c>
-      <c r="AZ14">
+      <c r="AZ14" s="2">
         <v>-44.660399464132162</v>
       </c>
-      <c r="BA14">
+      <c r="BA14" s="2">
         <v>69.704029999240731</v>
       </c>
-      <c r="BB14">
+      <c r="BB14" s="2">
         <v>19.9253161899384</v>
       </c>
-      <c r="BC14">
+      <c r="BC14" s="2">
         <v>33283.022545252767</v>
       </c>
-      <c r="BD14">
+      <c r="BD14" s="2">
         <v>2</v>
       </c>
-      <c r="BE14">
+      <c r="BE14" s="2">
         <v>2</v>
       </c>
-      <c r="BF14">
+      <c r="BF14" s="2">
         <v>6</v>
       </c>
-      <c r="BG14" t="s">
+      <c r="BG14" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="BH14" t="s">
+      <c r="BH14" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="BI14" t="s">
+      <c r="BI14" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="BJ14">
+      <c r="BJ14" s="2">
         <v>7.3801899779816047</v>
       </c>
-      <c r="BK14">
+      <c r="BK14" s="2">
         <v>-5.3256696964155168</v>
       </c>
-      <c r="BL14">
+      <c r="BL14" s="2">
         <v>-5.587566283733846</v>
       </c>
-      <c r="BM14">
+      <c r="BM14" s="2">
         <v>39.485012464279187</v>
       </c>
-      <c r="BN14">
+      <c r="BN14" s="2">
         <v>-36.652514482740578</v>
       </c>
-      <c r="BO14">
+      <c r="BO14" s="2">
         <v>-0.3200732697017345</v>
       </c>
-      <c r="BP14">
+      <c r="BP14" s="2">
         <v>26.15158247538945</v>
       </c>
-      <c r="BQ14">
+      <c r="BQ14" s="2">
         <v>-30.45502370879105</v>
       </c>
-      <c r="BR14">
+      <c r="BR14" s="2">
         <v>-7.663252496354314</v>
       </c>
-      <c r="BS14">
+      <c r="BS14" s="2">
         <v>84.145411928411349</v>
       </c>
-      <c r="BT14">
+      <c r="BT14" s="2">
         <v>-106.3565444819813</v>
       </c>
-      <c r="BU14">
+      <c r="BU14" s="2">
         <v>-20.24538945964014</v>
       </c>
-      <c r="BV14">
+      <c r="BV14" s="2">
         <v>29.48087152387394</v>
       </c>
-      <c r="BW14">
+      <c r="BW14" s="2">
         <v>-18.676129500930362</v>
       </c>
     </row>
@@ -10880,227 +10894,227 @@
         <v>19.523292997309358</v>
       </c>
     </row>
-    <row r="45" spans="1:75" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+    <row r="45" spans="1:75" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="3">
         <v>5998.14</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="3">
         <v>2512.91</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="3">
         <v>4456.1000000000004</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="3">
         <v>2741.61</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="3">
         <v>2249.08</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="3">
         <v>1783.93</v>
       </c>
-      <c r="H45">
+      <c r="H45" s="3">
         <v>2033</v>
       </c>
-      <c r="I45">
+      <c r="I45" s="3">
         <v>7</v>
       </c>
-      <c r="J45" t="b">
-        <v>0</v>
-      </c>
-      <c r="K45">
-        <v>0</v>
-      </c>
-      <c r="L45">
+      <c r="J45" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
         <v>3110.681428571429</v>
       </c>
-      <c r="M45">
+      <c r="M45" s="3">
         <v>3.6299999999999999E-2</v>
       </c>
-      <c r="N45">
+      <c r="N45" s="3">
         <v>0.36890000000000001</v>
       </c>
-      <c r="O45">
+      <c r="O45" s="3">
         <v>-1425.9402149234959</v>
       </c>
-      <c r="P45" t="s">
+      <c r="P45" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="Q45">
+      <c r="Q45" s="3">
         <v>3110.681428571429</v>
       </c>
-      <c r="R45">
+      <c r="R45" s="3">
         <v>768.21195436019445</v>
       </c>
-      <c r="S45">
+      <c r="S45" s="3">
         <v>3110.681428571429</v>
       </c>
-      <c r="T45">
+      <c r="T45" s="3">
         <v>3290.2950000000001</v>
       </c>
-      <c r="U45">
+      <c r="U45" s="3">
         <v>3110.681428571429</v>
       </c>
-      <c r="V45">
+      <c r="V45" s="3">
         <v>-1257.2950000000001</v>
       </c>
-      <c r="W45">
+      <c r="W45" s="3">
         <v>-0.38212227171119922</v>
       </c>
-      <c r="X45">
+      <c r="X45" s="3">
         <v>-1.2961702010802241</v>
       </c>
-      <c r="Y45" t="s">
+      <c r="Y45" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="AA45" t="s">
+      <c r="AA45" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="AB45" t="s">
+      <c r="AB45" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="AC45" t="s">
+      <c r="AC45" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="AD45" t="s">
+      <c r="AD45" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="AE45" t="s">
+      <c r="AE45" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="AF45">
+      <c r="AF45" s="3">
         <v>-555.7285714285714</v>
       </c>
-      <c r="AG45">
+      <c r="AG45" s="3">
         <v>1961.3796428571441</v>
       </c>
-      <c r="AH45" t="s">
+      <c r="AH45" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="AI45" t="s">
+      <c r="AI45" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="AJ45">
+      <c r="AJ45" s="3">
         <v>78</v>
       </c>
-      <c r="AK45">
+      <c r="AK45" s="3">
         <v>2033</v>
       </c>
-      <c r="AL45">
+      <c r="AL45" s="3">
         <v>768.21195436019445</v>
       </c>
-      <c r="AM45">
+      <c r="AM45" s="3">
         <v>1264.7880456398059</v>
       </c>
-      <c r="AN45">
+      <c r="AN45" s="3">
         <v>164.6405055871833</v>
       </c>
-      <c r="AO45">
+      <c r="AO45" s="3">
         <v>3290.2950000000001</v>
       </c>
-      <c r="AP45">
+      <c r="AP45" s="3">
         <v>24</v>
       </c>
-      <c r="AQ45">
-        <v>0</v>
-      </c>
-      <c r="AR45">
+      <c r="AQ45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR45" s="3">
         <v>1186.0664500876151</v>
       </c>
-      <c r="AS45">
-        <v>0</v>
-      </c>
-      <c r="AT45">
+      <c r="AS45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT45" s="3">
         <v>594.80347774859342</v>
       </c>
-      <c r="AU45">
-        <v>0</v>
-      </c>
-      <c r="AV45">
-        <v>0</v>
-      </c>
-      <c r="AW45">
+      <c r="AU45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW45" s="3">
         <v>-18.771392497407849</v>
       </c>
-      <c r="AX45">
+      <c r="AX45" s="3">
         <v>25.12935401237554</v>
       </c>
-      <c r="AY45">
+      <c r="AY45" s="3">
         <v>2.075686212620468</v>
       </c>
-      <c r="AZ45">
+      <c r="AZ45" s="3">
         <v>-44.660399464132162</v>
       </c>
-      <c r="BA45">
+      <c r="BA45" s="3">
         <v>69.704029999240731</v>
       </c>
-      <c r="BB45">
+      <c r="BB45" s="3">
         <v>19.9253161899384</v>
       </c>
-      <c r="BC45">
+      <c r="BC45" s="3">
         <v>1780.869927836208</v>
       </c>
-      <c r="BD45">
+      <c r="BD45" s="3">
         <v>2</v>
       </c>
-      <c r="BE45">
+      <c r="BE45" s="3">
         <v>1</v>
       </c>
-      <c r="BF45">
+      <c r="BF45" s="3">
         <v>2</v>
       </c>
-      <c r="BG45" t="s">
+      <c r="BG45" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="BH45" t="s">
+      <c r="BH45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="BI45" t="s">
+      <c r="BI45" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="BJ45">
+      <c r="BJ45" s="3">
         <v>-58.105179272241067</v>
       </c>
-      <c r="BK45">
+      <c r="BK45" s="3">
         <v>77.328276778714738</v>
       </c>
-      <c r="BL45">
+      <c r="BL45" s="3">
         <v>-38.475123987343203</v>
       </c>
-      <c r="BM45">
+      <c r="BM45" s="3">
         <v>-17.96499137368189</v>
       </c>
-      <c r="BN45">
+      <c r="BN45" s="3">
         <v>-20.681789887420631</v>
       </c>
-      <c r="BO45">
+      <c r="BO45" s="3">
         <v>13.96187070120464</v>
       </c>
-      <c r="BP45">
+      <c r="BP45" s="3">
         <v>-39.333786774833207</v>
       </c>
-      <c r="BQ45">
+      <c r="BQ45" s="3">
         <v>52.198922766339201</v>
       </c>
-      <c r="BR45">
+      <c r="BR45" s="3">
         <v>-40.550810199963657</v>
       </c>
-      <c r="BS45">
+      <c r="BS45" s="3">
         <v>26.695408090450272</v>
       </c>
-      <c r="BT45">
+      <c r="BT45" s="3">
         <v>-90.385819886661352</v>
       </c>
-      <c r="BU45">
+      <c r="BU45" s="3">
         <v>-5.9634454887337629</v>
       </c>
-      <c r="BV45">
+      <c r="BV45" s="3">
         <v>29.48087152387394</v>
       </c>
-      <c r="BW45">
+      <c r="BW45" s="3">
         <v>-38.21222717111992</v>
       </c>
     </row>
@@ -11322,227 +11336,227 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="47" spans="1:75" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+    <row r="47" spans="1:75" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="3">
         <v>3691.42</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="3">
         <v>6285.33</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="3">
         <v>6063.56</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="3">
         <v>8135.66</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="3">
         <v>7006.91</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="3">
         <v>5925.37</v>
       </c>
-      <c r="H47">
+      <c r="H47" s="3">
         <v>5782.46</v>
       </c>
-      <c r="I47">
+      <c r="I47" s="3">
         <v>7</v>
       </c>
-      <c r="J47" t="b">
-        <v>0</v>
-      </c>
-      <c r="K47">
-        <v>0</v>
-      </c>
-      <c r="L47">
+      <c r="J47" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3">
         <v>6127.244285714286</v>
       </c>
-      <c r="M47">
+      <c r="M47" s="3">
         <v>6.0299999999999999E-2</v>
       </c>
-      <c r="N47">
+      <c r="N47" s="3">
         <v>-0.27710000000000001</v>
       </c>
-      <c r="O47">
+      <c r="O47" s="3">
         <v>47.684091794763837</v>
       </c>
-      <c r="P47" t="s">
+      <c r="P47" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="Q47">
+      <c r="Q47" s="3">
         <v>6127.244285714286</v>
       </c>
-      <c r="R47">
+      <c r="R47" s="3">
         <v>1513.180444753094</v>
       </c>
-      <c r="S47">
+      <c r="S47" s="3">
         <v>6127.244285714286</v>
       </c>
-      <c r="T47">
+      <c r="T47" s="3">
         <v>6184.708333333333</v>
       </c>
-      <c r="U47">
+      <c r="U47" s="3">
         <v>6127.244285714286</v>
       </c>
-      <c r="V47">
+      <c r="V47" s="3">
         <v>-402.24833333333299</v>
       </c>
-      <c r="W47">
+      <c r="W47" s="3">
         <v>-6.5039175924491127E-2</v>
       </c>
-      <c r="X47">
+      <c r="X47" s="3">
         <v>-0.22061483450996919</v>
       </c>
-      <c r="Y47" t="s">
+      <c r="Y47" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="AA47" t="s">
+      <c r="AA47" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="AB47" t="s">
+      <c r="AB47" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="AC47" t="s">
+      <c r="AC47" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="AD47" t="s">
+      <c r="AD47" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="AE47" t="s">
+      <c r="AE47" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="AF47">
+      <c r="AF47" s="3">
         <v>232.0196428571428</v>
       </c>
-      <c r="AG47">
+      <c r="AG47" s="3">
         <v>1961.3796428571441</v>
       </c>
-      <c r="AH47" t="s">
+      <c r="AH47" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="AI47" t="s">
+      <c r="AI47" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="AJ47">
+      <c r="AJ47" s="3">
         <v>69</v>
       </c>
-      <c r="AK47">
+      <c r="AK47" s="3">
         <v>5782.46</v>
       </c>
-      <c r="AL47">
+      <c r="AL47" s="3">
         <v>1513.180444753094</v>
       </c>
-      <c r="AM47">
+      <c r="AM47" s="3">
         <v>4269.2795552469061</v>
       </c>
-      <c r="AN47">
+      <c r="AN47" s="3">
         <v>282.13948772933861</v>
       </c>
-      <c r="AO47">
+      <c r="AO47" s="3">
         <v>6184.708333333333</v>
       </c>
-      <c r="AP47">
+      <c r="AP47" s="3">
         <v>13</v>
       </c>
-      <c r="AQ47">
+      <c r="AQ47" s="3">
         <v>3102.269936927813</v>
       </c>
-      <c r="AR47">
-        <v>0</v>
-      </c>
-      <c r="AS47">
+      <c r="AR47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS47" s="3">
         <v>1643.0615210860301</v>
       </c>
-      <c r="AT47">
+      <c r="AT47" s="3">
         <v>2097.8852550436141</v>
       </c>
-      <c r="AU47">
-        <v>0</v>
-      </c>
-      <c r="AV47">
-        <v>0</v>
-      </c>
-      <c r="AW47">
+      <c r="AU47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW47" s="3">
         <v>-18.771392497407849</v>
       </c>
-      <c r="AX47">
+      <c r="AX47" s="3">
         <v>25.12935401237554</v>
       </c>
-      <c r="AY47">
+      <c r="AY47" s="3">
         <v>2.075686212620468</v>
       </c>
-      <c r="AZ47">
+      <c r="AZ47" s="3">
         <v>-44.660399464132162</v>
       </c>
-      <c r="BA47">
+      <c r="BA47" s="3">
         <v>69.704029999240731</v>
       </c>
-      <c r="BB47">
+      <c r="BB47" s="3">
         <v>19.9253161899384</v>
       </c>
-      <c r="BC47">
+      <c r="BC47" s="3">
         <v>6843.2167130574562</v>
       </c>
-      <c r="BD47">
+      <c r="BD47" s="3">
         <v>3</v>
       </c>
-      <c r="BE47">
+      <c r="BE47" s="3">
         <v>2</v>
       </c>
-      <c r="BF47">
+      <c r="BF47" s="3">
         <v>4</v>
       </c>
-      <c r="BG47" t="s">
+      <c r="BG47" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="BH47" t="s">
+      <c r="BH47" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="BI47" t="s">
+      <c r="BI47" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="BJ47">
+      <c r="BJ47" s="3">
         <v>70.268622914759078</v>
       </c>
-      <c r="BK47">
+      <c r="BK47" s="3">
         <v>-3.52837480291408</v>
       </c>
-      <c r="BL47">
+      <c r="BL47" s="3">
         <v>34.172994082684092</v>
       </c>
-      <c r="BM47">
+      <c r="BM47" s="3">
         <v>-13.874104866722551</v>
       </c>
-      <c r="BN47">
+      <c r="BN47" s="3">
         <v>-15.435334548324439</v>
       </c>
-      <c r="BO47">
+      <c r="BO47" s="3">
         <v>-2.4118325100373461</v>
       </c>
-      <c r="BP47">
+      <c r="BP47" s="3">
         <v>89.040015412166923</v>
       </c>
-      <c r="BQ47">
+      <c r="BQ47" s="3">
         <v>-28.657728815289619</v>
       </c>
-      <c r="BR47">
+      <c r="BR47" s="3">
         <v>32.097307870063617</v>
       </c>
-      <c r="BS47">
+      <c r="BS47" s="3">
         <v>30.786294597409611</v>
       </c>
-      <c r="BT47">
+      <c r="BT47" s="3">
         <v>-85.139364547565165</v>
       </c>
-      <c r="BU47">
+      <c r="BU47" s="3">
         <v>-22.337148699975749</v>
       </c>
-      <c r="BV47">
+      <c r="BV47" s="3">
         <v>29.48087152387394</v>
       </c>
-      <c r="BW47">
+      <c r="BW47" s="3">
         <v>-6.5039175924491124</v>
       </c>
     </row>
